--- a/COVID_EXCEL/COVID Lombardia.xlsx
+++ b/COVID_EXCEL/COVID Lombardia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D95E5F-6DBC-491F-A190-000510AB9CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1DF7D5-3F46-4534-A217-DA0A3711CDD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="23715" yWindow="1035" windowWidth="15375" windowHeight="13350" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -588,19 +588,25 @@
                   <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>448</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>474</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>501</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>530</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>561</c:v>
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -975,6 +981,12 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>650</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2377,19 +2389,25 @@
                   <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>448</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>474</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>501</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>530</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>561</c:v>
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2764,6 +2782,12 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>650</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6529,19 +6553,25 @@
                   <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>448</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>474</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>501</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>530</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>561</c:v>
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7345,6 +7375,12 @@
                 <c:pt idx="122">
                   <c:v>570</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>650</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7779,28 +7815,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="127"/>
                 <c:pt idx="119">
-                  <c:v>474</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>501</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>530</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>561</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>593</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>628</c:v>
+                  <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>665</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>704</c:v>
+                  <c:v>735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8904,19 +8940,25 @@
                   <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>448</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>474</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>501</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>530</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>561</c:v>
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9741,6 +9783,12 @@
                 <c:pt idx="122">
                   <c:v>570</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>650</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10196,49 +10244,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="134"/>
                 <c:pt idx="119">
-                  <c:v>474</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>501</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>530</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>561</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>593</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>628</c:v>
+                  <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>665</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>704</c:v>
+                  <c:v>735</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>715</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>726</c:v>
+                  <c:v>823</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>738</c:v>
+                  <c:v>871</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>750</c:v>
+                  <c:v>921</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>762</c:v>
+                  <c:v>974</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>774</c:v>
+                  <c:v>1031</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>786</c:v>
+                  <c:v>1091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10741,19 +10789,25 @@
                   <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>448</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>474</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>501</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>530</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>561</c:v>
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10996,6 +11050,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>650</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12582,19 +12642,25 @@
                   <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>448</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>474</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>501</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>530</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>561</c:v>
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13415,6 +13481,12 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>650</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13723,17 +13795,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$L$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Model</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -13748,389 +13809,197 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$132</c:f>
+              <c:f>Model!$K$70:$K$132</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="127"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>44019.708333333336</c:v>
+                  <c:v>44083.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44020.708333333336</c:v>
+                  <c:v>44084.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44021.708333333336</c:v>
+                  <c:v>44085.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44022.708333333336</c:v>
+                  <c:v>44086.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44023.708333333336</c:v>
+                  <c:v>44087.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44024.708333333336</c:v>
+                  <c:v>44088.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44025.708333333336</c:v>
+                  <c:v>44089.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44026.708333333336</c:v>
+                  <c:v>44090.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44027.708333333336</c:v>
+                  <c:v>44091.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44028.708333333336</c:v>
+                  <c:v>44092.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44029.708333333336</c:v>
+                  <c:v>44093.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44030.708333333336</c:v>
+                  <c:v>44094.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44031.708333333336</c:v>
+                  <c:v>44095.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44032.708333333336</c:v>
+                  <c:v>44096.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44033.708333333336</c:v>
+                  <c:v>44097.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44034.708333333336</c:v>
+                  <c:v>44098.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44035.708333333336</c:v>
+                  <c:v>44099.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44036.708333333336</c:v>
+                  <c:v>44100.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44037.708333333336</c:v>
+                  <c:v>44101.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44038.708333333336</c:v>
+                  <c:v>44102.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44039.708333333336</c:v>
+                  <c:v>44103.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44040.708333333336</c:v>
+                  <c:v>44104.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44041.708333333336</c:v>
+                  <c:v>44105.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44042.708333333336</c:v>
+                  <c:v>44106.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44043.708333333336</c:v>
+                  <c:v>44107.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44044.708333333336</c:v>
+                  <c:v>44108.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44045.708333333336</c:v>
+                  <c:v>44109.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44046.708333333336</c:v>
+                  <c:v>44110.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44047.708333333336</c:v>
+                  <c:v>44111.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44048.708333333336</c:v>
+                  <c:v>44112.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44049.708333333336</c:v>
+                  <c:v>44113.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44050.708333333336</c:v>
+                  <c:v>44114.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44051.708333333336</c:v>
+                  <c:v>44115.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44052.708333333336</c:v>
+                  <c:v>44116.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44053.708333333336</c:v>
+                  <c:v>44117.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44054.708333333336</c:v>
+                  <c:v>44118.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44055.708333333336</c:v>
+                  <c:v>44119.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44056.708333333336</c:v>
+                  <c:v>44120.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44057.708333333336</c:v>
+                  <c:v>44121.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44058.708333333336</c:v>
+                  <c:v>44122.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44059.708333333336</c:v>
+                  <c:v>44123.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44060.708333333336</c:v>
+                  <c:v>44124.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44061.708333333336</c:v>
+                  <c:v>44125.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44062.708333333336</c:v>
+                  <c:v>44126.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44063.708333333336</c:v>
+                  <c:v>44127</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>44064.708333333336</c:v>
+                  <c:v>44128</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>44065.708333333336</c:v>
+                  <c:v>44129</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>44066.708333333336</c:v>
+                  <c:v>44130</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>44067.708333333336</c:v>
+                  <c:v>44131</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>44068.708333333336</c:v>
+                  <c:v>44132</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>44069.708333333336</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>44070.708333333336</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>44071.708333333336</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>44072.708333333336</c:v>
+                  <c:v>44136</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>44073.708333333336</c:v>
+                  <c:v>44137</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>44074.708333333336</c:v>
+                  <c:v>44138</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>44075.708333333336</c:v>
+                  <c:v>44139</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>44076.708333333336</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>44077.708333333336</c:v>
+                  <c:v>44141</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>44078.708333333336</c:v>
+                  <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>44079.708333333336</c:v>
+                  <c:v>44143</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>44080.708333333336</c:v>
+                  <c:v>44144</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>44081.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44082.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44083.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44084.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44085.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44086.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44087.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44088.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44089.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44090.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44091.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44092.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44093.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44094.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44095.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44096.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44097.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44098.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44099.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44100.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44101.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44102.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44103.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44104.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44105.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44106.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44107.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44108.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44109.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44110.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44111.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44112.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44113.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44114.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44115.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44116.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44117.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44118.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44119.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44120.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44121.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44122.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44123.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44124.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44125.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44126.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44127</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44128</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44129</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44130</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44131</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44132</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44133</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44135</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44136</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44137</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44138</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44139</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44140</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44141</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44142</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44143</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44144</c:v>
-                </c:pt>
-                <c:pt idx="126">
                   <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
@@ -14138,378 +14007,192 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$6:$L$132</c:f>
+              <c:f>Model!$L$70:$L$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="127"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>15</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>16</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>20</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>21</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>22</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>23</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>24</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>25</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>26</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>448</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>561</c:v>
+                  <c:v>649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14524,17 +14207,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RealData</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="50800" cap="rnd">
               <a:solidFill>
@@ -14550,389 +14222,197 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$132</c:f>
+              <c:f>Model!$K$70:$K$132</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="127"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>44019.708333333336</c:v>
+                  <c:v>44083.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44020.708333333336</c:v>
+                  <c:v>44084.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44021.708333333336</c:v>
+                  <c:v>44085.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44022.708333333336</c:v>
+                  <c:v>44086.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44023.708333333336</c:v>
+                  <c:v>44087.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44024.708333333336</c:v>
+                  <c:v>44088.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44025.708333333336</c:v>
+                  <c:v>44089.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44026.708333333336</c:v>
+                  <c:v>44090.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44027.708333333336</c:v>
+                  <c:v>44091.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44028.708333333336</c:v>
+                  <c:v>44092.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44029.708333333336</c:v>
+                  <c:v>44093.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44030.708333333336</c:v>
+                  <c:v>44094.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44031.708333333336</c:v>
+                  <c:v>44095.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44032.708333333336</c:v>
+                  <c:v>44096.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44033.708333333336</c:v>
+                  <c:v>44097.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44034.708333333336</c:v>
+                  <c:v>44098.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44035.708333333336</c:v>
+                  <c:v>44099.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44036.708333333336</c:v>
+                  <c:v>44100.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44037.708333333336</c:v>
+                  <c:v>44101.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44038.708333333336</c:v>
+                  <c:v>44102.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44039.708333333336</c:v>
+                  <c:v>44103.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44040.708333333336</c:v>
+                  <c:v>44104.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44041.708333333336</c:v>
+                  <c:v>44105.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44042.708333333336</c:v>
+                  <c:v>44106.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44043.708333333336</c:v>
+                  <c:v>44107.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44044.708333333336</c:v>
+                  <c:v>44108.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44045.708333333336</c:v>
+                  <c:v>44109.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44046.708333333336</c:v>
+                  <c:v>44110.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44047.708333333336</c:v>
+                  <c:v>44111.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44048.708333333336</c:v>
+                  <c:v>44112.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44049.708333333336</c:v>
+                  <c:v>44113.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44050.708333333336</c:v>
+                  <c:v>44114.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44051.708333333336</c:v>
+                  <c:v>44115.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44052.708333333336</c:v>
+                  <c:v>44116.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44053.708333333336</c:v>
+                  <c:v>44117.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44054.708333333336</c:v>
+                  <c:v>44118.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44055.708333333336</c:v>
+                  <c:v>44119.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44056.708333333336</c:v>
+                  <c:v>44120.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44057.708333333336</c:v>
+                  <c:v>44121.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44058.708333333336</c:v>
+                  <c:v>44122.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44059.708333333336</c:v>
+                  <c:v>44123.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44060.708333333336</c:v>
+                  <c:v>44124.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44061.708333333336</c:v>
+                  <c:v>44125.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44062.708333333336</c:v>
+                  <c:v>44126.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44063.708333333336</c:v>
+                  <c:v>44127</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>44064.708333333336</c:v>
+                  <c:v>44128</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>44065.708333333336</c:v>
+                  <c:v>44129</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>44066.708333333336</c:v>
+                  <c:v>44130</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>44067.708333333336</c:v>
+                  <c:v>44131</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>44068.708333333336</c:v>
+                  <c:v>44132</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>44069.708333333336</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>44070.708333333336</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>44071.708333333336</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>44072.708333333336</c:v>
+                  <c:v>44136</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>44073.708333333336</c:v>
+                  <c:v>44137</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>44074.708333333336</c:v>
+                  <c:v>44138</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>44075.708333333336</c:v>
+                  <c:v>44139</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>44076.708333333336</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>44077.708333333336</c:v>
+                  <c:v>44141</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>44078.708333333336</c:v>
+                  <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>44079.708333333336</c:v>
+                  <c:v>44143</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>44080.708333333336</c:v>
+                  <c:v>44144</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>44081.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44082.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44083.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44084.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44085.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44086.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44087.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44088.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44089.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44090.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44091.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44092.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44093.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44094.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44095.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44096.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44097.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44098.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44099.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44100.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44101.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44102.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44103.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44104.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44105.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44106.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44107.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44108.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44109.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44110.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44111.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44112.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44113.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44114.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44115.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44116.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44117.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44118.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44119.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44120.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44121.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44122.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44123.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44124.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44125.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44126.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44127</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44128</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44129</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44130</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44131</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44132</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44133</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44135</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44136</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44137</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44138</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44139</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44140</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44141</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44142</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44143</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44144</c:v>
-                </c:pt>
-                <c:pt idx="126">
                   <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
@@ -14940,378 +14420,192 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$6:$M$132</c:f>
+              <c:f>Model!$M$70:$M$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="127"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>14</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>16</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>15</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>17</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>22</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>21</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>22</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>27</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>26</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>418</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>435</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>570</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15326,17 +14620,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$N$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Forecast</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -15352,389 +14635,197 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$132</c:f>
+              <c:f>Model!$K$70:$K$132</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="127"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>44019.708333333336</c:v>
+                  <c:v>44083.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44020.708333333336</c:v>
+                  <c:v>44084.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44021.708333333336</c:v>
+                  <c:v>44085.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44022.708333333336</c:v>
+                  <c:v>44086.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44023.708333333336</c:v>
+                  <c:v>44087.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44024.708333333336</c:v>
+                  <c:v>44088.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44025.708333333336</c:v>
+                  <c:v>44089.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44026.708333333336</c:v>
+                  <c:v>44090.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44027.708333333336</c:v>
+                  <c:v>44091.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44028.708333333336</c:v>
+                  <c:v>44092.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44029.708333333336</c:v>
+                  <c:v>44093.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44030.708333333336</c:v>
+                  <c:v>44094.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44031.708333333336</c:v>
+                  <c:v>44095.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44032.708333333336</c:v>
+                  <c:v>44096.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44033.708333333336</c:v>
+                  <c:v>44097.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44034.708333333336</c:v>
+                  <c:v>44098.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44035.708333333336</c:v>
+                  <c:v>44099.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44036.708333333336</c:v>
+                  <c:v>44100.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44037.708333333336</c:v>
+                  <c:v>44101.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44038.708333333336</c:v>
+                  <c:v>44102.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44039.708333333336</c:v>
+                  <c:v>44103.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44040.708333333336</c:v>
+                  <c:v>44104.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44041.708333333336</c:v>
+                  <c:v>44105.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44042.708333333336</c:v>
+                  <c:v>44106.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44043.708333333336</c:v>
+                  <c:v>44107.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44044.708333333336</c:v>
+                  <c:v>44108.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44045.708333333336</c:v>
+                  <c:v>44109.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44046.708333333336</c:v>
+                  <c:v>44110.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44047.708333333336</c:v>
+                  <c:v>44111.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44048.708333333336</c:v>
+                  <c:v>44112.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44049.708333333336</c:v>
+                  <c:v>44113.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44050.708333333336</c:v>
+                  <c:v>44114.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44051.708333333336</c:v>
+                  <c:v>44115.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44052.708333333336</c:v>
+                  <c:v>44116.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44053.708333333336</c:v>
+                  <c:v>44117.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44054.708333333336</c:v>
+                  <c:v>44118.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44055.708333333336</c:v>
+                  <c:v>44119.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44056.708333333336</c:v>
+                  <c:v>44120.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44057.708333333336</c:v>
+                  <c:v>44121.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44058.708333333336</c:v>
+                  <c:v>44122.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44059.708333333336</c:v>
+                  <c:v>44123.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44060.708333333336</c:v>
+                  <c:v>44124.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44061.708333333336</c:v>
+                  <c:v>44125.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44062.708333333336</c:v>
+                  <c:v>44126.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44063.708333333336</c:v>
+                  <c:v>44127</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>44064.708333333336</c:v>
+                  <c:v>44128</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>44065.708333333336</c:v>
+                  <c:v>44129</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>44066.708333333336</c:v>
+                  <c:v>44130</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>44067.708333333336</c:v>
+                  <c:v>44131</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>44068.708333333336</c:v>
+                  <c:v>44132</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>44069.708333333336</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>44070.708333333336</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>44071.708333333336</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>44072.708333333336</c:v>
+                  <c:v>44136</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>44073.708333333336</c:v>
+                  <c:v>44137</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>44074.708333333336</c:v>
+                  <c:v>44138</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>44075.708333333336</c:v>
+                  <c:v>44139</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>44076.708333333336</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>44077.708333333336</c:v>
+                  <c:v>44141</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>44078.708333333336</c:v>
+                  <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>44079.708333333336</c:v>
+                  <c:v>44143</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>44080.708333333336</c:v>
+                  <c:v>44144</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>44081.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44082.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44083.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44084.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44085.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44086.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44087.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44088.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44089.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44090.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44091.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44092.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44093.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44094.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44095.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44096.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44097.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44098.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44099.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44100.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44101.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44102.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44103.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44104.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44105.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44106.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44107.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44108.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44109.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44110.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44111.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44112.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44113.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44114.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44115.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44116.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44117.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44118.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44119.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44120.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44121.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44122.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44123.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44124.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44125.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44126.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44127</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44128</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44129</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44130</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44131</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44132</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44133</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44135</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44136</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44137</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44138</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44139</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44140</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44141</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44142</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44143</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44144</c:v>
-                </c:pt>
-                <c:pt idx="126">
                   <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
@@ -15742,33 +14833,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$6:$N$132</c:f>
+              <c:f>Model!$N$70:$N$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="127"/>
-                <c:pt idx="119">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>561</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>593</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>704</c:v>
+                <c:ptCount val="63"/>
+                <c:pt idx="55">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15848,7 +14939,6 @@
         <c:axId val="1076745616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -16077,17 +15167,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$L$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Model</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -16102,410 +15181,218 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$139</c:f>
+              <c:f>Model!$K$70:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="134"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>44019.708333333336</c:v>
+                  <c:v>44083.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44020.708333333336</c:v>
+                  <c:v>44084.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44021.708333333336</c:v>
+                  <c:v>44085.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44022.708333333336</c:v>
+                  <c:v>44086.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44023.708333333336</c:v>
+                  <c:v>44087.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44024.708333333336</c:v>
+                  <c:v>44088.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44025.708333333336</c:v>
+                  <c:v>44089.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44026.708333333336</c:v>
+                  <c:v>44090.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44027.708333333336</c:v>
+                  <c:v>44091.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44028.708333333336</c:v>
+                  <c:v>44092.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44029.708333333336</c:v>
+                  <c:v>44093.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44030.708333333336</c:v>
+                  <c:v>44094.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44031.708333333336</c:v>
+                  <c:v>44095.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44032.708333333336</c:v>
+                  <c:v>44096.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44033.708333333336</c:v>
+                  <c:v>44097.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44034.708333333336</c:v>
+                  <c:v>44098.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44035.708333333336</c:v>
+                  <c:v>44099.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44036.708333333336</c:v>
+                  <c:v>44100.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44037.708333333336</c:v>
+                  <c:v>44101.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44038.708333333336</c:v>
+                  <c:v>44102.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44039.708333333336</c:v>
+                  <c:v>44103.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44040.708333333336</c:v>
+                  <c:v>44104.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44041.708333333336</c:v>
+                  <c:v>44105.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44042.708333333336</c:v>
+                  <c:v>44106.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44043.708333333336</c:v>
+                  <c:v>44107.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44044.708333333336</c:v>
+                  <c:v>44108.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44045.708333333336</c:v>
+                  <c:v>44109.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44046.708333333336</c:v>
+                  <c:v>44110.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44047.708333333336</c:v>
+                  <c:v>44111.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44048.708333333336</c:v>
+                  <c:v>44112.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44049.708333333336</c:v>
+                  <c:v>44113.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44050.708333333336</c:v>
+                  <c:v>44114.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44051.708333333336</c:v>
+                  <c:v>44115.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44052.708333333336</c:v>
+                  <c:v>44116.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44053.708333333336</c:v>
+                  <c:v>44117.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44054.708333333336</c:v>
+                  <c:v>44118.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44055.708333333336</c:v>
+                  <c:v>44119.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44056.708333333336</c:v>
+                  <c:v>44120.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44057.708333333336</c:v>
+                  <c:v>44121.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44058.708333333336</c:v>
+                  <c:v>44122.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44059.708333333336</c:v>
+                  <c:v>44123.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44060.708333333336</c:v>
+                  <c:v>44124.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44061.708333333336</c:v>
+                  <c:v>44125.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44062.708333333336</c:v>
+                  <c:v>44126.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44063.708333333336</c:v>
+                  <c:v>44127</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>44064.708333333336</c:v>
+                  <c:v>44128</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>44065.708333333336</c:v>
+                  <c:v>44129</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>44066.708333333336</c:v>
+                  <c:v>44130</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>44067.708333333336</c:v>
+                  <c:v>44131</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>44068.708333333336</c:v>
+                  <c:v>44132</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>44069.708333333336</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>44070.708333333336</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>44071.708333333336</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>44072.708333333336</c:v>
+                  <c:v>44136</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>44073.708333333336</c:v>
+                  <c:v>44137</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>44074.708333333336</c:v>
+                  <c:v>44138</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>44075.708333333336</c:v>
+                  <c:v>44139</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>44076.708333333336</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>44077.708333333336</c:v>
+                  <c:v>44141</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>44078.708333333336</c:v>
+                  <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>44079.708333333336</c:v>
+                  <c:v>44143</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>44080.708333333336</c:v>
+                  <c:v>44144</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>44081.708333333336</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>44082.708333333336</c:v>
+                  <c:v>44146</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>44083.708333333336</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>44084.708333333336</c:v>
+                  <c:v>44148</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>44085.708333333336</c:v>
+                  <c:v>44149</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>44086.708333333336</c:v>
+                  <c:v>44150</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>44087.708333333336</c:v>
+                  <c:v>44151</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>44088.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44089.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44090.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44091.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44092.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44093.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44094.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44095.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44096.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44097.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44098.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44099.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44100.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44101.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44102.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44103.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44104.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44105.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44106.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44107.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44108.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44109.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44110.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44111.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44112.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44113.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44114.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44115.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44116.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44117.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44118.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44119.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44120.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44121.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44122.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44123.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44124.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44125.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44126.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44127</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44128</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44129</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44130</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44131</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44132</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44133</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44135</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44136</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44137</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44138</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44139</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44140</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44141</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44142</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44143</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44144</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>44145</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>44146</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>44147</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>44148</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>44149</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44150</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>44151</c:v>
-                </c:pt>
-                <c:pt idx="133">
                   <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
@@ -16513,378 +15400,192 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$6:$L$139</c:f>
+              <c:f>Model!$L$70:$L$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="134"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>15</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>16</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>20</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>21</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>22</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>23</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>24</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>25</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>26</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>448</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>561</c:v>
+                  <c:v>649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16899,17 +15600,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RealData</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="50800" cap="rnd">
               <a:solidFill>
@@ -16925,410 +15615,218 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$139</c:f>
+              <c:f>Model!$K$70:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="134"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>44019.708333333336</c:v>
+                  <c:v>44083.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44020.708333333336</c:v>
+                  <c:v>44084.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44021.708333333336</c:v>
+                  <c:v>44085.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44022.708333333336</c:v>
+                  <c:v>44086.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44023.708333333336</c:v>
+                  <c:v>44087.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44024.708333333336</c:v>
+                  <c:v>44088.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44025.708333333336</c:v>
+                  <c:v>44089.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44026.708333333336</c:v>
+                  <c:v>44090.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44027.708333333336</c:v>
+                  <c:v>44091.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44028.708333333336</c:v>
+                  <c:v>44092.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44029.708333333336</c:v>
+                  <c:v>44093.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44030.708333333336</c:v>
+                  <c:v>44094.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44031.708333333336</c:v>
+                  <c:v>44095.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44032.708333333336</c:v>
+                  <c:v>44096.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44033.708333333336</c:v>
+                  <c:v>44097.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44034.708333333336</c:v>
+                  <c:v>44098.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44035.708333333336</c:v>
+                  <c:v>44099.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44036.708333333336</c:v>
+                  <c:v>44100.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44037.708333333336</c:v>
+                  <c:v>44101.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44038.708333333336</c:v>
+                  <c:v>44102.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44039.708333333336</c:v>
+                  <c:v>44103.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44040.708333333336</c:v>
+                  <c:v>44104.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44041.708333333336</c:v>
+                  <c:v>44105.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44042.708333333336</c:v>
+                  <c:v>44106.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44043.708333333336</c:v>
+                  <c:v>44107.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44044.708333333336</c:v>
+                  <c:v>44108.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44045.708333333336</c:v>
+                  <c:v>44109.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44046.708333333336</c:v>
+                  <c:v>44110.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44047.708333333336</c:v>
+                  <c:v>44111.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44048.708333333336</c:v>
+                  <c:v>44112.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44049.708333333336</c:v>
+                  <c:v>44113.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44050.708333333336</c:v>
+                  <c:v>44114.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44051.708333333336</c:v>
+                  <c:v>44115.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44052.708333333336</c:v>
+                  <c:v>44116.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44053.708333333336</c:v>
+                  <c:v>44117.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44054.708333333336</c:v>
+                  <c:v>44118.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44055.708333333336</c:v>
+                  <c:v>44119.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44056.708333333336</c:v>
+                  <c:v>44120.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44057.708333333336</c:v>
+                  <c:v>44121.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44058.708333333336</c:v>
+                  <c:v>44122.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44059.708333333336</c:v>
+                  <c:v>44123.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44060.708333333336</c:v>
+                  <c:v>44124.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44061.708333333336</c:v>
+                  <c:v>44125.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44062.708333333336</c:v>
+                  <c:v>44126.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44063.708333333336</c:v>
+                  <c:v>44127</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>44064.708333333336</c:v>
+                  <c:v>44128</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>44065.708333333336</c:v>
+                  <c:v>44129</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>44066.708333333336</c:v>
+                  <c:v>44130</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>44067.708333333336</c:v>
+                  <c:v>44131</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>44068.708333333336</c:v>
+                  <c:v>44132</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>44069.708333333336</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>44070.708333333336</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>44071.708333333336</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>44072.708333333336</c:v>
+                  <c:v>44136</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>44073.708333333336</c:v>
+                  <c:v>44137</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>44074.708333333336</c:v>
+                  <c:v>44138</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>44075.708333333336</c:v>
+                  <c:v>44139</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>44076.708333333336</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>44077.708333333336</c:v>
+                  <c:v>44141</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>44078.708333333336</c:v>
+                  <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>44079.708333333336</c:v>
+                  <c:v>44143</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>44080.708333333336</c:v>
+                  <c:v>44144</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>44081.708333333336</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>44082.708333333336</c:v>
+                  <c:v>44146</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>44083.708333333336</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>44084.708333333336</c:v>
+                  <c:v>44148</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>44085.708333333336</c:v>
+                  <c:v>44149</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>44086.708333333336</c:v>
+                  <c:v>44150</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>44087.708333333336</c:v>
+                  <c:v>44151</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>44088.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44089.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44090.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44091.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44092.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44093.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44094.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44095.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44096.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44097.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44098.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44099.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44100.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44101.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44102.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44103.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44104.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44105.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44106.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44107.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44108.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44109.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44110.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44111.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44112.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44113.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44114.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44115.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44116.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44117.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44118.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44119.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44120.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44121.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44122.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44123.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44124.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44125.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44126.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44127</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44128</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44129</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44130</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44131</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44132</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44133</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44135</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44136</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44137</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44138</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44139</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44140</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44141</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44142</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44143</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44144</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>44145</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>44146</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>44147</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>44148</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>44149</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44150</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>44151</c:v>
-                </c:pt>
-                <c:pt idx="133">
                   <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
@@ -17336,378 +15834,192 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$6:$M$139</c:f>
+              <c:f>Model!$M$70:$M$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="134"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>14</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>16</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>15</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>17</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>22</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>21</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>22</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>27</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>26</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>418</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>435</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>570</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17722,17 +16034,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$N$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Forecast</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -17748,410 +16049,218 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$139</c:f>
+              <c:f>Model!$K$70:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="134"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>44019.708333333336</c:v>
+                  <c:v>44083.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44020.708333333336</c:v>
+                  <c:v>44084.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44021.708333333336</c:v>
+                  <c:v>44085.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44022.708333333336</c:v>
+                  <c:v>44086.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44023.708333333336</c:v>
+                  <c:v>44087.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44024.708333333336</c:v>
+                  <c:v>44088.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44025.708333333336</c:v>
+                  <c:v>44089.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44026.708333333336</c:v>
+                  <c:v>44090.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44027.708333333336</c:v>
+                  <c:v>44091.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44028.708333333336</c:v>
+                  <c:v>44092.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44029.708333333336</c:v>
+                  <c:v>44093.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44030.708333333336</c:v>
+                  <c:v>44094.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44031.708333333336</c:v>
+                  <c:v>44095.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44032.708333333336</c:v>
+                  <c:v>44096.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44033.708333333336</c:v>
+                  <c:v>44097.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44034.708333333336</c:v>
+                  <c:v>44098.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44035.708333333336</c:v>
+                  <c:v>44099.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44036.708333333336</c:v>
+                  <c:v>44100.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44037.708333333336</c:v>
+                  <c:v>44101.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44038.708333333336</c:v>
+                  <c:v>44102.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44039.708333333336</c:v>
+                  <c:v>44103.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44040.708333333336</c:v>
+                  <c:v>44104.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44041.708333333336</c:v>
+                  <c:v>44105.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44042.708333333336</c:v>
+                  <c:v>44106.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44043.708333333336</c:v>
+                  <c:v>44107.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44044.708333333336</c:v>
+                  <c:v>44108.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44045.708333333336</c:v>
+                  <c:v>44109.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44046.708333333336</c:v>
+                  <c:v>44110.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44047.708333333336</c:v>
+                  <c:v>44111.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44048.708333333336</c:v>
+                  <c:v>44112.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44049.708333333336</c:v>
+                  <c:v>44113.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44050.708333333336</c:v>
+                  <c:v>44114.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44051.708333333336</c:v>
+                  <c:v>44115.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44052.708333333336</c:v>
+                  <c:v>44116.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44053.708333333336</c:v>
+                  <c:v>44117.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44054.708333333336</c:v>
+                  <c:v>44118.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44055.708333333336</c:v>
+                  <c:v>44119.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44056.708333333336</c:v>
+                  <c:v>44120.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44057.708333333336</c:v>
+                  <c:v>44121.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44058.708333333336</c:v>
+                  <c:v>44122.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44059.708333333336</c:v>
+                  <c:v>44123.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44060.708333333336</c:v>
+                  <c:v>44124.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44061.708333333336</c:v>
+                  <c:v>44125.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44062.708333333336</c:v>
+                  <c:v>44126.708333333336</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44063.708333333336</c:v>
+                  <c:v>44127</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>44064.708333333336</c:v>
+                  <c:v>44128</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>44065.708333333336</c:v>
+                  <c:v>44129</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>44066.708333333336</c:v>
+                  <c:v>44130</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>44067.708333333336</c:v>
+                  <c:v>44131</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>44068.708333333336</c:v>
+                  <c:v>44132</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>44069.708333333336</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>44070.708333333336</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>44071.708333333336</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>44072.708333333336</c:v>
+                  <c:v>44136</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>44073.708333333336</c:v>
+                  <c:v>44137</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>44074.708333333336</c:v>
+                  <c:v>44138</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>44075.708333333336</c:v>
+                  <c:v>44139</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>44076.708333333336</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>44077.708333333336</c:v>
+                  <c:v>44141</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>44078.708333333336</c:v>
+                  <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>44079.708333333336</c:v>
+                  <c:v>44143</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>44080.708333333336</c:v>
+                  <c:v>44144</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>44081.708333333336</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>44082.708333333336</c:v>
+                  <c:v>44146</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>44083.708333333336</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>44084.708333333336</c:v>
+                  <c:v>44148</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>44085.708333333336</c:v>
+                  <c:v>44149</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>44086.708333333336</c:v>
+                  <c:v>44150</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>44087.708333333336</c:v>
+                  <c:v>44151</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>44088.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44089.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44090.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44091.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44092.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44093.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44094.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44095.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44096.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44097.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44098.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44099.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44100.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44101.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44102.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44103.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44104.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44105.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44106.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44107.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44108.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44109.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44110.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44111.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44112.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44113.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44114.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44115.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44116.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44117.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44118.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44119.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44120.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44121.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44122.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44123.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44124.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44125.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44126.708333333336</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44127</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44128</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44129</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44130</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44131</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44132</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44133</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44135</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44136</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44137</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44138</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44139</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44140</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44141</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44142</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44143</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44144</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>44145</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>44146</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>44147</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>44148</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>44149</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44150</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>44151</c:v>
-                </c:pt>
-                <c:pt idx="133">
                   <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
@@ -18159,54 +16268,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$6:$N$139</c:f>
+              <c:f>Model!$N$70:$N$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="134"/>
-                <c:pt idx="119">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>561</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>593</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>704</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>715</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>738</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>762</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>774</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>786</c:v>
+                <c:ptCount val="70"/>
+                <c:pt idx="55">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18286,7 +16395,6 @@
         <c:axId val="1076745616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -18709,19 +16817,25 @@
                   <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>448</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>474</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>501</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>530</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>561</c:v>
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18964,6 +17078,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>650</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -36159,10 +34279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K125"/>
+  <dimension ref="A2:K127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36241,7 +34361,7 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C7:C70" si="0">AVERAGE(B3:B9)</f>
+        <f t="shared" ref="C9:C70" si="0">AVERAGE(B3:B9)</f>
         <v>31.142857142857142</v>
       </c>
     </row>
@@ -37635,6 +35755,22 @@
       <c r="C125">
         <f>AVERAGE(B119:B125)</f>
         <v>474.14285714285717</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B126">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B127">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -37647,8 +35783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AC5" workbookViewId="0">
+      <selection activeCell="AC63" sqref="AC63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43982,15 +42118,15 @@
         <v>119</v>
       </c>
       <c r="C124">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="D124">
         <f t="shared" si="35"/>
-        <v>9998987</v>
+        <v>9998988</v>
       </c>
       <c r="E124">
         <f t="shared" si="36"/>
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F124">
         <f t="shared" si="37"/>
@@ -43998,7 +42134,7 @@
       </c>
       <c r="G124" s="2">
         <f t="shared" si="38"/>
-        <v>9998987</v>
+        <v>9998988</v>
       </c>
       <c r="H124" s="2">
         <f t="shared" si="39"/>
@@ -44018,7 +42154,7 @@
       </c>
       <c r="L124">
         <f t="shared" si="34"/>
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M124">
         <f>RealData!B121</f>
@@ -44041,15 +42177,15 @@
         <v>120</v>
       </c>
       <c r="C125">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="D125">
         <f t="shared" si="35"/>
-        <v>9998924</v>
+        <v>9998922</v>
       </c>
       <c r="E125">
         <f t="shared" si="36"/>
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F125">
         <f t="shared" si="37"/>
@@ -44057,7 +42193,7 @@
       </c>
       <c r="G125" s="2">
         <f t="shared" si="38"/>
-        <v>9998924</v>
+        <v>9998922</v>
       </c>
       <c r="H125" s="2">
         <f t="shared" si="39"/>
@@ -44077,7 +42213,7 @@
       </c>
       <c r="L125">
         <f t="shared" ref="L125" si="40">E125</f>
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M125">
         <f>RealData!B122</f>
@@ -44085,7 +42221,7 @@
       </c>
       <c r="N125">
         <f t="shared" ref="N125:N134" si="41">E125</f>
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O125">
         <f t="shared" si="29"/>
@@ -44104,15 +42240,15 @@
         <v>121</v>
       </c>
       <c r="C126" s="4">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="D126" s="4">
         <f t="shared" si="35"/>
-        <v>9998857</v>
+        <v>9998852</v>
       </c>
       <c r="E126" s="4">
         <f t="shared" si="36"/>
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="F126" s="4">
         <f t="shared" si="37"/>
@@ -44120,7 +42256,7 @@
       </c>
       <c r="G126" s="2">
         <f t="shared" si="38"/>
-        <v>9998857</v>
+        <v>9998852</v>
       </c>
       <c r="H126" s="2">
         <f t="shared" si="39"/>
@@ -44140,7 +42276,7 @@
       </c>
       <c r="L126" s="4">
         <f t="shared" ref="L126" si="42">E126</f>
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="M126" s="4">
         <f>RealData!B123</f>
@@ -44148,7 +42284,7 @@
       </c>
       <c r="N126" s="4">
         <f t="shared" si="41"/>
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="O126" s="4">
         <f t="shared" si="29"/>
@@ -44167,15 +42303,15 @@
         <v>122</v>
       </c>
       <c r="C127" s="4">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="D127" s="4">
         <f t="shared" si="35"/>
-        <v>9998786</v>
+        <v>9998777</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" si="36"/>
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="F127" s="4">
         <f t="shared" si="37"/>
@@ -44183,7 +42319,7 @@
       </c>
       <c r="G127" s="2">
         <f t="shared" si="38"/>
-        <v>9998786</v>
+        <v>9998777</v>
       </c>
       <c r="H127" s="2">
         <f t="shared" si="39"/>
@@ -44203,7 +42339,7 @@
       </c>
       <c r="L127" s="4">
         <f t="shared" ref="L127" si="43">E127</f>
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="M127" s="4">
         <f>RealData!B124</f>
@@ -44211,7 +42347,7 @@
       </c>
       <c r="N127" s="4">
         <f t="shared" si="41"/>
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="O127" s="4">
         <f t="shared" si="29"/>
@@ -44230,23 +42366,23 @@
         <v>123</v>
       </c>
       <c r="C128" s="4">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="D128" s="4">
         <f t="shared" si="35"/>
-        <v>9998711</v>
+        <v>9998698</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" si="36"/>
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="F128" s="4">
         <f t="shared" si="37"/>
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G128" s="2">
         <f t="shared" si="38"/>
-        <v>9998711</v>
+        <v>9998698</v>
       </c>
       <c r="H128" s="2">
         <f t="shared" si="39"/>
@@ -44266,7 +42402,7 @@
       </c>
       <c r="L128" s="4">
         <f t="shared" ref="L128" si="44">E128</f>
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="M128" s="4">
         <f>RealData!B125</f>
@@ -44274,7 +42410,7 @@
       </c>
       <c r="N128" s="4">
         <f t="shared" si="41"/>
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="O128" s="4">
         <f t="shared" si="29"/>
@@ -44293,23 +42429,23 @@
         <v>124</v>
       </c>
       <c r="C129" s="4">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="D129" s="4">
         <f t="shared" si="35"/>
-        <v>9998632</v>
+        <v>9998613</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="36"/>
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="F129" s="4">
         <f t="shared" si="37"/>
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G129" s="2">
         <f t="shared" si="38"/>
-        <v>9998632</v>
+        <v>9998613</v>
       </c>
       <c r="H129" s="2">
         <f t="shared" si="39"/>
@@ -44327,11 +42463,17 @@
         <f t="shared" si="14"/>
         <v>44142</v>
       </c>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
+      <c r="L129" s="4">
+        <f t="shared" ref="L129:L130" si="45">E129</f>
+        <v>610</v>
+      </c>
+      <c r="M129" s="4">
+        <f>RealData!B126</f>
+        <v>610</v>
+      </c>
       <c r="N129" s="4">
         <f t="shared" si="41"/>
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="O129" s="4">
         <f t="shared" si="29"/>
@@ -44350,23 +42492,23 @@
         <v>125</v>
       </c>
       <c r="C130" s="4">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="D130" s="4">
         <f t="shared" si="35"/>
-        <v>9998548</v>
+        <v>9998523</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" si="36"/>
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="F130" s="4">
         <f t="shared" si="37"/>
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="G130" s="2">
         <f t="shared" si="38"/>
-        <v>9998548</v>
+        <v>9998523</v>
       </c>
       <c r="H130" s="2">
         <f t="shared" si="39"/>
@@ -44384,18 +42526,24 @@
         <f t="shared" si="14"/>
         <v>44143</v>
       </c>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
+      <c r="L130" s="4">
+        <f t="shared" si="45"/>
+        <v>649</v>
+      </c>
+      <c r="M130" s="4">
+        <f>RealData!B127</f>
+        <v>650</v>
+      </c>
       <c r="N130" s="4">
         <f t="shared" si="41"/>
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="O130" s="4">
         <f t="shared" si="29"/>
         <v>1203</v>
       </c>
       <c r="P130" s="4">
-        <f t="shared" si="30"/>
+        <f>J130</f>
         <v>675</v>
       </c>
     </row>
@@ -44407,23 +42555,23 @@
         <v>126</v>
       </c>
       <c r="C131" s="4">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" si="35"/>
-        <v>9998459</v>
+        <v>9998427</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="36"/>
-        <v>665</v>
+        <v>691</v>
       </c>
       <c r="F131" s="4">
         <f t="shared" si="37"/>
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="G131" s="2">
         <f t="shared" si="38"/>
-        <v>9998459</v>
+        <v>9998427</v>
       </c>
       <c r="H131" s="2">
         <f t="shared" si="39"/>
@@ -44445,7 +42593,7 @@
       <c r="M131" s="4"/>
       <c r="N131" s="4">
         <f t="shared" si="41"/>
-        <v>665</v>
+        <v>691</v>
       </c>
       <c r="O131" s="4">
         <f t="shared" si="29"/>
@@ -44464,23 +42612,23 @@
         <v>127</v>
       </c>
       <c r="C132" s="4">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="D132" s="4">
         <f t="shared" si="35"/>
-        <v>9998365</v>
+        <v>9998325</v>
       </c>
       <c r="E132" s="4">
         <f t="shared" si="36"/>
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="F132" s="4">
         <f t="shared" si="37"/>
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" si="38"/>
-        <v>9998365</v>
+        <v>9998325</v>
       </c>
       <c r="H132" s="2">
         <f t="shared" si="39"/>
@@ -44502,7 +42650,7 @@
       <c r="M132" s="4"/>
       <c r="N132" s="4">
         <f t="shared" si="41"/>
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="O132" s="4">
         <f t="shared" si="29"/>
@@ -44521,26 +42669,26 @@
         <v>128</v>
       </c>
       <c r="C133" s="8">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D133" s="8">
-        <f t="shared" ref="D133:D134" si="45">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
-        <v>9998295</v>
+        <f t="shared" ref="D133:D134" si="46">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
+        <v>9998221</v>
       </c>
       <c r="E133" s="8">
-        <f t="shared" ref="E133:E134" si="46">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
-        <v>715</v>
+        <f t="shared" ref="E133:E134" si="47">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
+        <v>778</v>
       </c>
       <c r="F133" s="8">
-        <f t="shared" ref="F133:F134" si="47">F132+ROUND(E132/$D$2,0)</f>
-        <v>990</v>
+        <f t="shared" ref="F133:F134" si="48">F132+ROUND(E132/$D$2,0)</f>
+        <v>1001</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G134" si="48">D133</f>
-        <v>9998295</v>
+        <f t="shared" ref="G133:G134" si="49">D133</f>
+        <v>9998221</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" ref="H133:H134" si="49">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
+        <f t="shared" ref="H133:H134" si="50">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
         <v>1662</v>
       </c>
       <c r="I133" s="5">
@@ -44559,7 +42707,7 @@
       <c r="M133" s="8"/>
       <c r="N133" s="8">
         <f t="shared" si="41"/>
-        <v>715</v>
+        <v>778</v>
       </c>
       <c r="O133" s="8">
         <f t="shared" si="29"/>
@@ -44578,26 +42726,26 @@
         <v>129</v>
       </c>
       <c r="C134" s="8">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D134" s="8">
-        <f t="shared" si="45"/>
-        <v>9998224</v>
+        <f t="shared" si="46"/>
+        <v>9998111</v>
       </c>
       <c r="E134" s="8">
-        <f t="shared" si="46"/>
-        <v>726</v>
+        <f t="shared" si="47"/>
+        <v>823</v>
       </c>
       <c r="F134" s="8">
-        <f t="shared" si="47"/>
-        <v>1050</v>
+        <f t="shared" si="48"/>
+        <v>1066</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="48"/>
-        <v>9998224</v>
+        <f t="shared" si="49"/>
+        <v>9998111</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1869</v>
       </c>
       <c r="I134" s="5">
@@ -44616,7 +42764,7 @@
       <c r="M134" s="8"/>
       <c r="N134" s="8">
         <f t="shared" si="41"/>
-        <v>726</v>
+        <v>823</v>
       </c>
       <c r="O134" s="8">
         <f t="shared" si="29"/>
@@ -44635,52 +42783,52 @@
         <v>130</v>
       </c>
       <c r="C135" s="8">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D135" s="8">
-        <f t="shared" ref="D135:D139" si="50">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
-        <v>9998151</v>
+        <f t="shared" ref="D135:D139" si="51">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
+        <v>9997994</v>
       </c>
       <c r="E135" s="8">
-        <f t="shared" ref="E135:E139" si="51">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
-        <v>738</v>
+        <f t="shared" ref="E135:E139" si="52">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
+        <v>871</v>
       </c>
       <c r="F135" s="8">
-        <f t="shared" ref="F135:F139" si="52">F134+ROUND(E134/$D$2,0)</f>
-        <v>1111</v>
+        <f t="shared" ref="F135:F139" si="53">F134+ROUND(E134/$D$2,0)</f>
+        <v>1135</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" ref="G135:G139" si="53">D135</f>
-        <v>9998151</v>
+        <f t="shared" ref="G135:G139" si="54">D135</f>
+        <v>9997994</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" ref="H135:H139" si="54">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
+        <f t="shared" ref="H135:H139" si="55">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
         <v>2102</v>
       </c>
       <c r="I135" s="5">
-        <f t="shared" ref="I135:I139" si="55">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="I135:I139" si="56">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>2167</v>
       </c>
       <c r="J135" s="6">
-        <f t="shared" ref="J135:J139" si="56">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="J135:J139" si="57">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>1060</v>
       </c>
       <c r="K135" s="7">
-        <f t="shared" ref="K135:K139" si="57">A135</f>
+        <f t="shared" ref="K135:K139" si="58">A135</f>
         <v>44148</v>
       </c>
       <c r="L135" s="8"/>
       <c r="M135" s="8"/>
       <c r="N135" s="8">
-        <f t="shared" ref="N135:N139" si="58">E135</f>
-        <v>738</v>
+        <f t="shared" ref="N135:N139" si="59">E135</f>
+        <v>871</v>
       </c>
       <c r="O135" s="8">
-        <f t="shared" ref="O135:O139" si="59">I135</f>
+        <f t="shared" ref="O135:O139" si="60">I135</f>
         <v>2167</v>
       </c>
       <c r="P135" s="8">
-        <f t="shared" ref="P135:P139" si="60">J135</f>
+        <f t="shared" ref="P135:P139" si="61">J135</f>
         <v>1060</v>
       </c>
     </row>
@@ -44692,52 +42840,52 @@
         <v>131</v>
       </c>
       <c r="C136" s="8">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D136" s="8">
-        <f t="shared" si="50"/>
-        <v>9998077</v>
+        <f t="shared" si="51"/>
+        <v>9997871</v>
       </c>
       <c r="E136" s="8">
-        <f t="shared" si="51"/>
-        <v>750</v>
+        <f t="shared" si="52"/>
+        <v>921</v>
       </c>
       <c r="F136" s="8">
-        <f t="shared" si="52"/>
-        <v>1173</v>
+        <f t="shared" si="53"/>
+        <v>1208</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="53"/>
-        <v>9998077</v>
+        <f t="shared" si="54"/>
+        <v>9997871</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2365</v>
       </c>
       <c r="I136" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2437</v>
       </c>
       <c r="J136" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1168</v>
       </c>
       <c r="K136" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>44149</v>
       </c>
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
       <c r="N136" s="8">
-        <f t="shared" si="58"/>
-        <v>750</v>
+        <f t="shared" si="59"/>
+        <v>921</v>
       </c>
       <c r="O136" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>2437</v>
       </c>
       <c r="P136" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1168</v>
       </c>
     </row>
@@ -44749,52 +42897,52 @@
         <v>132</v>
       </c>
       <c r="C137" s="8">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D137" s="8">
-        <f t="shared" si="50"/>
-        <v>9998002</v>
+        <f t="shared" si="51"/>
+        <v>9997741</v>
       </c>
       <c r="E137" s="8">
-        <f t="shared" si="51"/>
-        <v>762</v>
+        <f t="shared" si="52"/>
+        <v>974</v>
       </c>
       <c r="F137" s="8">
-        <f t="shared" si="52"/>
-        <v>1236</v>
+        <f t="shared" si="53"/>
+        <v>1285</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="53"/>
-        <v>9998002</v>
+        <f t="shared" si="54"/>
+        <v>9997741</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2661</v>
       </c>
       <c r="I137" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2742</v>
       </c>
       <c r="J137" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1290</v>
       </c>
       <c r="K137" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>44150</v>
       </c>
       <c r="L137" s="8"/>
       <c r="M137" s="8"/>
       <c r="N137" s="8">
-        <f t="shared" si="58"/>
-        <v>762</v>
+        <f t="shared" si="59"/>
+        <v>974</v>
       </c>
       <c r="O137" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>2742</v>
       </c>
       <c r="P137" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1290</v>
       </c>
     </row>
@@ -44806,52 +42954,52 @@
         <v>133</v>
       </c>
       <c r="C138" s="8">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D138" s="8">
-        <f t="shared" si="50"/>
-        <v>9997926</v>
+        <f t="shared" si="51"/>
+        <v>9997603</v>
       </c>
       <c r="E138" s="8">
-        <f t="shared" si="51"/>
-        <v>774</v>
+        <f t="shared" si="52"/>
+        <v>1031</v>
       </c>
       <c r="F138" s="8">
-        <f t="shared" si="52"/>
-        <v>1300</v>
+        <f t="shared" si="53"/>
+        <v>1366</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="53"/>
-        <v>9997926</v>
+        <f t="shared" si="54"/>
+        <v>9997603</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2993</v>
       </c>
       <c r="I138" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>3084</v>
       </c>
       <c r="J138" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1427</v>
       </c>
       <c r="K138" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>44151</v>
       </c>
       <c r="L138" s="8"/>
       <c r="M138" s="8"/>
       <c r="N138" s="8">
-        <f t="shared" si="58"/>
-        <v>774</v>
+        <f t="shared" si="59"/>
+        <v>1031</v>
       </c>
       <c r="O138" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>3084</v>
       </c>
       <c r="P138" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1427</v>
       </c>
     </row>
@@ -44863,52 +43011,52 @@
         <v>134</v>
       </c>
       <c r="C139" s="8">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D139" s="8">
-        <f t="shared" si="50"/>
-        <v>9997849</v>
+        <f t="shared" si="51"/>
+        <v>9997457</v>
       </c>
       <c r="E139" s="8">
-        <f t="shared" si="51"/>
-        <v>786</v>
+        <f t="shared" si="52"/>
+        <v>1091</v>
       </c>
       <c r="F139" s="8">
-        <f t="shared" si="52"/>
-        <v>1365</v>
+        <f t="shared" si="53"/>
+        <v>1452</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="53"/>
-        <v>9997849</v>
+        <f t="shared" si="54"/>
+        <v>9997457</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3367</v>
       </c>
       <c r="I139" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>3469</v>
       </c>
       <c r="J139" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1581</v>
       </c>
       <c r="K139" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>44152</v>
       </c>
       <c r="L139" s="8"/>
       <c r="M139" s="8"/>
       <c r="N139" s="8">
-        <f t="shared" si="58"/>
-        <v>786</v>
+        <f t="shared" si="59"/>
+        <v>1091</v>
       </c>
       <c r="O139" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>3469</v>
       </c>
       <c r="P139" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1581</v>
       </c>
     </row>
@@ -44923,7 +43071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C18E4-1873-48DD-B7B4-EAEB82B5E392}">
   <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -52482,7 +50630,7 @@
         <v>1173</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" ref="G136:G140" si="27">D136</f>
+        <f t="shared" ref="G136:G139" si="27">D136</f>
         <v>9998077</v>
       </c>
       <c r="H136" s="2">

--- a/COVID_EXCEL/COVID Lombardia.xlsx
+++ b/COVID_EXCEL/COVID Lombardia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1369529-417D-48B8-9772-FC8FEACA4A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BC70AA-BAC2-4C82-9916-583A07EBD9AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
@@ -615,7 +615,10 @@
                   <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>691</c:v>
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,6 +1002,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2822,13 +2828,22 @@
                   <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>447</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>473</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>501</c:v>
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3617,6 +3632,15 @@
                 <c:pt idx="117">
                   <c:v>610</c:v>
                 </c:pt>
+                <c:pt idx="118">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>708</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4393,6 +4417,15 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>505.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>538.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>605.28571428571433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5121,22 +5154,22 @@
                     <c:v>514</c:v>
                   </c:pt>
                   <c:pt idx="121">
-                    <c:v>537</c:v>
+                    <c:v>538</c:v>
                   </c:pt>
                   <c:pt idx="122">
-                    <c:v>552</c:v>
+                    <c:v>553</c:v>
                   </c:pt>
                   <c:pt idx="123">
-                    <c:v>603</c:v>
+                    <c:v>604</c:v>
                   </c:pt>
                   <c:pt idx="124">
-                    <c:v>645</c:v>
+                    <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>682</c:v>
+                    <c:v>686</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>722</c:v>
+                    <c:v>728</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5512,13 +5545,22 @@
                   <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>447</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>473</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>501</c:v>
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5953,22 +5995,22 @@
                     <c:v>514</c:v>
                   </c:pt>
                   <c:pt idx="121">
-                    <c:v>537</c:v>
+                    <c:v>538</c:v>
                   </c:pt>
                   <c:pt idx="122">
-                    <c:v>552</c:v>
+                    <c:v>553</c:v>
                   </c:pt>
                   <c:pt idx="123">
-                    <c:v>603</c:v>
+                    <c:v>604</c:v>
                   </c:pt>
                   <c:pt idx="124">
-                    <c:v>645</c:v>
+                    <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>682</c:v>
+                    <c:v>686</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>722</c:v>
+                    <c:v>728</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -6351,6 +6393,15 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6784,22 +6835,22 @@
                     <c:v>514</c:v>
                   </c:pt>
                   <c:pt idx="121">
-                    <c:v>537</c:v>
+                    <c:v>538</c:v>
                   </c:pt>
                   <c:pt idx="122">
-                    <c:v>552</c:v>
+                    <c:v>553</c:v>
                   </c:pt>
                   <c:pt idx="123">
-                    <c:v>603</c:v>
+                    <c:v>604</c:v>
                   </c:pt>
                   <c:pt idx="124">
-                    <c:v>645</c:v>
+                    <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>682</c:v>
+                    <c:v>686</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>722</c:v>
+                    <c:v>728</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -7182,6 +7233,15 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>505.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>538.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>605.28571428571433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7615,22 +7675,22 @@
                     <c:v>514</c:v>
                   </c:pt>
                   <c:pt idx="121">
-                    <c:v>537</c:v>
+                    <c:v>538</c:v>
                   </c:pt>
                   <c:pt idx="122">
-                    <c:v>552</c:v>
+                    <c:v>553</c:v>
                   </c:pt>
                   <c:pt idx="123">
-                    <c:v>603</c:v>
+                    <c:v>604</c:v>
                   </c:pt>
                   <c:pt idx="124">
-                    <c:v>645</c:v>
+                    <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>682</c:v>
+                    <c:v>686</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>722</c:v>
+                    <c:v>728</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -7649,22 +7709,22 @@
                   <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>537</c:v>
+                  <c:v>538</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>552</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>603</c:v>
+                  <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>645</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>682</c:v>
+                  <c:v>686</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>722</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8098,22 +8158,22 @@
                     <c:v>514</c:v>
                   </c:pt>
                   <c:pt idx="121">
-                    <c:v>537</c:v>
+                    <c:v>538</c:v>
                   </c:pt>
                   <c:pt idx="122">
-                    <c:v>552</c:v>
+                    <c:v>553</c:v>
                   </c:pt>
                   <c:pt idx="123">
-                    <c:v>603</c:v>
+                    <c:v>604</c:v>
                   </c:pt>
                   <c:pt idx="124">
-                    <c:v>645</c:v>
+                    <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>682</c:v>
+                    <c:v>686</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>722</c:v>
+                    <c:v>728</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -8132,22 +8192,22 @@
                   <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>447</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>473</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>501</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>530</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>561</c:v>
+                  <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>593</c:v>
+                  <c:v>603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8896,43 +8956,43 @@
                     <c:v>514</c:v>
                   </c:pt>
                   <c:pt idx="121">
-                    <c:v>537</c:v>
+                    <c:v>538</c:v>
                   </c:pt>
                   <c:pt idx="122">
-                    <c:v>552</c:v>
+                    <c:v>553</c:v>
                   </c:pt>
                   <c:pt idx="123">
-                    <c:v>603</c:v>
+                    <c:v>604</c:v>
                   </c:pt>
                   <c:pt idx="124">
-                    <c:v>645</c:v>
+                    <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>682</c:v>
+                    <c:v>686</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>722</c:v>
+                    <c:v>728</c:v>
                   </c:pt>
                   <c:pt idx="127">
-                    <c:v>764</c:v>
+                    <c:v>772</c:v>
                   </c:pt>
                   <c:pt idx="128">
-                    <c:v>808</c:v>
+                    <c:v>819</c:v>
                   </c:pt>
                   <c:pt idx="129">
-                    <c:v>855</c:v>
+                    <c:v>869</c:v>
                   </c:pt>
                   <c:pt idx="130">
-                    <c:v>905</c:v>
+                    <c:v>922</c:v>
                   </c:pt>
                   <c:pt idx="131">
-                    <c:v>958</c:v>
+                    <c:v>978</c:v>
                   </c:pt>
                   <c:pt idx="132">
-                    <c:v>1014</c:v>
+                    <c:v>1037</c:v>
                   </c:pt>
                   <c:pt idx="133">
-                    <c:v>1073</c:v>
+                    <c:v>1100</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -9308,13 +9368,22 @@
                   <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>447</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>473</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>501</c:v>
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9770,43 +9839,43 @@
                     <c:v>514</c:v>
                   </c:pt>
                   <c:pt idx="121">
-                    <c:v>537</c:v>
+                    <c:v>538</c:v>
                   </c:pt>
                   <c:pt idx="122">
-                    <c:v>552</c:v>
+                    <c:v>553</c:v>
                   </c:pt>
                   <c:pt idx="123">
-                    <c:v>603</c:v>
+                    <c:v>604</c:v>
                   </c:pt>
                   <c:pt idx="124">
-                    <c:v>645</c:v>
+                    <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>682</c:v>
+                    <c:v>686</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>722</c:v>
+                    <c:v>728</c:v>
                   </c:pt>
                   <c:pt idx="127">
-                    <c:v>764</c:v>
+                    <c:v>772</c:v>
                   </c:pt>
                   <c:pt idx="128">
-                    <c:v>808</c:v>
+                    <c:v>819</c:v>
                   </c:pt>
                   <c:pt idx="129">
-                    <c:v>855</c:v>
+                    <c:v>869</c:v>
                   </c:pt>
                   <c:pt idx="130">
-                    <c:v>905</c:v>
+                    <c:v>922</c:v>
                   </c:pt>
                   <c:pt idx="131">
-                    <c:v>958</c:v>
+                    <c:v>978</c:v>
                   </c:pt>
                   <c:pt idx="132">
-                    <c:v>1014</c:v>
+                    <c:v>1037</c:v>
                   </c:pt>
                   <c:pt idx="133">
-                    <c:v>1073</c:v>
+                    <c:v>1100</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -10189,6 +10258,15 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10643,43 +10721,43 @@
                     <c:v>514</c:v>
                   </c:pt>
                   <c:pt idx="121">
-                    <c:v>537</c:v>
+                    <c:v>538</c:v>
                   </c:pt>
                   <c:pt idx="122">
-                    <c:v>552</c:v>
+                    <c:v>553</c:v>
                   </c:pt>
                   <c:pt idx="123">
-                    <c:v>603</c:v>
+                    <c:v>604</c:v>
                   </c:pt>
                   <c:pt idx="124">
-                    <c:v>645</c:v>
+                    <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>682</c:v>
+                    <c:v>686</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>722</c:v>
+                    <c:v>728</c:v>
                   </c:pt>
                   <c:pt idx="127">
-                    <c:v>764</c:v>
+                    <c:v>772</c:v>
                   </c:pt>
                   <c:pt idx="128">
-                    <c:v>808</c:v>
+                    <c:v>819</c:v>
                   </c:pt>
                   <c:pt idx="129">
-                    <c:v>855</c:v>
+                    <c:v>869</c:v>
                   </c:pt>
                   <c:pt idx="130">
-                    <c:v>905</c:v>
+                    <c:v>922</c:v>
                   </c:pt>
                   <c:pt idx="131">
-                    <c:v>958</c:v>
+                    <c:v>978</c:v>
                   </c:pt>
                   <c:pt idx="132">
-                    <c:v>1014</c:v>
+                    <c:v>1037</c:v>
                   </c:pt>
                   <c:pt idx="133">
-                    <c:v>1073</c:v>
+                    <c:v>1100</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -11062,6 +11140,15 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>505.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>538.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>605.28571428571433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11516,43 +11603,43 @@
                     <c:v>514</c:v>
                   </c:pt>
                   <c:pt idx="121">
-                    <c:v>537</c:v>
+                    <c:v>538</c:v>
                   </c:pt>
                   <c:pt idx="122">
-                    <c:v>552</c:v>
+                    <c:v>553</c:v>
                   </c:pt>
                   <c:pt idx="123">
-                    <c:v>603</c:v>
+                    <c:v>604</c:v>
                   </c:pt>
                   <c:pt idx="124">
-                    <c:v>645</c:v>
+                    <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>682</c:v>
+                    <c:v>686</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>722</c:v>
+                    <c:v>728</c:v>
                   </c:pt>
                   <c:pt idx="127">
-                    <c:v>764</c:v>
+                    <c:v>772</c:v>
                   </c:pt>
                   <c:pt idx="128">
-                    <c:v>808</c:v>
+                    <c:v>819</c:v>
                   </c:pt>
                   <c:pt idx="129">
-                    <c:v>855</c:v>
+                    <c:v>869</c:v>
                   </c:pt>
                   <c:pt idx="130">
-                    <c:v>905</c:v>
+                    <c:v>922</c:v>
                   </c:pt>
                   <c:pt idx="131">
-                    <c:v>958</c:v>
+                    <c:v>978</c:v>
                   </c:pt>
                   <c:pt idx="132">
-                    <c:v>1014</c:v>
+                    <c:v>1037</c:v>
                   </c:pt>
                   <c:pt idx="133">
-                    <c:v>1073</c:v>
+                    <c:v>1100</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -11571,43 +11658,43 @@
                   <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>537</c:v>
+                  <c:v>538</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>552</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>603</c:v>
+                  <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>645</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>682</c:v>
+                  <c:v>686</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>722</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>764</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>808</c:v>
+                  <c:v>819</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>855</c:v>
+                  <c:v>869</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>905</c:v>
+                  <c:v>922</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>958</c:v>
+                  <c:v>978</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1014</c:v>
+                  <c:v>1037</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1073</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12062,43 +12149,43 @@
                     <c:v>514</c:v>
                   </c:pt>
                   <c:pt idx="121">
-                    <c:v>537</c:v>
+                    <c:v>538</c:v>
                   </c:pt>
                   <c:pt idx="122">
-                    <c:v>552</c:v>
+                    <c:v>553</c:v>
                   </c:pt>
                   <c:pt idx="123">
-                    <c:v>603</c:v>
+                    <c:v>604</c:v>
                   </c:pt>
                   <c:pt idx="124">
-                    <c:v>645</c:v>
+                    <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>682</c:v>
+                    <c:v>686</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>722</c:v>
+                    <c:v>728</c:v>
                   </c:pt>
                   <c:pt idx="127">
-                    <c:v>764</c:v>
+                    <c:v>772</c:v>
                   </c:pt>
                   <c:pt idx="128">
-                    <c:v>808</c:v>
+                    <c:v>819</c:v>
                   </c:pt>
                   <c:pt idx="129">
-                    <c:v>855</c:v>
+                    <c:v>869</c:v>
                   </c:pt>
                   <c:pt idx="130">
-                    <c:v>905</c:v>
+                    <c:v>922</c:v>
                   </c:pt>
                   <c:pt idx="131">
-                    <c:v>958</c:v>
+                    <c:v>978</c:v>
                   </c:pt>
                   <c:pt idx="132">
-                    <c:v>1014</c:v>
+                    <c:v>1037</c:v>
                   </c:pt>
                   <c:pt idx="133">
-                    <c:v>1073</c:v>
+                    <c:v>1100</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -12117,43 +12204,43 @@
                   <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>447</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>473</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>501</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>530</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>561</c:v>
+                  <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>593</c:v>
+                  <c:v>603</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>628</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>665</c:v>
+                  <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>704</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>745</c:v>
+                  <c:v>764</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>789</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>835</c:v>
+                  <c:v>859</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>883</c:v>
+                  <c:v>911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12676,7 +12763,10 @@
                   <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>691</c:v>
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12928,6 +13018,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14535,7 +14628,10 @@
                   <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>691</c:v>
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15365,6 +15461,9 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16073,7 +16172,10 @@
                   <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>691</c:v>
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16491,6 +16593,9 @@
                 <c:pt idx="61">
                   <c:v>670</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>708</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16740,10 +16845,10 @@
                   <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>691</c:v>
+                  <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>735</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17472,7 +17577,10 @@
                   <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>691</c:v>
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17911,6 +18019,9 @@
                 <c:pt idx="61">
                   <c:v>670</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>708</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18181,31 +18292,31 @@
                   <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>691</c:v>
+                  <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>735</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>778</c:v>
+                  <c:v>743</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>823</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>871</c:v>
+                  <c:v>812</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>921</c:v>
+                  <c:v>849</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>974</c:v>
+                  <c:v>888</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1031</c:v>
+                  <c:v>929</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1091</c:v>
+                  <c:v>972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18728,7 +18839,10 @@
                   <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>691</c:v>
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18980,6 +19094,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20190,13 +20307,22 @@
                   <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>447</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>473</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>501</c:v>
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20628,6 +20754,15 @@
                 <c:pt idx="59">
                   <c:v>610</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>708</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20879,199 +21014,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>200</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="36">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="37">
                   <c:v>207</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>227</c:v>
-                </c:pt>
                 <c:pt idx="38">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>231</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>251</c:v>
-                </c:pt>
                 <c:pt idx="43">
-                  <c:v>258</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>266</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>275</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>285</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>297</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>310</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>325</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>342</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>360</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>381</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>405</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>431</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>460</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>493</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>530</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>573</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>621</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>675</c:v>
+                  <c:v>655</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>735</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>803</c:v>
+                  <c:v>783</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>879</c:v>
+                  <c:v>859</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>964</c:v>
+                  <c:v>944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22117,13 +22252,22 @@
                   <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>447</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>473</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>501</c:v>
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22890,6 +23034,15 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25717,7 +25870,10 @@
                   <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>691</c:v>
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26101,6 +26257,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35113,10 +35272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K128"/>
+  <dimension ref="A2:K129"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127:C128"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36599,7 +36758,7 @@
         <v>610</v>
       </c>
       <c r="C126">
-        <f t="shared" ref="C126:C128" si="2">AVERAGE(B120:B126)</f>
+        <f t="shared" ref="C126:C129" si="2">AVERAGE(B120:B126)</f>
         <v>505.28571428571428</v>
       </c>
     </row>
@@ -36625,6 +36784,18 @@
       <c r="C128">
         <f t="shared" si="2"/>
         <v>572</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B129">
+        <v>708</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="2"/>
+        <v>605.28571428571433</v>
       </c>
     </row>
   </sheetData>
@@ -36637,8 +36808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43409,15 +43580,15 @@
         <v>126</v>
       </c>
       <c r="C131" s="4">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" si="35"/>
-        <v>9998427</v>
+        <v>9998439</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="36"/>
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="F131" s="4">
         <f t="shared" si="37"/>
@@ -43425,7 +43596,7 @@
       </c>
       <c r="G131" s="2">
         <f t="shared" si="38"/>
-        <v>9998427</v>
+        <v>9998439</v>
       </c>
       <c r="H131" s="2">
         <f t="shared" si="39"/>
@@ -43445,7 +43616,7 @@
       </c>
       <c r="L131" s="4">
         <f t="shared" ref="L131" si="46">E131</f>
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="M131" s="4">
         <f>RealData!B128</f>
@@ -43453,7 +43624,7 @@
       </c>
       <c r="N131" s="4">
         <f t="shared" si="41"/>
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="O131" s="4">
         <f t="shared" si="29"/>
@@ -43472,23 +43643,23 @@
         <v>127</v>
       </c>
       <c r="C132" s="4">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="D132" s="4">
         <f t="shared" si="35"/>
-        <v>9998325</v>
+        <v>9998351</v>
       </c>
       <c r="E132" s="4">
         <f t="shared" si="36"/>
-        <v>735</v>
+        <v>710</v>
       </c>
       <c r="F132" s="4">
         <f t="shared" si="37"/>
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" si="38"/>
-        <v>9998325</v>
+        <v>9998351</v>
       </c>
       <c r="H132" s="2">
         <f t="shared" si="39"/>
@@ -43506,11 +43677,17 @@
         <f t="shared" si="14"/>
         <v>44145</v>
       </c>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
+      <c r="L132" s="4">
+        <f t="shared" ref="L132" si="47">E132</f>
+        <v>710</v>
+      </c>
+      <c r="M132" s="4">
+        <f>RealData!B129</f>
+        <v>708</v>
+      </c>
       <c r="N132" s="4">
         <f t="shared" si="41"/>
-        <v>735</v>
+        <v>710</v>
       </c>
       <c r="O132" s="4">
         <f t="shared" si="29"/>
@@ -43529,26 +43706,26 @@
         <v>128</v>
       </c>
       <c r="C133" s="8">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="D133" s="8">
-        <f t="shared" ref="D133:D134" si="47">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
-        <v>9998221</v>
+        <f t="shared" ref="D133:D134" si="48">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
+        <v>9998259</v>
       </c>
       <c r="E133" s="8">
-        <f t="shared" ref="E133:E134" si="48">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
-        <v>778</v>
+        <f t="shared" ref="E133:E134" si="49">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
+        <v>743</v>
       </c>
       <c r="F133" s="8">
-        <f t="shared" ref="F133:F134" si="49">F132+ROUND(E132/$D$2,0)</f>
-        <v>1001</v>
+        <f t="shared" ref="F133:F134" si="50">F132+ROUND(E132/$D$2,0)</f>
+        <v>998</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G134" si="50">D133</f>
-        <v>9998221</v>
+        <f t="shared" ref="G133:G134" si="51">D133</f>
+        <v>9998259</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" ref="H133:H134" si="51">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
+        <f t="shared" ref="H133:H134" si="52">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
         <v>1662</v>
       </c>
       <c r="I133" s="5">
@@ -43567,7 +43744,7 @@
       <c r="M133" s="8"/>
       <c r="N133" s="8">
         <f t="shared" si="41"/>
-        <v>778</v>
+        <v>743</v>
       </c>
       <c r="O133" s="8">
         <f t="shared" si="29"/>
@@ -43586,26 +43763,26 @@
         <v>129</v>
       </c>
       <c r="C134" s="8">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="D134" s="8">
-        <f t="shared" si="47"/>
-        <v>9998111</v>
+        <f t="shared" si="48"/>
+        <v>9998163</v>
       </c>
       <c r="E134" s="8">
-        <f t="shared" si="48"/>
-        <v>823</v>
+        <f t="shared" si="49"/>
+        <v>777</v>
       </c>
       <c r="F134" s="8">
-        <f t="shared" si="49"/>
-        <v>1066</v>
+        <f t="shared" si="50"/>
+        <v>1060</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="50"/>
-        <v>9998111</v>
+        <f t="shared" si="51"/>
+        <v>9998163</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1869</v>
       </c>
       <c r="I134" s="5">
@@ -43624,7 +43801,7 @@
       <c r="M134" s="8"/>
       <c r="N134" s="8">
         <f t="shared" si="41"/>
-        <v>823</v>
+        <v>777</v>
       </c>
       <c r="O134" s="8">
         <f t="shared" si="29"/>
@@ -43643,52 +43820,52 @@
         <v>130</v>
       </c>
       <c r="C135" s="8">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="D135" s="8">
-        <f t="shared" ref="D135:D139" si="52">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
-        <v>9997994</v>
+        <f t="shared" ref="D135:D139" si="53">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
+        <v>9998063</v>
       </c>
       <c r="E135" s="8">
-        <f t="shared" ref="E135:E139" si="53">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
-        <v>871</v>
+        <f t="shared" ref="E135:E139" si="54">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
+        <v>812</v>
       </c>
       <c r="F135" s="8">
-        <f t="shared" ref="F135:F139" si="54">F134+ROUND(E134/$D$2,0)</f>
-        <v>1135</v>
+        <f t="shared" ref="F135:F139" si="55">F134+ROUND(E134/$D$2,0)</f>
+        <v>1125</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" ref="G135:G139" si="55">D135</f>
-        <v>9997994</v>
+        <f t="shared" ref="G135:G139" si="56">D135</f>
+        <v>9998063</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" ref="H135:H139" si="56">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
+        <f t="shared" ref="H135:H139" si="57">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
         <v>2102</v>
       </c>
       <c r="I135" s="5">
-        <f t="shared" ref="I135:I139" si="57">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="I135:I139" si="58">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>2167</v>
       </c>
       <c r="J135" s="6">
-        <f t="shared" ref="J135:J139" si="58">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="J135:J139" si="59">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>1060</v>
       </c>
       <c r="K135" s="7">
-        <f t="shared" ref="K135:K139" si="59">A135</f>
+        <f t="shared" ref="K135:K139" si="60">A135</f>
         <v>44148</v>
       </c>
       <c r="L135" s="8"/>
       <c r="M135" s="8"/>
       <c r="N135" s="8">
-        <f t="shared" ref="N135:N139" si="60">E135</f>
-        <v>871</v>
+        <f t="shared" ref="N135:N139" si="61">E135</f>
+        <v>812</v>
       </c>
       <c r="O135" s="8">
-        <f t="shared" ref="O135:O139" si="61">I135</f>
+        <f t="shared" ref="O135:O139" si="62">I135</f>
         <v>2167</v>
       </c>
       <c r="P135" s="8">
-        <f t="shared" ref="P135:P139" si="62">J135</f>
+        <f t="shared" ref="P135:P139" si="63">J135</f>
         <v>1060</v>
       </c>
     </row>
@@ -43700,52 +43877,52 @@
         <v>131</v>
       </c>
       <c r="C136" s="8">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="D136" s="8">
-        <f t="shared" si="52"/>
-        <v>9997871</v>
+        <f t="shared" si="53"/>
+        <v>9997958</v>
       </c>
       <c r="E136" s="8">
-        <f t="shared" si="53"/>
-        <v>921</v>
+        <f t="shared" si="54"/>
+        <v>849</v>
       </c>
       <c r="F136" s="8">
-        <f t="shared" si="54"/>
-        <v>1208</v>
+        <f t="shared" si="55"/>
+        <v>1193</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="55"/>
-        <v>9997871</v>
+        <f t="shared" si="56"/>
+        <v>9997958</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>2365</v>
       </c>
       <c r="I136" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>2437</v>
       </c>
       <c r="J136" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1168</v>
       </c>
       <c r="K136" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>44149</v>
       </c>
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
       <c r="N136" s="8">
-        <f t="shared" si="60"/>
-        <v>921</v>
+        <f t="shared" si="61"/>
+        <v>849</v>
       </c>
       <c r="O136" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>2437</v>
       </c>
       <c r="P136" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1168</v>
       </c>
     </row>
@@ -43757,52 +43934,52 @@
         <v>132</v>
       </c>
       <c r="C137" s="8">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="D137" s="8">
-        <f t="shared" si="52"/>
-        <v>9997741</v>
+        <f t="shared" si="53"/>
+        <v>9997848</v>
       </c>
       <c r="E137" s="8">
-        <f t="shared" si="53"/>
-        <v>974</v>
+        <f t="shared" si="54"/>
+        <v>888</v>
       </c>
       <c r="F137" s="8">
-        <f t="shared" si="54"/>
-        <v>1285</v>
+        <f t="shared" si="55"/>
+        <v>1264</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="55"/>
-        <v>9997741</v>
+        <f t="shared" si="56"/>
+        <v>9997848</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>2661</v>
       </c>
       <c r="I137" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>2742</v>
       </c>
       <c r="J137" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1290</v>
       </c>
       <c r="K137" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>44150</v>
       </c>
       <c r="L137" s="8"/>
       <c r="M137" s="8"/>
       <c r="N137" s="8">
-        <f t="shared" si="60"/>
-        <v>974</v>
+        <f t="shared" si="61"/>
+        <v>888</v>
       </c>
       <c r="O137" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>2742</v>
       </c>
       <c r="P137" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1290</v>
       </c>
     </row>
@@ -43814,52 +43991,52 @@
         <v>133</v>
       </c>
       <c r="C138" s="8">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="D138" s="8">
-        <f t="shared" si="52"/>
-        <v>9997603</v>
+        <f t="shared" si="53"/>
+        <v>9997733</v>
       </c>
       <c r="E138" s="8">
-        <f t="shared" si="53"/>
-        <v>1031</v>
+        <f t="shared" si="54"/>
+        <v>929</v>
       </c>
       <c r="F138" s="8">
-        <f t="shared" si="54"/>
-        <v>1366</v>
+        <f t="shared" si="55"/>
+        <v>1338</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="55"/>
-        <v>9997603</v>
+        <f t="shared" si="56"/>
+        <v>9997733</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>2993</v>
       </c>
       <c r="I138" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>3084</v>
       </c>
       <c r="J138" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1427</v>
       </c>
       <c r="K138" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>44151</v>
       </c>
       <c r="L138" s="8"/>
       <c r="M138" s="8"/>
       <c r="N138" s="8">
-        <f t="shared" si="60"/>
-        <v>1031</v>
+        <f t="shared" si="61"/>
+        <v>929</v>
       </c>
       <c r="O138" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>3084</v>
       </c>
       <c r="P138" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1427</v>
       </c>
     </row>
@@ -43871,52 +44048,52 @@
         <v>134</v>
       </c>
       <c r="C139" s="8">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="D139" s="8">
-        <f t="shared" si="52"/>
-        <v>9997457</v>
+        <f t="shared" si="53"/>
+        <v>9997613</v>
       </c>
       <c r="E139" s="8">
-        <f t="shared" si="53"/>
-        <v>1091</v>
+        <f t="shared" si="54"/>
+        <v>972</v>
       </c>
       <c r="F139" s="8">
-        <f t="shared" si="54"/>
-        <v>1452</v>
+        <f t="shared" si="55"/>
+        <v>1415</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="55"/>
-        <v>9997457</v>
+        <f t="shared" si="56"/>
+        <v>9997613</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>3367</v>
       </c>
       <c r="I139" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>3469</v>
       </c>
       <c r="J139" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1581</v>
       </c>
       <c r="K139" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>44152</v>
       </c>
       <c r="L139" s="8"/>
       <c r="M139" s="8"/>
       <c r="N139" s="8">
-        <f t="shared" si="60"/>
-        <v>1091</v>
+        <f t="shared" si="61"/>
+        <v>972</v>
       </c>
       <c r="O139" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>3469</v>
       </c>
       <c r="P139" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1581</v>
       </c>
     </row>
@@ -43931,8 +44108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C18E4-1873-48DD-B7B4-EAEB82B5E392}">
   <dimension ref="A1:S139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N130" sqref="N130:N132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46443,7 +46620,7 @@
         <v>9</v>
       </c>
       <c r="J54" s="6">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="1">
@@ -46468,7 +46645,7 @@
       </c>
       <c r="S54">
         <f>J54</f>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
@@ -46506,7 +46683,7 @@
       </c>
       <c r="J55" s="6">
         <f>J54+ROUND(($E$1/$D$2)*G54*(I54/$D$3),0)-ROUND(I54/$D$2,0)</f>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="1">
@@ -46531,7 +46708,7 @@
       </c>
       <c r="S55">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -46569,7 +46746,7 @@
       </c>
       <c r="J56" s="6">
         <f t="shared" ref="J56:J119" si="8">J55+ROUND(($E$1/$D$2)*G55*(I55/$D$3),0)-ROUND(I55/$D$2,0)</f>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="1">
@@ -46594,7 +46771,7 @@
       </c>
       <c r="S56">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -46632,7 +46809,7 @@
       </c>
       <c r="J57" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="1">
@@ -46657,7 +46834,7 @@
       </c>
       <c r="S57">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -46695,7 +46872,7 @@
       </c>
       <c r="J58" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="1">
@@ -46720,7 +46897,7 @@
       </c>
       <c r="S58">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -46758,7 +46935,7 @@
       </c>
       <c r="J59" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="1">
@@ -46783,7 +46960,7 @@
       </c>
       <c r="S59">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -46821,7 +46998,7 @@
       </c>
       <c r="J60" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="1">
@@ -46846,7 +47023,7 @@
       </c>
       <c r="S60">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -46884,7 +47061,7 @@
       </c>
       <c r="J61" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="1">
@@ -46909,7 +47086,7 @@
       </c>
       <c r="S61">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -46947,7 +47124,7 @@
       </c>
       <c r="J62" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="1">
@@ -46972,7 +47149,7 @@
       </c>
       <c r="S62">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -47010,7 +47187,7 @@
       </c>
       <c r="J63" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="1">
@@ -47035,7 +47212,7 @@
       </c>
       <c r="S63">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -47073,7 +47250,7 @@
       </c>
       <c r="J64" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="1">
@@ -47098,7 +47275,7 @@
       </c>
       <c r="S64">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -47136,7 +47313,7 @@
       </c>
       <c r="J65" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K65" s="6"/>
       <c r="L65" s="1">
@@ -47161,7 +47338,7 @@
       </c>
       <c r="S65">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -47199,7 +47376,7 @@
       </c>
       <c r="J66" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K66" s="6"/>
       <c r="L66" s="1">
@@ -47224,7 +47401,7 @@
       </c>
       <c r="S66">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -47262,7 +47439,7 @@
       </c>
       <c r="J67" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K67" s="6"/>
       <c r="L67" s="1">
@@ -47287,7 +47464,7 @@
       </c>
       <c r="S67">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -47325,7 +47502,7 @@
       </c>
       <c r="J68" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="1">
@@ -47350,7 +47527,7 @@
       </c>
       <c r="S68">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -47388,7 +47565,7 @@
       </c>
       <c r="J69" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K69" s="6"/>
       <c r="L69" s="1">
@@ -47413,7 +47590,7 @@
       </c>
       <c r="S69">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -47451,7 +47628,7 @@
       </c>
       <c r="J70" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K70" s="6"/>
       <c r="L70" s="1">
@@ -47476,7 +47653,7 @@
       </c>
       <c r="S70">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -47514,7 +47691,7 @@
       </c>
       <c r="J71" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K71" s="6"/>
       <c r="L71" s="1">
@@ -47539,7 +47716,7 @@
       </c>
       <c r="S71">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -47577,7 +47754,7 @@
       </c>
       <c r="J72" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K72" s="6"/>
       <c r="L72" s="1">
@@ -47602,7 +47779,7 @@
       </c>
       <c r="S72">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -47640,7 +47817,7 @@
       </c>
       <c r="J73" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K73" s="6"/>
       <c r="L73" s="1">
@@ -47665,7 +47842,7 @@
       </c>
       <c r="S73">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -47703,7 +47880,7 @@
       </c>
       <c r="J74" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K74" s="6"/>
       <c r="L74" s="1">
@@ -47728,7 +47905,7 @@
       </c>
       <c r="S74">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -47766,7 +47943,7 @@
       </c>
       <c r="J75" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K75" s="6"/>
       <c r="L75" s="1">
@@ -47791,7 +47968,7 @@
       </c>
       <c r="S75">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -47829,7 +48006,7 @@
       </c>
       <c r="J76" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K76" s="6"/>
       <c r="L76" s="1">
@@ -47854,7 +48031,7 @@
       </c>
       <c r="S76">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -47892,7 +48069,7 @@
       </c>
       <c r="J77" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K77" s="6"/>
       <c r="L77" s="1">
@@ -47917,7 +48094,7 @@
       </c>
       <c r="S77">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
@@ -47955,7 +48132,7 @@
       </c>
       <c r="J78" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K78" s="6"/>
       <c r="L78" s="1">
@@ -47980,7 +48157,7 @@
       </c>
       <c r="S78">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
@@ -48018,7 +48195,7 @@
       </c>
       <c r="J79" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="1">
@@ -48043,7 +48220,7 @@
       </c>
       <c r="S79">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -48081,7 +48258,7 @@
       </c>
       <c r="J80" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K80" s="6"/>
       <c r="L80" s="1">
@@ -48106,7 +48283,7 @@
       </c>
       <c r="S80">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -48144,7 +48321,7 @@
       </c>
       <c r="J81" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K81" s="6"/>
       <c r="L81" s="1">
@@ -48169,7 +48346,7 @@
       </c>
       <c r="S81">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -48207,7 +48384,7 @@
       </c>
       <c r="J82" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K82" s="6"/>
       <c r="L82" s="1">
@@ -48232,7 +48409,7 @@
       </c>
       <c r="S82">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
@@ -48270,7 +48447,7 @@
       </c>
       <c r="J83" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K83" s="6"/>
       <c r="L83" s="1">
@@ -48295,7 +48472,7 @@
       </c>
       <c r="S83">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
@@ -48333,7 +48510,7 @@
       </c>
       <c r="J84" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K84" s="6"/>
       <c r="L84" s="1">
@@ -48358,7 +48535,7 @@
       </c>
       <c r="S84">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
@@ -48396,7 +48573,7 @@
       </c>
       <c r="J85" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K85" s="6"/>
       <c r="L85" s="1">
@@ -48421,7 +48598,7 @@
       </c>
       <c r="S85">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
@@ -48459,7 +48636,7 @@
       </c>
       <c r="J86" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K86" s="6"/>
       <c r="L86" s="1">
@@ -48484,7 +48661,7 @@
       </c>
       <c r="S86">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
@@ -48522,7 +48699,7 @@
       </c>
       <c r="J87" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K87" s="6"/>
       <c r="L87" s="1">
@@ -48547,7 +48724,7 @@
       </c>
       <c r="S87">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
@@ -48585,7 +48762,7 @@
       </c>
       <c r="J88" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K88" s="6"/>
       <c r="L88" s="1">
@@ -48610,7 +48787,7 @@
       </c>
       <c r="S88">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -48649,7 +48826,7 @@
       </c>
       <c r="J89" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K89" s="6"/>
       <c r="L89" s="1">
@@ -48674,7 +48851,7 @@
       </c>
       <c r="S89">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -48713,7 +48890,7 @@
       </c>
       <c r="J90" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K90" s="6"/>
       <c r="L90" s="1">
@@ -48738,7 +48915,7 @@
       </c>
       <c r="S90">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
@@ -48777,7 +48954,7 @@
       </c>
       <c r="J91" s="6">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K91" s="6"/>
       <c r="L91" s="1">
@@ -48802,7 +48979,7 @@
       </c>
       <c r="S91">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
@@ -48841,7 +49018,7 @@
       </c>
       <c r="J92" s="6">
         <f t="shared" si="8"/>
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="K92" s="6"/>
       <c r="L92" s="1">
@@ -48866,7 +49043,7 @@
       </c>
       <c r="S92">
         <f t="shared" si="7"/>
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
@@ -48905,7 +49082,7 @@
       </c>
       <c r="J93" s="6">
         <f t="shared" si="8"/>
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="K93" s="6"/>
       <c r="L93" s="1">
@@ -48930,7 +49107,7 @@
       </c>
       <c r="S93">
         <f t="shared" si="7"/>
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
@@ -48969,7 +49146,7 @@
       </c>
       <c r="J94" s="6">
         <f t="shared" si="8"/>
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="K94" s="6"/>
       <c r="L94" s="1">
@@ -48994,7 +49171,7 @@
       </c>
       <c r="S94">
         <f t="shared" si="7"/>
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -49033,7 +49210,7 @@
       </c>
       <c r="J95" s="6">
         <f t="shared" si="8"/>
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="K95" s="6"/>
       <c r="L95" s="1">
@@ -49058,7 +49235,7 @@
       </c>
       <c r="S95">
         <f t="shared" si="7"/>
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
@@ -49097,7 +49274,7 @@
       </c>
       <c r="J96" s="6">
         <f t="shared" si="8"/>
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="K96" s="6"/>
       <c r="L96" s="1">
@@ -49122,7 +49299,7 @@
       </c>
       <c r="S96">
         <f t="shared" si="7"/>
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
@@ -49161,7 +49338,7 @@
       </c>
       <c r="J97" s="6">
         <f t="shared" si="8"/>
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="K97" s="6"/>
       <c r="L97" s="1">
@@ -49186,7 +49363,7 @@
       </c>
       <c r="S97">
         <f t="shared" si="7"/>
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
@@ -49225,7 +49402,7 @@
       </c>
       <c r="J98" s="6">
         <f t="shared" si="8"/>
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="K98" s="6"/>
       <c r="L98" s="1">
@@ -49250,7 +49427,7 @@
       </c>
       <c r="S98">
         <f t="shared" si="7"/>
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
@@ -49289,7 +49466,7 @@
       </c>
       <c r="J99" s="6">
         <f t="shared" si="8"/>
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="K99" s="6"/>
       <c r="L99" s="1">
@@ -49314,7 +49491,7 @@
       </c>
       <c r="S99">
         <f t="shared" si="7"/>
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
@@ -49353,7 +49530,7 @@
       </c>
       <c r="J100" s="6">
         <f t="shared" si="8"/>
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="K100" s="6"/>
       <c r="L100" s="1">
@@ -49378,7 +49555,7 @@
       </c>
       <c r="S100">
         <f t="shared" si="7"/>
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
@@ -49417,7 +49594,7 @@
       </c>
       <c r="J101" s="6">
         <f t="shared" si="8"/>
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="K101" s="6"/>
       <c r="L101" s="1">
@@ -49442,7 +49619,7 @@
       </c>
       <c r="S101">
         <f t="shared" si="7"/>
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
@@ -49481,7 +49658,7 @@
       </c>
       <c r="J102" s="6">
         <f t="shared" si="8"/>
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="K102" s="6"/>
       <c r="L102" s="1">
@@ -49506,7 +49683,7 @@
       </c>
       <c r="S102">
         <f t="shared" si="7"/>
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -49545,7 +49722,7 @@
       </c>
       <c r="J103" s="6">
         <f t="shared" si="8"/>
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="K103" s="6"/>
       <c r="L103" s="1">
@@ -49570,7 +49747,7 @@
       </c>
       <c r="S103">
         <f t="shared" si="7"/>
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
@@ -49609,7 +49786,7 @@
       </c>
       <c r="J104" s="6">
         <f t="shared" si="8"/>
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="K104" s="6"/>
       <c r="L104" s="1">
@@ -49634,7 +49811,7 @@
       </c>
       <c r="S104">
         <f t="shared" si="7"/>
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
@@ -49673,7 +49850,7 @@
       </c>
       <c r="J105" s="6">
         <f t="shared" si="8"/>
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="K105" s="6"/>
       <c r="L105" s="1">
@@ -49698,7 +49875,7 @@
       </c>
       <c r="S105">
         <f t="shared" si="7"/>
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
@@ -49737,7 +49914,7 @@
       </c>
       <c r="J106" s="6">
         <f t="shared" si="8"/>
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="K106" s="6"/>
       <c r="L106" s="1">
@@ -49762,7 +49939,7 @@
       </c>
       <c r="S106">
         <f t="shared" si="7"/>
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
@@ -49801,7 +49978,7 @@
       </c>
       <c r="J107" s="6">
         <f t="shared" si="8"/>
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="1">
@@ -49826,7 +50003,7 @@
       </c>
       <c r="S107">
         <f t="shared" si="7"/>
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
@@ -49865,7 +50042,7 @@
       </c>
       <c r="J108" s="6">
         <f t="shared" si="8"/>
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="1">
@@ -49890,7 +50067,7 @@
       </c>
       <c r="S108">
         <f t="shared" si="7"/>
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
@@ -49929,7 +50106,7 @@
       </c>
       <c r="J109" s="6">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="K109" s="6"/>
       <c r="L109" s="1">
@@ -49954,7 +50131,7 @@
       </c>
       <c r="S109">
         <f t="shared" si="7"/>
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
@@ -49993,7 +50170,7 @@
       </c>
       <c r="J110" s="6">
         <f t="shared" si="8"/>
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K110" s="6"/>
       <c r="L110" s="1">
@@ -50018,7 +50195,7 @@
       </c>
       <c r="S110">
         <f t="shared" si="7"/>
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
@@ -50057,7 +50234,7 @@
       </c>
       <c r="J111" s="6">
         <f t="shared" si="8"/>
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="K111" s="6"/>
       <c r="L111" s="1">
@@ -50082,7 +50259,7 @@
       </c>
       <c r="S111">
         <f t="shared" si="7"/>
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
@@ -50121,7 +50298,7 @@
       </c>
       <c r="J112" s="6">
         <f t="shared" si="8"/>
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="K112" s="6"/>
       <c r="L112" s="1">
@@ -50146,7 +50323,7 @@
       </c>
       <c r="S112">
         <f t="shared" si="7"/>
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
@@ -50185,7 +50362,7 @@
       </c>
       <c r="J113" s="6">
         <f t="shared" si="8"/>
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="K113" s="6"/>
       <c r="L113" s="1">
@@ -50210,7 +50387,7 @@
       </c>
       <c r="S113">
         <f t="shared" si="7"/>
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
@@ -50249,7 +50426,7 @@
       </c>
       <c r="J114" s="6">
         <f t="shared" si="8"/>
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="K114" s="6"/>
       <c r="L114" s="1">
@@ -50274,7 +50451,7 @@
       </c>
       <c r="S114">
         <f t="shared" si="7"/>
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
@@ -50313,7 +50490,7 @@
       </c>
       <c r="J115" s="6">
         <f t="shared" si="8"/>
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="K115" s="6"/>
       <c r="L115" s="1">
@@ -50338,7 +50515,7 @@
       </c>
       <c r="S115">
         <f t="shared" si="7"/>
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
@@ -50377,7 +50554,7 @@
       </c>
       <c r="J116" s="6">
         <f t="shared" si="8"/>
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="K116" s="6"/>
       <c r="L116" s="1">
@@ -50402,7 +50579,7 @@
       </c>
       <c r="S116">
         <f t="shared" si="7"/>
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
@@ -50441,7 +50618,7 @@
       </c>
       <c r="J117" s="6">
         <f t="shared" si="8"/>
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="K117" s="6"/>
       <c r="L117" s="1">
@@ -50466,7 +50643,7 @@
       </c>
       <c r="S117">
         <f t="shared" si="7"/>
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
@@ -50505,7 +50682,7 @@
       </c>
       <c r="J118" s="6">
         <f t="shared" si="8"/>
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="K118" s="6"/>
       <c r="L118" s="1">
@@ -50530,7 +50707,7 @@
       </c>
       <c r="S118">
         <f t="shared" si="7"/>
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -50569,7 +50746,7 @@
       </c>
       <c r="J119" s="6">
         <f t="shared" si="8"/>
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="K119" s="6"/>
       <c r="L119" s="1">
@@ -50589,12 +50766,12 @@
         <v>227</v>
       </c>
       <c r="R119">
-        <f>I119</f>
+        <f t="shared" ref="R119:R134" si="19">I119</f>
         <v>329</v>
       </c>
       <c r="S119">
-        <f>J119</f>
-        <v>325</v>
+        <f t="shared" ref="S119:S134" si="20">J119</f>
+        <v>305</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
@@ -50632,8 +50809,8 @@
         <v>371</v>
       </c>
       <c r="J120" s="6">
-        <f t="shared" ref="J120:J139" si="19">J119+ROUND(($E$1/$D$2)*G119*(I119/$D$3),0)-ROUND(I119/$D$2,0)</f>
-        <v>342</v>
+        <f t="shared" ref="J120:J139" si="21">J119+ROUND(($E$1/$D$2)*G119*(I119/$D$3),0)-ROUND(I119/$D$2,0)</f>
+        <v>322</v>
       </c>
       <c r="K120" s="6"/>
       <c r="L120" s="1">
@@ -50653,12 +50830,12 @@
         <v>254</v>
       </c>
       <c r="R120">
-        <f>I120</f>
+        <f t="shared" si="19"/>
         <v>371</v>
       </c>
       <c r="S120">
-        <f>J120</f>
-        <v>342</v>
+        <f t="shared" si="20"/>
+        <v>322</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
@@ -50696,8 +50873,8 @@
         <v>417</v>
       </c>
       <c r="J121" s="6">
-        <f t="shared" si="19"/>
-        <v>360</v>
+        <f t="shared" si="21"/>
+        <v>340</v>
       </c>
       <c r="K121" s="6"/>
       <c r="L121" s="1">
@@ -50717,12 +50894,12 @@
         <v>280.57142857142856</v>
       </c>
       <c r="R121">
-        <f>I121</f>
+        <f t="shared" si="19"/>
         <v>417</v>
       </c>
       <c r="S121">
-        <f>J121</f>
-        <v>360</v>
+        <f t="shared" si="20"/>
+        <v>340</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
@@ -50760,8 +50937,8 @@
         <v>469</v>
       </c>
       <c r="J122" s="6">
-        <f t="shared" si="19"/>
-        <v>381</v>
+        <f t="shared" si="21"/>
+        <v>361</v>
       </c>
       <c r="K122" s="6"/>
       <c r="L122" s="1">
@@ -50781,12 +50958,12 @@
         <v>306.14285714285717</v>
       </c>
       <c r="R122">
-        <f>I122</f>
+        <f t="shared" si="19"/>
         <v>469</v>
       </c>
       <c r="S122">
-        <f>J122</f>
-        <v>381</v>
+        <f t="shared" si="20"/>
+        <v>361</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
@@ -50824,8 +51001,8 @@
         <v>528</v>
       </c>
       <c r="J123" s="6">
-        <f t="shared" si="19"/>
-        <v>405</v>
+        <f t="shared" si="21"/>
+        <v>385</v>
       </c>
       <c r="K123" s="6"/>
       <c r="L123" s="1">
@@ -50845,12 +51022,12 @@
         <v>332.85714285714283</v>
       </c>
       <c r="R123">
-        <f>I123</f>
+        <f t="shared" si="19"/>
         <v>528</v>
       </c>
       <c r="S123">
-        <f>J123</f>
-        <v>405</v>
+        <f t="shared" si="20"/>
+        <v>385</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
@@ -50888,8 +51065,8 @@
         <v>594</v>
       </c>
       <c r="J124" s="6">
-        <f t="shared" si="19"/>
-        <v>431</v>
+        <f t="shared" si="21"/>
+        <v>411</v>
       </c>
       <c r="K124" s="6"/>
       <c r="L124" s="1">
@@ -50909,12 +51086,12 @@
         <v>360.42857142857144</v>
       </c>
       <c r="R124">
-        <f>I124</f>
+        <f t="shared" si="19"/>
         <v>594</v>
       </c>
       <c r="S124">
-        <f>J124</f>
-        <v>431</v>
+        <f t="shared" si="20"/>
+        <v>411</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
@@ -50952,8 +51129,8 @@
         <v>668</v>
       </c>
       <c r="J125" s="6">
-        <f t="shared" si="19"/>
-        <v>460</v>
+        <f t="shared" si="21"/>
+        <v>440</v>
       </c>
       <c r="K125" s="6">
         <f>N124+ROUND((C125/$D$2)*D124*(N124/$D$3),0)-ROUND(N124/$D$2,0)</f>
@@ -50980,16 +51157,16 @@
         <v>471</v>
       </c>
       <c r="Q125">
-        <f>E125</f>
+        <f t="shared" ref="Q125:Q139" si="22">E125</f>
         <v>390</v>
       </c>
       <c r="R125">
-        <f>I125</f>
+        <f t="shared" si="19"/>
         <v>668</v>
       </c>
       <c r="S125">
-        <f>J125</f>
-        <v>460</v>
+        <f t="shared" si="20"/>
+        <v>440</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
@@ -51027,11 +51204,11 @@
         <v>751</v>
       </c>
       <c r="J126" s="6">
-        <f t="shared" si="19"/>
-        <v>493</v>
+        <f t="shared" si="21"/>
+        <v>473</v>
       </c>
       <c r="K126" s="6">
-        <f t="shared" ref="K126:K139" si="20">N125+ROUND((C126/$D$2)*D125*(N125/$D$3),0)-ROUND(N125/$D$2,0)</f>
+        <f t="shared" ref="K126:K130" si="23">N125+ROUND((C126/$D$2)*D125*(N125/$D$3),0)-ROUND(N125/$D$2,0)</f>
         <v>514</v>
       </c>
       <c r="L126" s="3">
@@ -51051,20 +51228,20 @@
         <v>420.28571428571428</v>
       </c>
       <c r="P126" s="4">
-        <f t="shared" ref="P126:P139" si="21">K126</f>
+        <f t="shared" ref="P126:P139" si="24">K126</f>
         <v>514</v>
       </c>
       <c r="Q126" s="4">
-        <f>E126</f>
+        <f t="shared" si="22"/>
         <v>422</v>
       </c>
       <c r="R126" s="4">
-        <f>I126</f>
+        <f t="shared" si="19"/>
         <v>751</v>
       </c>
       <c r="S126" s="4">
-        <f>J126</f>
-        <v>493</v>
+        <f t="shared" si="20"/>
+        <v>473</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
@@ -51075,15 +51252,15 @@
         <v>122</v>
       </c>
       <c r="C127" s="4">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="D127" s="4">
         <f t="shared" si="11"/>
-        <v>9998992</v>
+        <v>9998991</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" si="12"/>
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F127" s="4">
         <f t="shared" si="13"/>
@@ -51091,7 +51268,7 @@
       </c>
       <c r="G127" s="2">
         <f t="shared" si="14"/>
-        <v>9998992</v>
+        <v>9998991</v>
       </c>
       <c r="H127" s="2">
         <f t="shared" si="16"/>
@@ -51102,12 +51279,12 @@
         <v>844</v>
       </c>
       <c r="J127" s="6">
-        <f t="shared" si="19"/>
-        <v>530</v>
+        <f t="shared" si="21"/>
+        <v>510</v>
       </c>
       <c r="K127" s="6">
-        <f t="shared" si="20"/>
-        <v>537</v>
+        <f t="shared" si="23"/>
+        <v>538</v>
       </c>
       <c r="L127" s="3">
         <f t="shared" si="9"/>
@@ -51115,7 +51292,7 @@
       </c>
       <c r="M127" s="4">
         <f t="shared" si="18"/>
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N127" s="4">
         <f>RealData!B124</f>
@@ -51126,20 +51303,20 @@
         <v>445.57142857142856</v>
       </c>
       <c r="P127" s="4">
-        <f t="shared" si="21"/>
-        <v>537</v>
+        <f t="shared" si="24"/>
+        <v>538</v>
       </c>
       <c r="Q127" s="4">
-        <f>E127</f>
-        <v>447</v>
+        <f t="shared" si="22"/>
+        <v>448</v>
       </c>
       <c r="R127" s="4">
-        <f>I127</f>
+        <f t="shared" si="19"/>
         <v>844</v>
       </c>
       <c r="S127" s="4">
-        <f>J127</f>
-        <v>530</v>
+        <f t="shared" si="20"/>
+        <v>510</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
@@ -51150,15 +51327,15 @@
         <v>123</v>
       </c>
       <c r="C128" s="4">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="D128" s="4">
         <f t="shared" si="11"/>
-        <v>9998929</v>
+        <v>9998926</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" si="12"/>
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F128" s="4">
         <f t="shared" si="13"/>
@@ -51166,7 +51343,7 @@
       </c>
       <c r="G128" s="2">
         <f t="shared" si="14"/>
-        <v>9998929</v>
+        <v>9998926</v>
       </c>
       <c r="H128" s="2">
         <f t="shared" si="16"/>
@@ -51177,12 +51354,12 @@
         <v>950</v>
       </c>
       <c r="J128" s="6">
-        <f t="shared" si="19"/>
-        <v>573</v>
+        <f t="shared" si="21"/>
+        <v>553</v>
       </c>
       <c r="K128" s="6">
-        <f t="shared" si="20"/>
-        <v>552</v>
+        <f t="shared" si="23"/>
+        <v>553</v>
       </c>
       <c r="L128" s="3">
         <f t="shared" si="9"/>
@@ -51190,7 +51367,7 @@
       </c>
       <c r="M128" s="4">
         <f t="shared" si="18"/>
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="N128" s="4">
         <f>RealData!B125</f>
@@ -51201,20 +51378,20 @@
         <v>474.14285714285717</v>
       </c>
       <c r="P128" s="4">
-        <f t="shared" si="21"/>
-        <v>552</v>
+        <f t="shared" si="24"/>
+        <v>553</v>
       </c>
       <c r="Q128" s="4">
-        <f>E128</f>
-        <v>473</v>
+        <f t="shared" si="22"/>
+        <v>476</v>
       </c>
       <c r="R128" s="4">
-        <f>I128</f>
+        <f t="shared" si="19"/>
         <v>950</v>
       </c>
       <c r="S128" s="4">
-        <f>J128</f>
-        <v>573</v>
+        <f t="shared" si="20"/>
+        <v>553</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
@@ -51225,23 +51402,23 @@
         <v>124</v>
       </c>
       <c r="C129" s="4">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="D129" s="4">
         <f t="shared" si="11"/>
-        <v>9998862</v>
+        <v>9998857</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="12"/>
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="F129" s="4">
         <f t="shared" si="13"/>
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G129" s="2">
         <f t="shared" si="14"/>
-        <v>9998862</v>
+        <v>9998857</v>
       </c>
       <c r="H129" s="2">
         <f t="shared" si="16"/>
@@ -51252,20 +51429,20 @@
         <v>1069</v>
       </c>
       <c r="J129" s="6">
-        <f t="shared" si="19"/>
-        <v>621</v>
+        <f t="shared" si="21"/>
+        <v>601</v>
       </c>
       <c r="K129" s="6">
-        <f t="shared" si="20"/>
-        <v>603</v>
+        <f t="shared" si="23"/>
+        <v>604</v>
       </c>
       <c r="L129" s="3">
         <f t="shared" si="9"/>
         <v>44142</v>
       </c>
       <c r="M129" s="4">
-        <f t="shared" ref="M129" si="22">E129</f>
-        <v>501</v>
+        <f t="shared" ref="M129" si="25">E129</f>
+        <v>505</v>
       </c>
       <c r="N129" s="4">
         <f>RealData!B126</f>
@@ -51276,20 +51453,20 @@
         <v>505.28571428571428</v>
       </c>
       <c r="P129" s="4">
-        <f t="shared" si="21"/>
-        <v>603</v>
+        <f t="shared" si="24"/>
+        <v>604</v>
       </c>
       <c r="Q129" s="4">
-        <f>E129</f>
-        <v>501</v>
+        <f t="shared" si="22"/>
+        <v>505</v>
       </c>
       <c r="R129" s="4">
-        <f>I129</f>
+        <f t="shared" si="19"/>
         <v>1069</v>
       </c>
       <c r="S129" s="4">
-        <f>J129</f>
-        <v>621</v>
+        <f t="shared" si="20"/>
+        <v>601</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
@@ -51300,23 +51477,23 @@
         <v>125</v>
       </c>
       <c r="C130" s="4">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="D130" s="4">
         <f t="shared" si="11"/>
-        <v>9998791</v>
+        <v>9998784</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" si="12"/>
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F130" s="4">
         <f t="shared" si="13"/>
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G130" s="2">
         <f t="shared" si="14"/>
-        <v>9998791</v>
+        <v>9998784</v>
       </c>
       <c r="H130" s="2">
         <f t="shared" si="16"/>
@@ -51327,35 +51504,44 @@
         <v>1203</v>
       </c>
       <c r="J130" s="6">
-        <f t="shared" si="19"/>
-        <v>675</v>
+        <f t="shared" si="21"/>
+        <v>655</v>
       </c>
       <c r="K130" s="6">
-        <f t="shared" si="20"/>
-        <v>645</v>
+        <f t="shared" si="23"/>
+        <v>647</v>
       </c>
       <c r="L130" s="3">
         <f t="shared" si="9"/>
         <v>44143</v>
       </c>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
+      <c r="M130" s="4">
+        <f t="shared" ref="M130" si="26">E130</f>
+        <v>536</v>
+      </c>
+      <c r="N130" s="4">
+        <f>RealData!B127</f>
+        <v>650</v>
+      </c>
+      <c r="O130" s="4">
+        <f>RealData!C127</f>
+        <v>538.42857142857144</v>
+      </c>
       <c r="P130" s="4">
-        <f t="shared" si="21"/>
-        <v>645</v>
+        <f t="shared" si="24"/>
+        <v>647</v>
       </c>
       <c r="Q130" s="4">
-        <f>E130</f>
-        <v>530</v>
+        <f t="shared" si="22"/>
+        <v>536</v>
       </c>
       <c r="R130" s="4">
-        <f>I130</f>
+        <f t="shared" si="19"/>
         <v>1203</v>
       </c>
       <c r="S130" s="4">
-        <f>J130</f>
-        <v>675</v>
+        <f t="shared" si="20"/>
+        <v>655</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
@@ -51366,23 +51552,23 @@
         <v>126</v>
       </c>
       <c r="C131" s="4">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" si="11"/>
-        <v>9998716</v>
+        <v>9998707</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="12"/>
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="F131" s="4">
         <f t="shared" si="13"/>
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G131" s="2">
         <f t="shared" si="14"/>
-        <v>9998716</v>
+        <v>9998707</v>
       </c>
       <c r="H131" s="2">
         <f t="shared" si="16"/>
@@ -51393,35 +51579,44 @@
         <v>1354</v>
       </c>
       <c r="J131" s="6">
-        <f t="shared" si="19"/>
-        <v>735</v>
+        <f t="shared" si="21"/>
+        <v>715</v>
       </c>
       <c r="K131" s="6">
         <f>K130+ROUND((C131/$D$2)*D130*(K130/$D$3),0)-ROUND(K130/$D$2,0)</f>
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="L131" s="3">
         <f t="shared" si="9"/>
         <v>44144</v>
       </c>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
+      <c r="M131" s="4">
+        <f t="shared" ref="M131:M132" si="27">E131</f>
+        <v>568</v>
+      </c>
+      <c r="N131" s="4">
+        <f>RealData!B128</f>
+        <v>670</v>
+      </c>
+      <c r="O131" s="4">
+        <f>RealData!C128</f>
+        <v>572</v>
+      </c>
       <c r="P131" s="4">
-        <f t="shared" si="21"/>
-        <v>682</v>
+        <f t="shared" si="24"/>
+        <v>686</v>
       </c>
       <c r="Q131" s="4">
-        <f>E131</f>
-        <v>561</v>
+        <f t="shared" si="22"/>
+        <v>568</v>
       </c>
       <c r="R131" s="4">
-        <f>I131</f>
+        <f t="shared" si="19"/>
         <v>1354</v>
       </c>
       <c r="S131" s="4">
-        <f>J131</f>
-        <v>735</v>
+        <f t="shared" si="20"/>
+        <v>715</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
@@ -51432,23 +51627,23 @@
         <v>127</v>
       </c>
       <c r="C132" s="4">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="D132" s="4">
         <f t="shared" si="11"/>
-        <v>9998637</v>
+        <v>9998625</v>
       </c>
       <c r="E132" s="4">
         <f t="shared" si="12"/>
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="F132" s="4">
         <f t="shared" si="13"/>
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" si="14"/>
-        <v>9998637</v>
+        <v>9998625</v>
       </c>
       <c r="H132" s="2">
         <f t="shared" si="16"/>
@@ -51459,35 +51654,44 @@
         <v>1523</v>
       </c>
       <c r="J132" s="6">
-        <f t="shared" si="19"/>
-        <v>803</v>
+        <f t="shared" si="21"/>
+        <v>783</v>
       </c>
       <c r="K132" s="6">
-        <f t="shared" ref="K132:K139" si="23">K131+ROUND((C132/$D$2)*D131*(K131/$D$3),0)-ROUND(K131/$D$2,0)</f>
-        <v>722</v>
+        <f t="shared" ref="K132:K139" si="28">K131+ROUND((C132/$D$2)*D131*(K131/$D$3),0)-ROUND(K131/$D$2,0)</f>
+        <v>728</v>
       </c>
       <c r="L132" s="3">
         <f t="shared" si="9"/>
         <v>44145</v>
       </c>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
+      <c r="M132" s="4">
+        <f t="shared" si="27"/>
+        <v>603</v>
+      </c>
+      <c r="N132" s="4">
+        <f>RealData!B129</f>
+        <v>708</v>
+      </c>
+      <c r="O132" s="4">
+        <f>RealData!C129</f>
+        <v>605.28571428571433</v>
+      </c>
       <c r="P132" s="4">
-        <f t="shared" si="21"/>
-        <v>722</v>
+        <f t="shared" si="24"/>
+        <v>728</v>
       </c>
       <c r="Q132" s="4">
-        <f>E132</f>
-        <v>593</v>
+        <f t="shared" si="22"/>
+        <v>603</v>
       </c>
       <c r="R132" s="4">
-        <f>I132</f>
+        <f t="shared" si="19"/>
         <v>1523</v>
       </c>
       <c r="S132" s="4">
-        <f>J132</f>
-        <v>803</v>
+        <f t="shared" si="20"/>
+        <v>783</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
@@ -51498,23 +51702,23 @@
         <v>128</v>
       </c>
       <c r="C133" s="8">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="D133" s="8">
         <f t="shared" si="11"/>
-        <v>9998553</v>
+        <v>9998538</v>
       </c>
       <c r="E133" s="8">
         <f t="shared" si="12"/>
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="F133" s="8">
         <f t="shared" si="13"/>
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="G133" s="2">
         <f t="shared" si="14"/>
-        <v>9998553</v>
+        <v>9998538</v>
       </c>
       <c r="H133" s="2">
         <f t="shared" si="16"/>
@@ -51525,12 +51729,12 @@
         <v>1713</v>
       </c>
       <c r="J133" s="6">
-        <f t="shared" si="19"/>
-        <v>879</v>
+        <f t="shared" si="21"/>
+        <v>859</v>
       </c>
       <c r="K133" s="6">
-        <f t="shared" si="23"/>
-        <v>764</v>
+        <f t="shared" si="28"/>
+        <v>772</v>
       </c>
       <c r="L133" s="7">
         <f t="shared" si="9"/>
@@ -51540,20 +51744,20 @@
       <c r="N133" s="8"/>
       <c r="O133" s="8"/>
       <c r="P133" s="8">
-        <f t="shared" si="21"/>
-        <v>764</v>
+        <f t="shared" si="24"/>
+        <v>772</v>
       </c>
       <c r="Q133" s="8">
-        <f>E133</f>
-        <v>628</v>
+        <f t="shared" si="22"/>
+        <v>640</v>
       </c>
       <c r="R133" s="8">
-        <f>I133</f>
+        <f t="shared" si="19"/>
         <v>1713</v>
       </c>
       <c r="S133" s="8">
-        <f>J133</f>
-        <v>879</v>
+        <f t="shared" si="20"/>
+        <v>859</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -51564,23 +51768,23 @@
         <v>129</v>
       </c>
       <c r="C134" s="8">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="D134" s="8">
         <f t="shared" si="11"/>
-        <v>9998464</v>
+        <v>9998446</v>
       </c>
       <c r="E134" s="8">
         <f t="shared" si="12"/>
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="F134" s="8">
         <f t="shared" si="13"/>
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="G134" s="2">
         <f t="shared" si="14"/>
-        <v>9998464</v>
+        <v>9998446</v>
       </c>
       <c r="H134" s="2">
         <f t="shared" si="16"/>
@@ -51591,12 +51795,12 @@
         <v>1927</v>
       </c>
       <c r="J134" s="6">
-        <f t="shared" si="19"/>
-        <v>964</v>
+        <f t="shared" si="21"/>
+        <v>944</v>
       </c>
       <c r="K134" s="6">
-        <f t="shared" si="23"/>
-        <v>808</v>
+        <f t="shared" si="28"/>
+        <v>819</v>
       </c>
       <c r="L134" s="7">
         <f t="shared" si="9"/>
@@ -51606,20 +51810,20 @@
       <c r="N134" s="8"/>
       <c r="O134" s="8"/>
       <c r="P134" s="8">
-        <f t="shared" si="21"/>
-        <v>808</v>
+        <f t="shared" si="24"/>
+        <v>819</v>
       </c>
       <c r="Q134" s="8">
-        <f>E134</f>
-        <v>665</v>
+        <f t="shared" si="22"/>
+        <v>679</v>
       </c>
       <c r="R134" s="8">
-        <f>I134</f>
+        <f t="shared" si="19"/>
         <v>1927</v>
       </c>
       <c r="S134" s="8">
-        <f>J134</f>
-        <v>964</v>
+        <f t="shared" si="20"/>
+        <v>944</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -51630,23 +51834,23 @@
         <v>130</v>
       </c>
       <c r="C135" s="8">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="D135" s="8">
         <f t="shared" si="11"/>
-        <v>9998370</v>
+        <v>9998348</v>
       </c>
       <c r="E135" s="8">
         <f t="shared" si="12"/>
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="F135" s="8">
         <f t="shared" si="13"/>
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="G135" s="2">
         <f t="shared" si="14"/>
-        <v>9998370</v>
+        <v>9998348</v>
       </c>
       <c r="H135" s="2">
         <f t="shared" si="16"/>
@@ -51657,35 +51861,35 @@
         <v>2167</v>
       </c>
       <c r="J135" s="6">
-        <f t="shared" si="19"/>
-        <v>1060</v>
+        <f t="shared" si="21"/>
+        <v>1040</v>
       </c>
       <c r="K135" s="6">
-        <f t="shared" si="23"/>
-        <v>855</v>
+        <f t="shared" si="28"/>
+        <v>869</v>
       </c>
       <c r="L135" s="7">
-        <f t="shared" ref="L135:L139" si="24">A135</f>
+        <f t="shared" ref="L135:L139" si="29">A135</f>
         <v>44148</v>
       </c>
       <c r="M135" s="8"/>
       <c r="N135" s="8"/>
       <c r="O135" s="8"/>
       <c r="P135" s="8">
-        <f t="shared" si="21"/>
-        <v>855</v>
+        <f t="shared" si="24"/>
+        <v>869</v>
       </c>
       <c r="Q135" s="8">
-        <f>E135</f>
-        <v>704</v>
+        <f t="shared" si="22"/>
+        <v>720</v>
       </c>
       <c r="R135" s="8">
-        <f t="shared" ref="R135:S139" si="25">I135</f>
+        <f t="shared" ref="R135:S139" si="30">I135</f>
         <v>2167</v>
       </c>
       <c r="S135" s="8">
-        <f t="shared" si="25"/>
-        <v>1060</v>
+        <f t="shared" si="30"/>
+        <v>1040</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -51696,23 +51900,23 @@
         <v>131</v>
       </c>
       <c r="C136" s="8">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="D136" s="8">
-        <f t="shared" ref="D136:D139" si="26">D135-ROUND((C136/$D$2)*D135*(E135/$D$3),0)</f>
-        <v>9998270</v>
+        <f t="shared" ref="D136:D139" si="31">D135-ROUND((C136/$D$2)*D135*(E135/$D$3),0)</f>
+        <v>9998244</v>
       </c>
       <c r="E136" s="8">
-        <f t="shared" ref="E136:E139" si="27">E135+ROUND((C136/$D$2)*D135*(E135/$D$3),0)-ROUND(E135/$D$2,0)</f>
-        <v>745</v>
+        <f t="shared" ref="E136:E139" si="32">E135+ROUND((C136/$D$2)*D135*(E135/$D$3),0)-ROUND(E135/$D$2,0)</f>
+        <v>764</v>
       </c>
       <c r="F136" s="8">
-        <f t="shared" ref="F136:F139" si="28">F135+ROUND(E135/$D$2,0)</f>
-        <v>987</v>
+        <f t="shared" ref="F136:F139" si="33">F135+ROUND(E135/$D$2,0)</f>
+        <v>994</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" ref="G136:G139" si="29">D136</f>
-        <v>9998270</v>
+        <f t="shared" ref="G136:G139" si="34">D136</f>
+        <v>9998244</v>
       </c>
       <c r="H136" s="2">
         <f t="shared" si="16"/>
@@ -51723,35 +51927,35 @@
         <v>2437</v>
       </c>
       <c r="J136" s="6">
-        <f t="shared" si="19"/>
-        <v>1168</v>
+        <f t="shared" si="21"/>
+        <v>1148</v>
       </c>
       <c r="K136" s="6">
-        <f t="shared" si="23"/>
-        <v>905</v>
+        <f t="shared" si="28"/>
+        <v>922</v>
       </c>
       <c r="L136" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>44149</v>
       </c>
       <c r="M136" s="8"/>
       <c r="N136" s="8"/>
       <c r="O136" s="8"/>
       <c r="P136" s="8">
-        <f t="shared" si="21"/>
-        <v>905</v>
+        <f t="shared" si="24"/>
+        <v>922</v>
       </c>
       <c r="Q136" s="8">
-        <f>E136</f>
-        <v>745</v>
+        <f t="shared" si="22"/>
+        <v>764</v>
       </c>
       <c r="R136" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>2437</v>
       </c>
       <c r="S136" s="8">
-        <f t="shared" si="25"/>
-        <v>1168</v>
+        <f t="shared" si="30"/>
+        <v>1148</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
@@ -51762,23 +51966,23 @@
         <v>132</v>
       </c>
       <c r="C137" s="8">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="D137" s="8">
-        <f t="shared" si="26"/>
-        <v>9998164</v>
+        <f t="shared" si="31"/>
+        <v>9998134</v>
       </c>
       <c r="E137" s="8">
-        <f t="shared" si="27"/>
-        <v>789</v>
+        <f t="shared" si="32"/>
+        <v>810</v>
       </c>
       <c r="F137" s="8">
-        <f t="shared" si="28"/>
-        <v>1049</v>
+        <f t="shared" si="33"/>
+        <v>1058</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="29"/>
-        <v>9998164</v>
+        <f t="shared" si="34"/>
+        <v>9998134</v>
       </c>
       <c r="H137" s="2">
         <f t="shared" si="16"/>
@@ -51789,35 +51993,35 @@
         <v>2742</v>
       </c>
       <c r="J137" s="6">
-        <f t="shared" si="19"/>
-        <v>1290</v>
+        <f t="shared" si="21"/>
+        <v>1270</v>
       </c>
       <c r="K137" s="6">
-        <f t="shared" si="23"/>
-        <v>958</v>
+        <f t="shared" si="28"/>
+        <v>978</v>
       </c>
       <c r="L137" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>44150</v>
       </c>
       <c r="M137" s="8"/>
       <c r="N137" s="8"/>
       <c r="O137" s="8"/>
       <c r="P137" s="8">
-        <f t="shared" si="21"/>
-        <v>958</v>
+        <f t="shared" si="24"/>
+        <v>978</v>
       </c>
       <c r="Q137" s="8">
-        <f>E137</f>
-        <v>789</v>
+        <f t="shared" si="22"/>
+        <v>810</v>
       </c>
       <c r="R137" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>2742</v>
       </c>
       <c r="S137" s="8">
-        <f t="shared" si="25"/>
-        <v>1290</v>
+        <f t="shared" si="30"/>
+        <v>1270</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -51828,23 +52032,23 @@
         <v>133</v>
       </c>
       <c r="C138" s="8">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="D138" s="8">
-        <f t="shared" si="26"/>
-        <v>9998052</v>
+        <f t="shared" si="31"/>
+        <v>9998017</v>
       </c>
       <c r="E138" s="8">
-        <f t="shared" si="27"/>
-        <v>835</v>
+        <f t="shared" si="32"/>
+        <v>859</v>
       </c>
       <c r="F138" s="8">
-        <f t="shared" si="28"/>
-        <v>1115</v>
+        <f t="shared" si="33"/>
+        <v>1126</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="29"/>
-        <v>9998052</v>
+        <f t="shared" si="34"/>
+        <v>9998017</v>
       </c>
       <c r="H138" s="2">
         <f t="shared" si="16"/>
@@ -51855,35 +52059,35 @@
         <v>3084</v>
       </c>
       <c r="J138" s="6">
-        <f t="shared" si="19"/>
-        <v>1427</v>
+        <f t="shared" si="21"/>
+        <v>1407</v>
       </c>
       <c r="K138" s="6">
-        <f t="shared" si="23"/>
-        <v>1014</v>
+        <f t="shared" si="28"/>
+        <v>1037</v>
       </c>
       <c r="L138" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>44151</v>
       </c>
       <c r="M138" s="8"/>
       <c r="N138" s="8"/>
       <c r="O138" s="8"/>
       <c r="P138" s="8">
-        <f t="shared" si="21"/>
-        <v>1014</v>
+        <f t="shared" si="24"/>
+        <v>1037</v>
       </c>
       <c r="Q138" s="8">
-        <f>E138</f>
-        <v>835</v>
+        <f t="shared" si="22"/>
+        <v>859</v>
       </c>
       <c r="R138" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>3084</v>
       </c>
       <c r="S138" s="8">
-        <f t="shared" si="25"/>
-        <v>1427</v>
+        <f t="shared" si="30"/>
+        <v>1407</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
@@ -51894,23 +52098,23 @@
         <v>134</v>
       </c>
       <c r="C139" s="8">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="D139" s="8">
-        <f t="shared" si="26"/>
-        <v>9997934</v>
+        <f t="shared" si="31"/>
+        <v>9997893</v>
       </c>
       <c r="E139" s="8">
-        <f t="shared" si="27"/>
-        <v>883</v>
+        <f t="shared" si="32"/>
+        <v>911</v>
       </c>
       <c r="F139" s="8">
-        <f t="shared" si="28"/>
-        <v>1185</v>
+        <f t="shared" si="33"/>
+        <v>1198</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="29"/>
-        <v>9997934</v>
+        <f t="shared" si="34"/>
+        <v>9997893</v>
       </c>
       <c r="H139" s="2">
         <f t="shared" si="16"/>
@@ -51921,35 +52125,35 @@
         <v>3469</v>
       </c>
       <c r="J139" s="6">
-        <f t="shared" si="19"/>
-        <v>1581</v>
+        <f t="shared" si="21"/>
+        <v>1561</v>
       </c>
       <c r="K139" s="6">
-        <f t="shared" si="23"/>
-        <v>1073</v>
+        <f t="shared" si="28"/>
+        <v>1100</v>
       </c>
       <c r="L139" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>44152</v>
       </c>
       <c r="M139" s="8"/>
       <c r="N139" s="8"/>
       <c r="O139" s="8"/>
       <c r="P139" s="8">
-        <f t="shared" si="21"/>
-        <v>1073</v>
+        <f t="shared" si="24"/>
+        <v>1100</v>
       </c>
       <c r="Q139" s="8">
-        <f>E139</f>
-        <v>883</v>
+        <f t="shared" si="22"/>
+        <v>911</v>
       </c>
       <c r="R139" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>3469</v>
       </c>
       <c r="S139" s="8">
-        <f t="shared" si="25"/>
-        <v>1581</v>
+        <f t="shared" si="30"/>
+        <v>1561</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_EXCEL/COVID Lombardia.xlsx
+++ b/COVID_EXCEL/COVID Lombardia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BC70AA-BAC2-4C82-9916-583A07EBD9AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1E51D4-2170-4224-AE99-EB719C906DBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="23505" yWindow="1050" windowWidth="15720" windowHeight="11460" activeTab="2" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -620,6 +620,9 @@
                 <c:pt idx="52">
                   <c:v>710</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>743</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1005,6 +1008,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2845,6 +2851,9 @@
                 <c:pt idx="120">
                   <c:v>603</c:v>
                 </c:pt>
+                <c:pt idx="121">
+                  <c:v>640</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3641,6 +3650,9 @@
                 <c:pt idx="120">
                   <c:v>708</c:v>
                 </c:pt>
+                <c:pt idx="121">
+                  <c:v>764</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4426,6 +4438,9 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>605.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9385,6 +9400,9 @@
                 <c:pt idx="126">
                   <c:v>603</c:v>
                 </c:pt>
+                <c:pt idx="127">
+                  <c:v>640</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10268,6 +10286,9 @@
                 <c:pt idx="126">
                   <c:v>708</c:v>
                 </c:pt>
+                <c:pt idx="127">
+                  <c:v>764</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11149,6 +11170,9 @@
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>605.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12768,6 +12792,9 @@
                 <c:pt idx="30">
                   <c:v>710</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>743</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13021,6 +13048,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14633,6 +14663,9 @@
                 <c:pt idx="126">
                   <c:v>710</c:v>
                 </c:pt>
+                <c:pt idx="127">
+                  <c:v>743</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15464,6 +15497,9 @@
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17582,6 +17618,9 @@
                 <c:pt idx="62">
                   <c:v>710</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>743</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18021,6 +18060,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18844,6 +18886,9 @@
                 <c:pt idx="30">
                   <c:v>710</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>743</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19097,6 +19142,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20324,6 +20372,9 @@
                 <c:pt idx="62">
                   <c:v>603</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>640</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20762,6 +20813,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22269,6 +22323,9 @@
                 <c:pt idx="120">
                   <c:v>603</c:v>
                 </c:pt>
+                <c:pt idx="121">
+                  <c:v>640</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -23043,6 +23100,9 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25875,6 +25935,9 @@
                 <c:pt idx="52">
                   <c:v>710</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>743</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -26260,6 +26323,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35272,10 +35338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K129"/>
+  <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+      <selection activeCell="C129" sqref="C129:C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36758,7 +36824,7 @@
         <v>610</v>
       </c>
       <c r="C126">
-        <f t="shared" ref="C126:C129" si="2">AVERAGE(B120:B126)</f>
+        <f t="shared" ref="C126:C130" si="2">AVERAGE(B120:B126)</f>
         <v>505.28571428571428</v>
       </c>
     </row>
@@ -36796,6 +36862,18 @@
       <c r="C129">
         <f t="shared" si="2"/>
         <v>605.28571428571433</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B130">
+        <v>764</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="2"/>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -36809,7 +36887,7 @@
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138"/>
+      <selection activeCell="L133" sqref="L133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43740,8 +43818,14 @@
         <f t="shared" si="14"/>
         <v>44146</v>
       </c>
-      <c r="L133" s="8"/>
-      <c r="M133" s="8"/>
+      <c r="L133" s="8">
+        <f t="shared" ref="L133" si="53">E133</f>
+        <v>743</v>
+      </c>
+      <c r="M133" s="8">
+        <f>RealData!B130</f>
+        <v>764</v>
+      </c>
       <c r="N133" s="8">
         <f t="shared" si="41"/>
         <v>743</v>
@@ -43823,49 +43907,49 @@
         <v>1.55</v>
       </c>
       <c r="D135" s="8">
-        <f t="shared" ref="D135:D139" si="53">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
+        <f t="shared" ref="D135:D139" si="54">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
         <v>9998063</v>
       </c>
       <c r="E135" s="8">
-        <f t="shared" ref="E135:E139" si="54">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
+        <f t="shared" ref="E135:E139" si="55">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
         <v>812</v>
       </c>
       <c r="F135" s="8">
-        <f t="shared" ref="F135:F139" si="55">F134+ROUND(E134/$D$2,0)</f>
+        <f t="shared" ref="F135:F139" si="56">F134+ROUND(E134/$D$2,0)</f>
         <v>1125</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" ref="G135:G139" si="56">D135</f>
+        <f t="shared" ref="G135:G139" si="57">D135</f>
         <v>9998063</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" ref="H135:H139" si="57">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
+        <f t="shared" ref="H135:H139" si="58">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
         <v>2102</v>
       </c>
       <c r="I135" s="5">
-        <f t="shared" ref="I135:I139" si="58">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="I135:I139" si="59">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>2167</v>
       </c>
       <c r="J135" s="6">
-        <f t="shared" ref="J135:J139" si="59">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="J135:J139" si="60">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>1060</v>
       </c>
       <c r="K135" s="7">
-        <f t="shared" ref="K135:K139" si="60">A135</f>
+        <f t="shared" ref="K135:K139" si="61">A135</f>
         <v>44148</v>
       </c>
       <c r="L135" s="8"/>
       <c r="M135" s="8"/>
       <c r="N135" s="8">
-        <f t="shared" ref="N135:N139" si="61">E135</f>
+        <f t="shared" ref="N135:N139" si="62">E135</f>
         <v>812</v>
       </c>
       <c r="O135" s="8">
-        <f t="shared" ref="O135:O139" si="62">I135</f>
+        <f t="shared" ref="O135:O139" si="63">I135</f>
         <v>2167</v>
       </c>
       <c r="P135" s="8">
-        <f t="shared" ref="P135:P139" si="63">J135</f>
+        <f t="shared" ref="P135:P139" si="64">J135</f>
         <v>1060</v>
       </c>
     </row>
@@ -43880,49 +43964,49 @@
         <v>1.55</v>
       </c>
       <c r="D136" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>9997958</v>
       </c>
       <c r="E136" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>849</v>
       </c>
       <c r="F136" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1193</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>9997958</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>2365</v>
       </c>
       <c r="I136" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2437</v>
       </c>
       <c r="J136" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1168</v>
       </c>
       <c r="K136" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>44149</v>
       </c>
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
       <c r="N136" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>849</v>
       </c>
       <c r="O136" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>2437</v>
       </c>
       <c r="P136" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1168</v>
       </c>
     </row>
@@ -43937,49 +44021,49 @@
         <v>1.55</v>
       </c>
       <c r="D137" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>9997848</v>
       </c>
       <c r="E137" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>888</v>
       </c>
       <c r="F137" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1264</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>9997848</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>2661</v>
       </c>
       <c r="I137" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2742</v>
       </c>
       <c r="J137" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1290</v>
       </c>
       <c r="K137" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>44150</v>
       </c>
       <c r="L137" s="8"/>
       <c r="M137" s="8"/>
       <c r="N137" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>888</v>
       </c>
       <c r="O137" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>2742</v>
       </c>
       <c r="P137" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1290</v>
       </c>
     </row>
@@ -43994,49 +44078,49 @@
         <v>1.55</v>
       </c>
       <c r="D138" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>9997733</v>
       </c>
       <c r="E138" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>929</v>
       </c>
       <c r="F138" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1338</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>9997733</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>2993</v>
       </c>
       <c r="I138" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3084</v>
       </c>
       <c r="J138" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1427</v>
       </c>
       <c r="K138" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>44151</v>
       </c>
       <c r="L138" s="8"/>
       <c r="M138" s="8"/>
       <c r="N138" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>929</v>
       </c>
       <c r="O138" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>3084</v>
       </c>
       <c r="P138" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1427</v>
       </c>
     </row>
@@ -44051,49 +44135,49 @@
         <v>1.55</v>
       </c>
       <c r="D139" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>9997613</v>
       </c>
       <c r="E139" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>972</v>
       </c>
       <c r="F139" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1415</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>9997613</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>3367</v>
       </c>
       <c r="I139" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3469</v>
       </c>
       <c r="J139" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1581</v>
       </c>
       <c r="K139" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>44152</v>
       </c>
       <c r="L139" s="8"/>
       <c r="M139" s="8"/>
       <c r="N139" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>972</v>
       </c>
       <c r="O139" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>3469</v>
       </c>
       <c r="P139" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1581</v>
       </c>
     </row>
@@ -44108,8 +44192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C18E4-1873-48DD-B7B4-EAEB82B5E392}">
   <dimension ref="A1:S139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N130" sqref="N130:N132"/>
+    <sheetView tabSelected="1" topLeftCell="AB28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P134" sqref="P134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51740,11 +51824,20 @@
         <f t="shared" si="9"/>
         <v>44146</v>
       </c>
-      <c r="M133" s="8"/>
-      <c r="N133" s="8"/>
-      <c r="O133" s="8"/>
+      <c r="M133" s="8">
+        <f t="shared" ref="M133" si="29">E133</f>
+        <v>640</v>
+      </c>
+      <c r="N133" s="8">
+        <f>RealData!B130</f>
+        <v>764</v>
+      </c>
+      <c r="O133" s="8">
+        <f>RealData!C130</f>
+        <v>642</v>
+      </c>
       <c r="P133" s="8">
-        <f t="shared" si="24"/>
+        <f>K133</f>
         <v>772</v>
       </c>
       <c r="Q133" s="8">
@@ -51869,7 +51962,7 @@
         <v>869</v>
       </c>
       <c r="L135" s="7">
-        <f t="shared" ref="L135:L139" si="29">A135</f>
+        <f t="shared" ref="L135:L139" si="30">A135</f>
         <v>44148</v>
       </c>
       <c r="M135" s="8"/>
@@ -51884,11 +51977,11 @@
         <v>720</v>
       </c>
       <c r="R135" s="8">
-        <f t="shared" ref="R135:S139" si="30">I135</f>
+        <f t="shared" ref="R135:S139" si="31">I135</f>
         <v>2167</v>
       </c>
       <c r="S135" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1040</v>
       </c>
     </row>
@@ -51903,19 +51996,19 @@
         <v>1.73</v>
       </c>
       <c r="D136" s="8">
-        <f t="shared" ref="D136:D139" si="31">D135-ROUND((C136/$D$2)*D135*(E135/$D$3),0)</f>
+        <f t="shared" ref="D136:D139" si="32">D135-ROUND((C136/$D$2)*D135*(E135/$D$3),0)</f>
         <v>9998244</v>
       </c>
       <c r="E136" s="8">
-        <f t="shared" ref="E136:E139" si="32">E135+ROUND((C136/$D$2)*D135*(E135/$D$3),0)-ROUND(E135/$D$2,0)</f>
+        <f t="shared" ref="E136:E139" si="33">E135+ROUND((C136/$D$2)*D135*(E135/$D$3),0)-ROUND(E135/$D$2,0)</f>
         <v>764</v>
       </c>
       <c r="F136" s="8">
-        <f t="shared" ref="F136:F139" si="33">F135+ROUND(E135/$D$2,0)</f>
+        <f t="shared" ref="F136:F139" si="34">F135+ROUND(E135/$D$2,0)</f>
         <v>994</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" ref="G136:G139" si="34">D136</f>
+        <f t="shared" ref="G136:G139" si="35">D136</f>
         <v>9998244</v>
       </c>
       <c r="H136" s="2">
@@ -51935,7 +52028,7 @@
         <v>922</v>
       </c>
       <c r="L136" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44149</v>
       </c>
       <c r="M136" s="8"/>
@@ -51950,11 +52043,11 @@
         <v>764</v>
       </c>
       <c r="R136" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2437</v>
       </c>
       <c r="S136" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1148</v>
       </c>
     </row>
@@ -51969,19 +52062,19 @@
         <v>1.73</v>
       </c>
       <c r="D137" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9998134</v>
       </c>
       <c r="E137" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>810</v>
       </c>
       <c r="F137" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1058</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>9998134</v>
       </c>
       <c r="H137" s="2">
@@ -52001,7 +52094,7 @@
         <v>978</v>
       </c>
       <c r="L137" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44150</v>
       </c>
       <c r="M137" s="8"/>
@@ -52016,11 +52109,11 @@
         <v>810</v>
       </c>
       <c r="R137" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2742</v>
       </c>
       <c r="S137" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1270</v>
       </c>
     </row>
@@ -52035,19 +52128,19 @@
         <v>1.73</v>
       </c>
       <c r="D138" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9998017</v>
       </c>
       <c r="E138" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>859</v>
       </c>
       <c r="F138" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1126</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>9998017</v>
       </c>
       <c r="H138" s="2">
@@ -52067,7 +52160,7 @@
         <v>1037</v>
       </c>
       <c r="L138" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44151</v>
       </c>
       <c r="M138" s="8"/>
@@ -52082,11 +52175,11 @@
         <v>859</v>
       </c>
       <c r="R138" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3084</v>
       </c>
       <c r="S138" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1407</v>
       </c>
     </row>
@@ -52101,19 +52194,19 @@
         <v>1.73</v>
       </c>
       <c r="D139" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9997893</v>
       </c>
       <c r="E139" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>911</v>
       </c>
       <c r="F139" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1198</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>9997893</v>
       </c>
       <c r="H139" s="2">
@@ -52133,7 +52226,7 @@
         <v>1100</v>
       </c>
       <c r="L139" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44152</v>
       </c>
       <c r="M139" s="8"/>
@@ -52148,11 +52241,11 @@
         <v>911</v>
       </c>
       <c r="R139" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3469</v>
       </c>
       <c r="S139" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1561</v>
       </c>
     </row>

--- a/COVID_EXCEL/COVID Lombardia.xlsx
+++ b/COVID_EXCEL/COVID Lombardia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1E51D4-2170-4224-AE99-EB719C906DBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B58A9DF-91A7-4A10-AA8F-151699C5ECA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23505" yWindow="1050" windowWidth="15720" windowHeight="11460" activeTab="2" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -283,10 +283,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$80:$K$134</c:f>
+              <c:f>Model!$K$80:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>44093.708333333336</c:v>
                 </c:pt>
@@ -451,16 +451,31 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$80:$L$134</c:f>
+              <c:f>Model!$L$80:$L$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
@@ -622,6 +637,18 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -672,10 +699,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$80:$K$134</c:f>
+              <c:f>Model!$K$80:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>44093.708333333336</c:v>
                 </c:pt>
@@ -840,16 +867,31 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$80:$M$134</c:f>
+              <c:f>Model!$M$80:$M$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
@@ -1011,6 +1053,18 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1051,10 +1105,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$80:$K$134</c:f>
+              <c:f>Model!$K$80:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>44093.708333333336</c:v>
                 </c:pt>
@@ -1219,16 +1273,31 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$O$80:$O$134</c:f>
+              <c:f>Model!$O$80:$O$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
@@ -1393,6 +1462,21 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>1927</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2167</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2437</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2742</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3084</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,10 +1519,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$80:$K$134</c:f>
+              <c:f>Model!$K$80:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>44093.708333333336</c:v>
                 </c:pt>
@@ -1603,16 +1687,31 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$P$80:$P$134</c:f>
+              <c:f>Model!$P$80:$P$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>200</c:v>
                 </c:pt>
@@ -1777,6 +1876,21 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1168</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,10 +2217,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model2!$L$12:$L$135</c:f>
+              <c:f>Model2!$L$12:$L$146</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="124"/>
+                <c:ptCount val="135"/>
                 <c:pt idx="0">
                   <c:v>44025.708333333336</c:v>
                 </c:pt>
@@ -2478,16 +2592,49 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model2!$M$12:$M$135</c:f>
+              <c:f>Model2!$M$12:$M$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="124"/>
+                <c:ptCount val="135"/>
                 <c:pt idx="0">
                   <c:v>31</c:v>
                 </c:pt>
@@ -2853,6 +3000,18 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2902,10 +3061,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model2!$L$12:$L$135</c:f>
+              <c:f>Model2!$L$12:$L$146</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="124"/>
+                <c:ptCount val="135"/>
                 <c:pt idx="0">
                   <c:v>44025.708333333336</c:v>
                 </c:pt>
@@ -3277,16 +3436,49 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model2!$N$12:$N$135</c:f>
+              <c:f>Model2!$N$12:$N$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="124"/>
+                <c:ptCount val="135"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -3652,6 +3844,18 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3691,10 +3895,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model2!$L$12:$L$135</c:f>
+              <c:f>Model2!$L$12:$L$146</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="124"/>
+                <c:ptCount val="135"/>
                 <c:pt idx="0">
                   <c:v>44025.708333333336</c:v>
                 </c:pt>
@@ -4066,16 +4270,49 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model2!$O$12:$O$135</c:f>
+              <c:f>Model2!$O$12:$O$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="124"/>
+                <c:ptCount val="135"/>
                 <c:pt idx="0">
                   <c:v>31.142857142857142</c:v>
                 </c:pt>
@@ -4441,6 +4678,18 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>679.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>712.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>741.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>768.42857142857144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5181,10 +5430,10 @@
                     <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>686</c:v>
+                    <c:v>690</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>728</c:v>
+                    <c:v>711</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -6022,10 +6271,10 @@
                     <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>686</c:v>
+                    <c:v>690</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>728</c:v>
+                    <c:v>711</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -6862,10 +7111,10 @@
                     <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>686</c:v>
+                    <c:v>690</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>728</c:v>
+                    <c:v>711</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -7702,10 +7951,10 @@
                     <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>686</c:v>
+                    <c:v>690</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>728</c:v>
+                    <c:v>711</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -7736,10 +7985,10 @@
                   <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>686</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>728</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8185,10 +8434,10 @@
                     <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>686</c:v>
+                    <c:v>690</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>728</c:v>
+                    <c:v>711</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -8983,31 +9232,31 @@
                     <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>686</c:v>
+                    <c:v>690</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>728</c:v>
+                    <c:v>711</c:v>
                   </c:pt>
                   <c:pt idx="127">
-                    <c:v>772</c:v>
+                    <c:v>751</c:v>
                   </c:pt>
                   <c:pt idx="128">
-                    <c:v>819</c:v>
+                    <c:v>810</c:v>
                   </c:pt>
                   <c:pt idx="129">
-                    <c:v>869</c:v>
+                    <c:v>815</c:v>
                   </c:pt>
                   <c:pt idx="130">
-                    <c:v>922</c:v>
+                    <c:v>834</c:v>
                   </c:pt>
                   <c:pt idx="131">
-                    <c:v>978</c:v>
+                    <c:v>851</c:v>
                   </c:pt>
                   <c:pt idx="132">
-                    <c:v>1037</c:v>
+                    <c:v>872</c:v>
                   </c:pt>
                   <c:pt idx="133">
-                    <c:v>1100</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -9402,6 +9651,18 @@
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9869,31 +10130,31 @@
                     <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>686</c:v>
+                    <c:v>690</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>728</c:v>
+                    <c:v>711</c:v>
                   </c:pt>
                   <c:pt idx="127">
-                    <c:v>772</c:v>
+                    <c:v>751</c:v>
                   </c:pt>
                   <c:pt idx="128">
-                    <c:v>819</c:v>
+                    <c:v>810</c:v>
                   </c:pt>
                   <c:pt idx="129">
-                    <c:v>869</c:v>
+                    <c:v>815</c:v>
                   </c:pt>
                   <c:pt idx="130">
-                    <c:v>922</c:v>
+                    <c:v>834</c:v>
                   </c:pt>
                   <c:pt idx="131">
-                    <c:v>978</c:v>
+                    <c:v>851</c:v>
                   </c:pt>
                   <c:pt idx="132">
-                    <c:v>1037</c:v>
+                    <c:v>872</c:v>
                   </c:pt>
                   <c:pt idx="133">
-                    <c:v>1100</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -10288,6 +10549,18 @@
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10754,31 +11027,31 @@
                     <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>686</c:v>
+                    <c:v>690</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>728</c:v>
+                    <c:v>711</c:v>
                   </c:pt>
                   <c:pt idx="127">
-                    <c:v>772</c:v>
+                    <c:v>751</c:v>
                   </c:pt>
                   <c:pt idx="128">
-                    <c:v>819</c:v>
+                    <c:v>810</c:v>
                   </c:pt>
                   <c:pt idx="129">
-                    <c:v>869</c:v>
+                    <c:v>815</c:v>
                   </c:pt>
                   <c:pt idx="130">
-                    <c:v>922</c:v>
+                    <c:v>834</c:v>
                   </c:pt>
                   <c:pt idx="131">
-                    <c:v>978</c:v>
+                    <c:v>851</c:v>
                   </c:pt>
                   <c:pt idx="132">
-                    <c:v>1037</c:v>
+                    <c:v>872</c:v>
                   </c:pt>
                   <c:pt idx="133">
-                    <c:v>1100</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -11173,6 +11446,18 @@
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>679.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>712.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>741.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>768.42857142857144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11639,31 +11924,31 @@
                     <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>686</c:v>
+                    <c:v>690</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>728</c:v>
+                    <c:v>711</c:v>
                   </c:pt>
                   <c:pt idx="127">
-                    <c:v>772</c:v>
+                    <c:v>751</c:v>
                   </c:pt>
                   <c:pt idx="128">
-                    <c:v>819</c:v>
+                    <c:v>810</c:v>
                   </c:pt>
                   <c:pt idx="129">
-                    <c:v>869</c:v>
+                    <c:v>815</c:v>
                   </c:pt>
                   <c:pt idx="130">
-                    <c:v>922</c:v>
+                    <c:v>834</c:v>
                   </c:pt>
                   <c:pt idx="131">
-                    <c:v>978</c:v>
+                    <c:v>851</c:v>
                   </c:pt>
                   <c:pt idx="132">
-                    <c:v>1037</c:v>
+                    <c:v>872</c:v>
                   </c:pt>
                   <c:pt idx="133">
-                    <c:v>1100</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -11694,31 +11979,31 @@
                   <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>686</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>728</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>772</c:v>
+                  <c:v>751</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>819</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>869</c:v>
+                  <c:v>815</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>922</c:v>
+                  <c:v>834</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>978</c:v>
+                  <c:v>851</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1037</c:v>
+                  <c:v>872</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1100</c:v>
+                  <c:v>908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12185,31 +12470,31 @@
                     <c:v>647</c:v>
                   </c:pt>
                   <c:pt idx="125">
-                    <c:v>686</c:v>
+                    <c:v>690</c:v>
                   </c:pt>
                   <c:pt idx="126">
-                    <c:v>728</c:v>
+                    <c:v>711</c:v>
                   </c:pt>
                   <c:pt idx="127">
-                    <c:v>772</c:v>
+                    <c:v>751</c:v>
                   </c:pt>
                   <c:pt idx="128">
-                    <c:v>819</c:v>
+                    <c:v>810</c:v>
                   </c:pt>
                   <c:pt idx="129">
-                    <c:v>869</c:v>
+                    <c:v>815</c:v>
                   </c:pt>
                   <c:pt idx="130">
-                    <c:v>922</c:v>
+                    <c:v>834</c:v>
                   </c:pt>
                   <c:pt idx="131">
-                    <c:v>978</c:v>
+                    <c:v>851</c:v>
                   </c:pt>
                   <c:pt idx="132">
-                    <c:v>1037</c:v>
+                    <c:v>872</c:v>
                   </c:pt>
                   <c:pt idx="133">
-                    <c:v>1100</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -12252,19 +12537,19 @@
                   <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>720</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>764</c:v>
+                  <c:v>736</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>810</c:v>
+                  <c:v>767</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>859</c:v>
+                  <c:v>799</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>911</c:v>
+                  <c:v>832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12795,6 +13080,9 @@
                 <c:pt idx="31">
                   <c:v>743</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>777</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13051,6 +13339,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13879,10 +14170,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$135</c:f>
+              <c:f>Model!$K$6:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -14272,16 +14563,28 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$6:$L$135</c:f>
+              <c:f>Model!$L$6:$L$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
@@ -14665,6 +14968,18 @@
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14714,10 +15029,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$135</c:f>
+              <c:f>Model!$K$6:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -15107,16 +15422,28 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$6:$M$135</c:f>
+              <c:f>Model!$M$6:$M$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
@@ -15500,6 +15827,18 @@
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17621,6 +17960,18 @@
                 <c:pt idx="63">
                   <c:v>743</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>842</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18064,6 +18415,18 @@
                 <c:pt idx="63">
                   <c:v>764</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>837</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18346,19 +18709,19 @@
                   <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>812</c:v>
+                  <c:v>798</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>849</c:v>
+                  <c:v>819</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>888</c:v>
+                  <c:v>842</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>929</c:v>
+                  <c:v>865</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>972</c:v>
+                  <c:v>889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18681,10 +19044,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$102:$K$134</c:f>
+              <c:f>Model!$K$102:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44115.708333333336</c:v>
                 </c:pt>
@@ -18783,16 +19146,31 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$102:$L$134</c:f>
+              <c:f>Model!$L$102:$L$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>53</c:v>
                 </c:pt>
@@ -18888,6 +19266,18 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18938,10 +19328,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$102:$K$134</c:f>
+              <c:f>Model!$K$102:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44115.708333333336</c:v>
                 </c:pt>
@@ -19040,16 +19430,31 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$102:$M$134</c:f>
+              <c:f>Model!$M$102:$M$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>48</c:v>
                 </c:pt>
@@ -19145,6 +19550,18 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19185,10 +19602,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$102:$K$134</c:f>
+              <c:f>Model!$K$102:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44115.708333333336</c:v>
                 </c:pt>
@@ -19287,16 +19704,31 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$O$102:$O$134</c:f>
+              <c:f>Model!$O$102:$O$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45</c:v>
                 </c:pt>
@@ -19395,6 +19827,21 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1927</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2167</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2437</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2742</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3084</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19437,10 +19884,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$102:$K$134</c:f>
+              <c:f>Model!$K$102:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44115.708333333336</c:v>
                 </c:pt>
@@ -19539,16 +19986,31 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$P$102:$P$134</c:f>
+              <c:f>Model!$P$102:$P$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>214</c:v>
                 </c:pt>
@@ -19647,6 +20109,21 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1168</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20375,6 +20852,9 @@
                 <c:pt idx="63">
                   <c:v>640</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>679</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20816,6 +21296,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22326,6 +22809,12 @@
                 <c:pt idx="121">
                   <c:v>640</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>707</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -23103,6 +23592,12 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25938,6 +26433,9 @@
                 <c:pt idx="53">
                   <c:v>743</c:v>
                 </c:pt>
+                <c:pt idx="54">
+                  <c:v>777</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -26326,6 +26824,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35338,10 +35839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129:C130"/>
+      <selection activeCell="C130" sqref="C130:C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36824,7 +37325,7 @@
         <v>610</v>
       </c>
       <c r="C126">
-        <f t="shared" ref="C126:C130" si="2">AVERAGE(B120:B126)</f>
+        <f t="shared" ref="C126:C134" si="2">AVERAGE(B120:B126)</f>
         <v>505.28571428571428</v>
       </c>
     </row>
@@ -36874,6 +37375,54 @@
       <c r="C130">
         <f t="shared" si="2"/>
         <v>642</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B131">
+        <v>782</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="2"/>
+        <v>679.14285714285711</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B132">
+        <v>801</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="2"/>
+        <v>712.14285714285711</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B133">
+        <v>817</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="2"/>
+        <v>741.71428571428567</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B134">
+        <v>837</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="2"/>
+        <v>768.42857142857144</v>
       </c>
     </row>
   </sheetData>
@@ -36886,8 +37435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="L133" sqref="L133"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135:C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43881,8 +44430,14 @@
         <f t="shared" si="14"/>
         <v>44147</v>
       </c>
-      <c r="L134" s="8"/>
-      <c r="M134" s="8"/>
+      <c r="L134" s="8">
+        <f t="shared" ref="L134:L137" si="54">E134</f>
+        <v>777</v>
+      </c>
+      <c r="M134" s="8">
+        <f>RealData!B131</f>
+        <v>782</v>
+      </c>
       <c r="N134" s="8">
         <f t="shared" si="41"/>
         <v>777</v>
@@ -43904,52 +44459,58 @@
         <v>130</v>
       </c>
       <c r="C135" s="8">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="D135" s="8">
-        <f t="shared" ref="D135:D139" si="54">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
-        <v>9998063</v>
+        <f t="shared" ref="D135:D139" si="55">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
+        <v>9998077</v>
       </c>
       <c r="E135" s="8">
-        <f t="shared" ref="E135:E139" si="55">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
-        <v>812</v>
+        <f t="shared" ref="E135:E139" si="56">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
+        <v>798</v>
       </c>
       <c r="F135" s="8">
-        <f t="shared" ref="F135:F139" si="56">F134+ROUND(E134/$D$2,0)</f>
+        <f t="shared" ref="F135:F139" si="57">F134+ROUND(E134/$D$2,0)</f>
         <v>1125</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" ref="G135:G139" si="57">D135</f>
-        <v>9998063</v>
+        <f t="shared" ref="G135:G139" si="58">D135</f>
+        <v>9998077</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" ref="H135:H139" si="58">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
+        <f t="shared" ref="H135:H139" si="59">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
         <v>2102</v>
       </c>
       <c r="I135" s="5">
-        <f t="shared" ref="I135:I139" si="59">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="I135:I139" si="60">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>2167</v>
       </c>
       <c r="J135" s="6">
-        <f t="shared" ref="J135:J139" si="60">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="J135:J139" si="61">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>1060</v>
       </c>
       <c r="K135" s="7">
-        <f t="shared" ref="K135:K139" si="61">A135</f>
+        <f t="shared" ref="K135:K139" si="62">A135</f>
         <v>44148</v>
       </c>
-      <c r="L135" s="8"/>
-      <c r="M135" s="8"/>
+      <c r="L135" s="8">
+        <f t="shared" si="54"/>
+        <v>798</v>
+      </c>
+      <c r="M135" s="8">
+        <f>RealData!B132</f>
+        <v>801</v>
+      </c>
       <c r="N135" s="8">
-        <f t="shared" ref="N135:N139" si="62">E135</f>
-        <v>812</v>
+        <f t="shared" ref="N135:N139" si="63">E135</f>
+        <v>798</v>
       </c>
       <c r="O135" s="8">
-        <f t="shared" ref="O135:O139" si="63">I135</f>
+        <f t="shared" ref="O135:O139" si="64">I135</f>
         <v>2167</v>
       </c>
       <c r="P135" s="8">
-        <f t="shared" ref="P135:P139" si="64">J135</f>
+        <f t="shared" ref="P135:P139" si="65">J135</f>
         <v>1060</v>
       </c>
     </row>
@@ -43961,52 +44522,58 @@
         <v>131</v>
       </c>
       <c r="C136" s="8">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="D136" s="8">
+        <f t="shared" si="55"/>
+        <v>9997989</v>
+      </c>
+      <c r="E136" s="8">
+        <f t="shared" si="56"/>
+        <v>819</v>
+      </c>
+      <c r="F136" s="8">
+        <f t="shared" si="57"/>
+        <v>1192</v>
+      </c>
+      <c r="G136" s="2">
+        <f t="shared" si="58"/>
+        <v>9997989</v>
+      </c>
+      <c r="H136" s="2">
+        <f t="shared" si="59"/>
+        <v>2365</v>
+      </c>
+      <c r="I136" s="5">
+        <f t="shared" si="60"/>
+        <v>2437</v>
+      </c>
+      <c r="J136" s="6">
+        <f t="shared" si="61"/>
+        <v>1168</v>
+      </c>
+      <c r="K136" s="7">
+        <f t="shared" si="62"/>
+        <v>44149</v>
+      </c>
+      <c r="L136" s="8">
         <f t="shared" si="54"/>
-        <v>9997958</v>
-      </c>
-      <c r="E136" s="8">
-        <f t="shared" si="55"/>
-        <v>849</v>
-      </c>
-      <c r="F136" s="8">
-        <f t="shared" si="56"/>
-        <v>1193</v>
-      </c>
-      <c r="G136" s="2">
-        <f t="shared" si="57"/>
-        <v>9997958</v>
-      </c>
-      <c r="H136" s="2">
-        <f t="shared" si="58"/>
-        <v>2365</v>
-      </c>
-      <c r="I136" s="5">
-        <f t="shared" si="59"/>
+        <v>819</v>
+      </c>
+      <c r="M136" s="8">
+        <f>RealData!B133</f>
+        <v>817</v>
+      </c>
+      <c r="N136" s="8">
+        <f t="shared" si="63"/>
+        <v>819</v>
+      </c>
+      <c r="O136" s="8">
+        <f t="shared" si="64"/>
         <v>2437</v>
       </c>
-      <c r="J136" s="6">
-        <f t="shared" si="60"/>
-        <v>1168</v>
-      </c>
-      <c r="K136" s="7">
-        <f t="shared" si="61"/>
-        <v>44149</v>
-      </c>
-      <c r="L136" s="8"/>
-      <c r="M136" s="8"/>
-      <c r="N136" s="8">
-        <f t="shared" si="62"/>
-        <v>849</v>
-      </c>
-      <c r="O136" s="8">
-        <f t="shared" si="63"/>
-        <v>2437</v>
-      </c>
       <c r="P136" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1168</v>
       </c>
     </row>
@@ -44018,52 +44585,58 @@
         <v>132</v>
       </c>
       <c r="C137" s="8">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="D137" s="8">
+        <f t="shared" si="55"/>
+        <v>9997898</v>
+      </c>
+      <c r="E137" s="8">
+        <f t="shared" si="56"/>
+        <v>842</v>
+      </c>
+      <c r="F137" s="8">
+        <f t="shared" si="57"/>
+        <v>1260</v>
+      </c>
+      <c r="G137" s="2">
+        <f t="shared" si="58"/>
+        <v>9997898</v>
+      </c>
+      <c r="H137" s="2">
+        <f t="shared" si="59"/>
+        <v>2661</v>
+      </c>
+      <c r="I137" s="5">
+        <f t="shared" si="60"/>
+        <v>2742</v>
+      </c>
+      <c r="J137" s="6">
+        <f t="shared" si="61"/>
+        <v>1290</v>
+      </c>
+      <c r="K137" s="7">
+        <f t="shared" si="62"/>
+        <v>44150</v>
+      </c>
+      <c r="L137" s="8">
         <f t="shared" si="54"/>
-        <v>9997848</v>
-      </c>
-      <c r="E137" s="8">
-        <f t="shared" si="55"/>
-        <v>888</v>
-      </c>
-      <c r="F137" s="8">
-        <f t="shared" si="56"/>
-        <v>1264</v>
-      </c>
-      <c r="G137" s="2">
-        <f t="shared" si="57"/>
-        <v>9997848</v>
-      </c>
-      <c r="H137" s="2">
-        <f t="shared" si="58"/>
-        <v>2661</v>
-      </c>
-      <c r="I137" s="5">
-        <f t="shared" si="59"/>
+        <v>842</v>
+      </c>
+      <c r="M137" s="8">
+        <f>RealData!B134</f>
+        <v>837</v>
+      </c>
+      <c r="N137" s="8">
+        <f t="shared" si="63"/>
+        <v>842</v>
+      </c>
+      <c r="O137" s="8">
+        <f t="shared" si="64"/>
         <v>2742</v>
       </c>
-      <c r="J137" s="6">
-        <f t="shared" si="60"/>
-        <v>1290</v>
-      </c>
-      <c r="K137" s="7">
-        <f t="shared" si="61"/>
-        <v>44150</v>
-      </c>
-      <c r="L137" s="8"/>
-      <c r="M137" s="8"/>
-      <c r="N137" s="8">
-        <f t="shared" si="62"/>
-        <v>888</v>
-      </c>
-      <c r="O137" s="8">
-        <f t="shared" si="63"/>
-        <v>2742</v>
-      </c>
       <c r="P137" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1290</v>
       </c>
     </row>
@@ -44075,52 +44648,52 @@
         <v>133</v>
       </c>
       <c r="C138" s="8">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="D138" s="8">
-        <f t="shared" si="54"/>
-        <v>9997733</v>
+        <f t="shared" si="55"/>
+        <v>9997805</v>
       </c>
       <c r="E138" s="8">
-        <f t="shared" si="55"/>
-        <v>929</v>
+        <f t="shared" si="56"/>
+        <v>865</v>
       </c>
       <c r="F138" s="8">
-        <f t="shared" si="56"/>
-        <v>1338</v>
+        <f t="shared" si="57"/>
+        <v>1330</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="57"/>
-        <v>9997733</v>
+        <f t="shared" si="58"/>
+        <v>9997805</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2993</v>
       </c>
       <c r="I138" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>3084</v>
       </c>
       <c r="J138" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1427</v>
       </c>
       <c r="K138" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>44151</v>
       </c>
       <c r="L138" s="8"/>
       <c r="M138" s="8"/>
       <c r="N138" s="8">
-        <f t="shared" si="62"/>
-        <v>929</v>
+        <f t="shared" si="63"/>
+        <v>865</v>
       </c>
       <c r="O138" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3084</v>
       </c>
       <c r="P138" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1427</v>
       </c>
     </row>
@@ -44132,52 +44705,52 @@
         <v>134</v>
       </c>
       <c r="C139" s="8">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="D139" s="8">
-        <f t="shared" si="54"/>
-        <v>9997613</v>
+        <f t="shared" si="55"/>
+        <v>9997709</v>
       </c>
       <c r="E139" s="8">
-        <f t="shared" si="55"/>
-        <v>972</v>
+        <f t="shared" si="56"/>
+        <v>889</v>
       </c>
       <c r="F139" s="8">
-        <f t="shared" si="56"/>
-        <v>1415</v>
+        <f t="shared" si="57"/>
+        <v>1402</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="57"/>
-        <v>9997613</v>
+        <f t="shared" si="58"/>
+        <v>9997709</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3367</v>
       </c>
       <c r="I139" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>3469</v>
       </c>
       <c r="J139" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1581</v>
       </c>
       <c r="K139" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>44152</v>
       </c>
       <c r="L139" s="8"/>
       <c r="M139" s="8"/>
       <c r="N139" s="8">
-        <f t="shared" si="62"/>
-        <v>972</v>
+        <f t="shared" si="63"/>
+        <v>889</v>
       </c>
       <c r="O139" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3469</v>
       </c>
       <c r="P139" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1581</v>
       </c>
     </row>
@@ -44190,10 +44763,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C18E4-1873-48DD-B7B4-EAEB82B5E392}">
-  <dimension ref="A1:S139"/>
+  <dimension ref="A1:S146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P134" sqref="P134"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51592,7 +52165,7 @@
         <v>655</v>
       </c>
       <c r="K130" s="6">
-        <f t="shared" si="23"/>
+        <f>N129+ROUND((C130/$D$2)*D129*(N129/$D$3),0)-ROUND(N129/$D$2,0)</f>
         <v>647</v>
       </c>
       <c r="L130" s="3">
@@ -51667,15 +52240,15 @@
         <v>715</v>
       </c>
       <c r="K131" s="6">
-        <f>K130+ROUND((C131/$D$2)*D130*(K130/$D$3),0)-ROUND(K130/$D$2,0)</f>
-        <v>686</v>
+        <f t="shared" ref="K131:K139" si="27">N130+ROUND((C131/$D$2)*D130*(N130/$D$3),0)-ROUND(N130/$D$2,0)</f>
+        <v>690</v>
       </c>
       <c r="L131" s="3">
         <f t="shared" si="9"/>
         <v>44144</v>
       </c>
       <c r="M131" s="4">
-        <f t="shared" ref="M131:M132" si="27">E131</f>
+        <f t="shared" ref="M131:M132" si="28">E131</f>
         <v>568</v>
       </c>
       <c r="N131" s="4">
@@ -51688,7 +52261,7 @@
       </c>
       <c r="P131" s="4">
         <f t="shared" si="24"/>
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="Q131" s="4">
         <f t="shared" si="22"/>
@@ -51742,15 +52315,15 @@
         <v>783</v>
       </c>
       <c r="K132" s="6">
-        <f t="shared" ref="K132:K139" si="28">K131+ROUND((C132/$D$2)*D131*(K131/$D$3),0)-ROUND(K131/$D$2,0)</f>
-        <v>728</v>
+        <f t="shared" si="27"/>
+        <v>711</v>
       </c>
       <c r="L132" s="3">
         <f t="shared" si="9"/>
         <v>44145</v>
       </c>
       <c r="M132" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>603</v>
       </c>
       <c r="N132" s="4">
@@ -51763,7 +52336,7 @@
       </c>
       <c r="P132" s="4">
         <f t="shared" si="24"/>
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="Q132" s="4">
         <f t="shared" si="22"/>
@@ -51817,8 +52390,8 @@
         <v>859</v>
       </c>
       <c r="K133" s="6">
-        <f t="shared" si="28"/>
-        <v>772</v>
+        <f t="shared" si="27"/>
+        <v>751</v>
       </c>
       <c r="L133" s="7">
         <f t="shared" si="9"/>
@@ -51838,7 +52411,7 @@
       </c>
       <c r="P133" s="8">
         <f>K133</f>
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="Q133" s="8">
         <f t="shared" si="22"/>
@@ -51892,19 +52465,28 @@
         <v>944</v>
       </c>
       <c r="K134" s="6">
-        <f t="shared" si="28"/>
-        <v>819</v>
+        <f>N133+ROUND((C134/$D$2)*D133*(N133/$D$3),0)-ROUND(N133/$D$2,0)</f>
+        <v>810</v>
       </c>
       <c r="L134" s="7">
         <f t="shared" si="9"/>
         <v>44147</v>
       </c>
-      <c r="M134" s="8"/>
-      <c r="N134" s="8"/>
-      <c r="O134" s="8"/>
+      <c r="M134" s="8">
+        <f t="shared" ref="M134:M137" si="30">E134</f>
+        <v>679</v>
+      </c>
+      <c r="N134" s="8">
+        <f>RealData!B131</f>
+        <v>782</v>
+      </c>
+      <c r="O134" s="8">
+        <f>RealData!C131</f>
+        <v>679.14285714285711</v>
+      </c>
       <c r="P134" s="8">
         <f t="shared" si="24"/>
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="Q134" s="8">
         <f t="shared" si="22"/>
@@ -51927,15 +52509,15 @@
         <v>130</v>
       </c>
       <c r="C135" s="8">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="D135" s="8">
         <f t="shared" si="11"/>
-        <v>9998348</v>
+        <v>9998361</v>
       </c>
       <c r="E135" s="8">
         <f t="shared" si="12"/>
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="F135" s="8">
         <f t="shared" si="13"/>
@@ -51943,7 +52525,7 @@
       </c>
       <c r="G135" s="2">
         <f t="shared" si="14"/>
-        <v>9998348</v>
+        <v>9998361</v>
       </c>
       <c r="H135" s="2">
         <f t="shared" si="16"/>
@@ -51958,30 +52540,39 @@
         <v>1040</v>
       </c>
       <c r="K135" s="6">
-        <f t="shared" si="28"/>
-        <v>869</v>
+        <f t="shared" si="27"/>
+        <v>815</v>
       </c>
       <c r="L135" s="7">
-        <f t="shared" ref="L135:L139" si="30">A135</f>
+        <f t="shared" ref="L135:L139" si="31">A135</f>
         <v>44148</v>
       </c>
-      <c r="M135" s="8"/>
-      <c r="N135" s="8"/>
-      <c r="O135" s="8"/>
+      <c r="M135" s="8">
+        <f t="shared" si="30"/>
+        <v>707</v>
+      </c>
+      <c r="N135" s="8">
+        <f>RealData!B132</f>
+        <v>801</v>
+      </c>
+      <c r="O135" s="8">
+        <f>RealData!C132</f>
+        <v>712.14285714285711</v>
+      </c>
       <c r="P135" s="8">
         <f t="shared" si="24"/>
-        <v>869</v>
+        <v>815</v>
       </c>
       <c r="Q135" s="8">
         <f t="shared" si="22"/>
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="R135" s="8">
-        <f t="shared" ref="R135:S139" si="31">I135</f>
+        <f t="shared" ref="R135:S139" si="32">I135</f>
         <v>2167</v>
       </c>
       <c r="S135" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1040</v>
       </c>
     </row>
@@ -51993,23 +52584,23 @@
         <v>131</v>
       </c>
       <c r="C136" s="8">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="D136" s="8">
-        <f t="shared" ref="D136:D139" si="32">D135-ROUND((C136/$D$2)*D135*(E135/$D$3),0)</f>
-        <v>9998244</v>
+        <f t="shared" ref="D136:D139" si="33">D135-ROUND((C136/$D$2)*D135*(E135/$D$3),0)</f>
+        <v>9998273</v>
       </c>
       <c r="E136" s="8">
-        <f t="shared" ref="E136:E139" si="33">E135+ROUND((C136/$D$2)*D135*(E135/$D$3),0)-ROUND(E135/$D$2,0)</f>
-        <v>764</v>
+        <f t="shared" ref="E136:E139" si="34">E135+ROUND((C136/$D$2)*D135*(E135/$D$3),0)-ROUND(E135/$D$2,0)</f>
+        <v>736</v>
       </c>
       <c r="F136" s="8">
-        <f t="shared" ref="F136:F139" si="34">F135+ROUND(E135/$D$2,0)</f>
-        <v>994</v>
+        <f t="shared" ref="F136:F139" si="35">F135+ROUND(E135/$D$2,0)</f>
+        <v>993</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" ref="G136:G139" si="35">D136</f>
-        <v>9998244</v>
+        <f t="shared" ref="G136:G139" si="36">D136</f>
+        <v>9998273</v>
       </c>
       <c r="H136" s="2">
         <f t="shared" si="16"/>
@@ -52024,30 +52615,39 @@
         <v>1148</v>
       </c>
       <c r="K136" s="6">
-        <f t="shared" si="28"/>
-        <v>922</v>
+        <f t="shared" si="27"/>
+        <v>834</v>
       </c>
       <c r="L136" s="7">
+        <f t="shared" si="31"/>
+        <v>44149</v>
+      </c>
+      <c r="M136" s="8">
         <f t="shared" si="30"/>
-        <v>44149</v>
-      </c>
-      <c r="M136" s="8"/>
-      <c r="N136" s="8"/>
-      <c r="O136" s="8"/>
+        <v>736</v>
+      </c>
+      <c r="N136" s="8">
+        <f>RealData!B133</f>
+        <v>817</v>
+      </c>
+      <c r="O136" s="8">
+        <f>RealData!C133</f>
+        <v>741.71428571428567</v>
+      </c>
       <c r="P136" s="8">
         <f t="shared" si="24"/>
-        <v>922</v>
+        <v>834</v>
       </c>
       <c r="Q136" s="8">
         <f t="shared" si="22"/>
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="R136" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2437</v>
       </c>
       <c r="S136" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1148</v>
       </c>
     </row>
@@ -52059,23 +52659,23 @@
         <v>132</v>
       </c>
       <c r="C137" s="8">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="D137" s="8">
-        <f t="shared" si="32"/>
-        <v>9998134</v>
+        <f t="shared" si="33"/>
+        <v>9998181</v>
       </c>
       <c r="E137" s="8">
-        <f t="shared" si="33"/>
-        <v>810</v>
+        <f t="shared" si="34"/>
+        <v>767</v>
       </c>
       <c r="F137" s="8">
-        <f t="shared" si="34"/>
-        <v>1058</v>
+        <f t="shared" si="35"/>
+        <v>1054</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="35"/>
-        <v>9998134</v>
+        <f t="shared" si="36"/>
+        <v>9998181</v>
       </c>
       <c r="H137" s="2">
         <f t="shared" si="16"/>
@@ -52090,30 +52690,39 @@
         <v>1270</v>
       </c>
       <c r="K137" s="6">
-        <f t="shared" si="28"/>
-        <v>978</v>
+        <f t="shared" si="27"/>
+        <v>851</v>
       </c>
       <c r="L137" s="7">
+        <f t="shared" si="31"/>
+        <v>44150</v>
+      </c>
+      <c r="M137" s="8">
         <f t="shared" si="30"/>
-        <v>44150</v>
-      </c>
-      <c r="M137" s="8"/>
-      <c r="N137" s="8"/>
-      <c r="O137" s="8"/>
+        <v>767</v>
+      </c>
+      <c r="N137" s="8">
+        <f>RealData!B134</f>
+        <v>837</v>
+      </c>
+      <c r="O137" s="8">
+        <f>RealData!C134</f>
+        <v>768.42857142857144</v>
+      </c>
       <c r="P137" s="8">
         <f t="shared" si="24"/>
-        <v>978</v>
+        <v>851</v>
       </c>
       <c r="Q137" s="8">
         <f t="shared" si="22"/>
-        <v>810</v>
+        <v>767</v>
       </c>
       <c r="R137" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2742</v>
       </c>
       <c r="S137" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1270</v>
       </c>
     </row>
@@ -52125,23 +52734,23 @@
         <v>133</v>
       </c>
       <c r="C138" s="8">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="D138" s="8">
-        <f t="shared" si="32"/>
-        <v>9998017</v>
+        <f t="shared" si="33"/>
+        <v>9998085</v>
       </c>
       <c r="E138" s="8">
-        <f t="shared" si="33"/>
-        <v>859</v>
+        <f t="shared" si="34"/>
+        <v>799</v>
       </c>
       <c r="F138" s="8">
-        <f t="shared" si="34"/>
-        <v>1126</v>
+        <f t="shared" si="35"/>
+        <v>1118</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="35"/>
-        <v>9998017</v>
+        <f t="shared" si="36"/>
+        <v>9998085</v>
       </c>
       <c r="H138" s="2">
         <f t="shared" si="16"/>
@@ -52156,11 +52765,11 @@
         <v>1407</v>
       </c>
       <c r="K138" s="6">
-        <f t="shared" si="28"/>
-        <v>1037</v>
+        <f>N137+ROUND((C138/$D$2)*D137*(N137/$D$3),0)-ROUND(N137/$D$2,0)</f>
+        <v>872</v>
       </c>
       <c r="L138" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>44151</v>
       </c>
       <c r="M138" s="8"/>
@@ -52168,18 +52777,18 @@
       <c r="O138" s="8"/>
       <c r="P138" s="8">
         <f t="shared" si="24"/>
-        <v>1037</v>
+        <v>872</v>
       </c>
       <c r="Q138" s="8">
         <f t="shared" si="22"/>
-        <v>859</v>
+        <v>799</v>
       </c>
       <c r="R138" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3084</v>
       </c>
       <c r="S138" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1407</v>
       </c>
     </row>
@@ -52191,23 +52800,23 @@
         <v>134</v>
       </c>
       <c r="C139" s="8">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="D139" s="8">
-        <f t="shared" si="32"/>
-        <v>9997893</v>
+        <f t="shared" si="33"/>
+        <v>9997985</v>
       </c>
       <c r="E139" s="8">
-        <f t="shared" si="33"/>
-        <v>911</v>
+        <f t="shared" si="34"/>
+        <v>832</v>
       </c>
       <c r="F139" s="8">
-        <f t="shared" si="34"/>
-        <v>1198</v>
+        <f t="shared" si="35"/>
+        <v>1185</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="35"/>
-        <v>9997893</v>
+        <f t="shared" si="36"/>
+        <v>9997985</v>
       </c>
       <c r="H139" s="2">
         <f t="shared" si="16"/>
@@ -52222,11 +52831,11 @@
         <v>1561</v>
       </c>
       <c r="K139" s="6">
-        <f t="shared" si="28"/>
-        <v>1100</v>
+        <f>K138+ROUND((C139/$D$2)*D138*(K138/$D$3),0)-ROUND(K138/$D$2,0)</f>
+        <v>908</v>
       </c>
       <c r="L139" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>44152</v>
       </c>
       <c r="M139" s="8"/>
@@ -52234,19 +52843,481 @@
       <c r="O139" s="8"/>
       <c r="P139" s="8">
         <f t="shared" si="24"/>
-        <v>1100</v>
+        <v>908</v>
       </c>
       <c r="Q139" s="8">
         <f t="shared" si="22"/>
-        <v>911</v>
+        <v>832</v>
       </c>
       <c r="R139" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3469</v>
       </c>
       <c r="S139" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1561</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>44152</v>
+      </c>
+      <c r="B140" s="4">
+        <v>134</v>
+      </c>
+      <c r="C140" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D140" s="4">
+        <f t="shared" ref="D140:D146" si="37">D139-ROUND((C140/$D$2)*D139*(E139/$D$3),0)</f>
+        <v>9997881</v>
+      </c>
+      <c r="E140" s="4">
+        <f t="shared" ref="E140:E146" si="38">E139+ROUND((C140/$D$2)*D139*(E139/$D$3),0)-ROUND(E139/$D$2,0)</f>
+        <v>867</v>
+      </c>
+      <c r="F140" s="4">
+        <f t="shared" ref="F140:F146" si="39">F139+ROUND(E139/$D$2,0)</f>
+        <v>1254</v>
+      </c>
+      <c r="G140" s="2">
+        <f t="shared" ref="G140:G146" si="40">D140</f>
+        <v>9997881</v>
+      </c>
+      <c r="H140" s="2">
+        <f t="shared" ref="H140:H146" si="41">H139+ROUND(($D$1/$D$2)*G139*(H139/$D$3),0)-ROUND(H139/$D$2,0)</f>
+        <v>2742</v>
+      </c>
+      <c r="I140" s="5">
+        <f t="shared" ref="I140:I146" si="42">I139+ROUND(($D$1/$D$2)*G139*(I139/$D$3),0)-ROUND(I139/$D$2,0)</f>
+        <v>3903</v>
+      </c>
+      <c r="J140" s="6">
+        <f t="shared" ref="J140:J146" si="43">J139+ROUND(($E$1/$D$2)*G139*(I139/$D$3),0)-ROUND(I139/$D$2,0)</f>
+        <v>1734</v>
+      </c>
+      <c r="K140" s="6">
+        <f t="shared" ref="K140:K146" si="44">K139+ROUND((C140/$D$2)*D139*(K139/$D$3),0)-ROUND(K139/$D$2,0)</f>
+        <v>945</v>
+      </c>
+      <c r="L140" s="3">
+        <f t="shared" ref="L140:L146" si="45">A140</f>
+        <v>44152</v>
+      </c>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4">
+        <f t="shared" ref="P140:P146" si="46">K140</f>
+        <v>945</v>
+      </c>
+      <c r="Q140" s="4">
+        <f t="shared" ref="Q140:Q146" si="47">E140</f>
+        <v>867</v>
+      </c>
+      <c r="R140" s="4">
+        <f t="shared" ref="R140:R146" si="48">I140</f>
+        <v>3903</v>
+      </c>
+      <c r="S140" s="4">
+        <f t="shared" ref="S140:S146" si="49">J140</f>
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>44152</v>
+      </c>
+      <c r="B141" s="4">
+        <v>134</v>
+      </c>
+      <c r="C141" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D141" s="4">
+        <f t="shared" si="37"/>
+        <v>9997773</v>
+      </c>
+      <c r="E141" s="4">
+        <f t="shared" si="38"/>
+        <v>903</v>
+      </c>
+      <c r="F141" s="4">
+        <f t="shared" si="39"/>
+        <v>1326</v>
+      </c>
+      <c r="G141" s="2">
+        <f t="shared" si="40"/>
+        <v>9997773</v>
+      </c>
+      <c r="H141" s="2">
+        <f t="shared" si="41"/>
+        <v>3084</v>
+      </c>
+      <c r="I141" s="5">
+        <f t="shared" si="42"/>
+        <v>4391</v>
+      </c>
+      <c r="J141" s="6">
+        <f t="shared" si="43"/>
+        <v>1929</v>
+      </c>
+      <c r="K141" s="6">
+        <f t="shared" si="44"/>
+        <v>984</v>
+      </c>
+      <c r="L141" s="3">
+        <f t="shared" si="45"/>
+        <v>44152</v>
+      </c>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4">
+        <f t="shared" si="46"/>
+        <v>984</v>
+      </c>
+      <c r="Q141" s="4">
+        <f t="shared" si="47"/>
+        <v>903</v>
+      </c>
+      <c r="R141" s="4">
+        <f t="shared" si="48"/>
+        <v>4391</v>
+      </c>
+      <c r="S141" s="4">
+        <f t="shared" si="49"/>
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>44152</v>
+      </c>
+      <c r="B142" s="4">
+        <v>134</v>
+      </c>
+      <c r="C142" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D142" s="4">
+        <f t="shared" si="37"/>
+        <v>9997660</v>
+      </c>
+      <c r="E142" s="4">
+        <f t="shared" si="38"/>
+        <v>941</v>
+      </c>
+      <c r="F142" s="4">
+        <f t="shared" si="39"/>
+        <v>1401</v>
+      </c>
+      <c r="G142" s="2">
+        <f t="shared" si="40"/>
+        <v>9997660</v>
+      </c>
+      <c r="H142" s="2">
+        <f t="shared" si="41"/>
+        <v>3469</v>
+      </c>
+      <c r="I142" s="5">
+        <f t="shared" si="42"/>
+        <v>4940</v>
+      </c>
+      <c r="J142" s="6">
+        <f t="shared" si="43"/>
+        <v>2148</v>
+      </c>
+      <c r="K142" s="6">
+        <f t="shared" si="44"/>
+        <v>1025</v>
+      </c>
+      <c r="L142" s="3">
+        <f t="shared" si="45"/>
+        <v>44152</v>
+      </c>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4">
+        <f t="shared" si="46"/>
+        <v>1025</v>
+      </c>
+      <c r="Q142" s="4">
+        <f t="shared" si="47"/>
+        <v>941</v>
+      </c>
+      <c r="R142" s="4">
+        <f t="shared" si="48"/>
+        <v>4940</v>
+      </c>
+      <c r="S142" s="4">
+        <f t="shared" si="49"/>
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>44152</v>
+      </c>
+      <c r="B143" s="4">
+        <v>134</v>
+      </c>
+      <c r="C143" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D143" s="4">
+        <f t="shared" si="37"/>
+        <v>9997542</v>
+      </c>
+      <c r="E143" s="4">
+        <f t="shared" si="38"/>
+        <v>981</v>
+      </c>
+      <c r="F143" s="4">
+        <f t="shared" si="39"/>
+        <v>1479</v>
+      </c>
+      <c r="G143" s="2">
+        <f t="shared" si="40"/>
+        <v>9997542</v>
+      </c>
+      <c r="H143" s="2">
+        <f t="shared" si="41"/>
+        <v>3903</v>
+      </c>
+      <c r="I143" s="5">
+        <f t="shared" si="42"/>
+        <v>5557</v>
+      </c>
+      <c r="J143" s="6">
+        <f t="shared" si="43"/>
+        <v>2395</v>
+      </c>
+      <c r="K143" s="6">
+        <f t="shared" si="44"/>
+        <v>1068</v>
+      </c>
+      <c r="L143" s="3">
+        <f t="shared" si="45"/>
+        <v>44152</v>
+      </c>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4">
+        <f t="shared" si="46"/>
+        <v>1068</v>
+      </c>
+      <c r="Q143" s="4">
+        <f t="shared" si="47"/>
+        <v>981</v>
+      </c>
+      <c r="R143" s="4">
+        <f t="shared" si="48"/>
+        <v>5557</v>
+      </c>
+      <c r="S143" s="4">
+        <f t="shared" si="49"/>
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>44152</v>
+      </c>
+      <c r="B144" s="4">
+        <v>134</v>
+      </c>
+      <c r="C144" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D144" s="4">
+        <f t="shared" si="37"/>
+        <v>9997419</v>
+      </c>
+      <c r="E144" s="4">
+        <f t="shared" si="38"/>
+        <v>1022</v>
+      </c>
+      <c r="F144" s="4">
+        <f t="shared" si="39"/>
+        <v>1561</v>
+      </c>
+      <c r="G144" s="2">
+        <f t="shared" si="40"/>
+        <v>9997419</v>
+      </c>
+      <c r="H144" s="2">
+        <f t="shared" si="41"/>
+        <v>4391</v>
+      </c>
+      <c r="I144" s="5">
+        <f t="shared" si="42"/>
+        <v>6251</v>
+      </c>
+      <c r="J144" s="6">
+        <f t="shared" si="43"/>
+        <v>2673</v>
+      </c>
+      <c r="K144" s="6">
+        <f t="shared" si="44"/>
+        <v>1112</v>
+      </c>
+      <c r="L144" s="3">
+        <f t="shared" si="45"/>
+        <v>44152</v>
+      </c>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4">
+        <f t="shared" si="46"/>
+        <v>1112</v>
+      </c>
+      <c r="Q144" s="4">
+        <f t="shared" si="47"/>
+        <v>1022</v>
+      </c>
+      <c r="R144" s="4">
+        <f t="shared" si="48"/>
+        <v>6251</v>
+      </c>
+      <c r="S144" s="4">
+        <f t="shared" si="49"/>
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>44152</v>
+      </c>
+      <c r="B145" s="4">
+        <v>134</v>
+      </c>
+      <c r="C145" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D145" s="4">
+        <f t="shared" si="37"/>
+        <v>9997291</v>
+      </c>
+      <c r="E145" s="4">
+        <f t="shared" si="38"/>
+        <v>1065</v>
+      </c>
+      <c r="F145" s="4">
+        <f t="shared" si="39"/>
+        <v>1646</v>
+      </c>
+      <c r="G145" s="2">
+        <f t="shared" si="40"/>
+        <v>9997291</v>
+      </c>
+      <c r="H145" s="2">
+        <f t="shared" si="41"/>
+        <v>4940</v>
+      </c>
+      <c r="I145" s="5">
+        <f t="shared" si="42"/>
+        <v>7032</v>
+      </c>
+      <c r="J145" s="6">
+        <f t="shared" si="43"/>
+        <v>2985</v>
+      </c>
+      <c r="K145" s="6">
+        <f t="shared" si="44"/>
+        <v>1158</v>
+      </c>
+      <c r="L145" s="3">
+        <f t="shared" si="45"/>
+        <v>44152</v>
+      </c>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4">
+        <f t="shared" si="46"/>
+        <v>1158</v>
+      </c>
+      <c r="Q145" s="4">
+        <f t="shared" si="47"/>
+        <v>1065</v>
+      </c>
+      <c r="R145" s="4">
+        <f t="shared" si="48"/>
+        <v>7032</v>
+      </c>
+      <c r="S145" s="4">
+        <f t="shared" si="49"/>
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>44152</v>
+      </c>
+      <c r="B146" s="4">
+        <v>134</v>
+      </c>
+      <c r="C146" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D146" s="4">
+        <f t="shared" si="37"/>
+        <v>9997158</v>
+      </c>
+      <c r="E146" s="4">
+        <f t="shared" si="38"/>
+        <v>1109</v>
+      </c>
+      <c r="F146" s="4">
+        <f t="shared" si="39"/>
+        <v>1735</v>
+      </c>
+      <c r="G146" s="2">
+        <f t="shared" si="40"/>
+        <v>9997158</v>
+      </c>
+      <c r="H146" s="2">
+        <f t="shared" si="41"/>
+        <v>5557</v>
+      </c>
+      <c r="I146" s="5">
+        <f t="shared" si="42"/>
+        <v>7911</v>
+      </c>
+      <c r="J146" s="6">
+        <f t="shared" si="43"/>
+        <v>3336</v>
+      </c>
+      <c r="K146" s="6">
+        <f t="shared" si="44"/>
+        <v>1206</v>
+      </c>
+      <c r="L146" s="3">
+        <f t="shared" si="45"/>
+        <v>44152</v>
+      </c>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4">
+        <f t="shared" si="46"/>
+        <v>1206</v>
+      </c>
+      <c r="Q146" s="4">
+        <f t="shared" si="47"/>
+        <v>1109</v>
+      </c>
+      <c r="R146" s="4">
+        <f t="shared" si="48"/>
+        <v>7911</v>
+      </c>
+      <c r="S146" s="4">
+        <f t="shared" si="49"/>
+        <v>3336</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_EXCEL/COVID Lombardia.xlsx
+++ b/COVID_EXCEL/COVID Lombardia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE50D645-D529-4151-89E2-24B177DC2487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C06CF1-4D6F-4149-AE03-E47D3F3E063D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="23730" yWindow="300" windowWidth="15720" windowHeight="10920" activeTab="2" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -701,6 +701,9 @@
                 <c:pt idx="60">
                   <c:v>904</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1167,6 +1170,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2999,40 +3005,40 @@
                     <c:v>922</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>941</c:v>
+                    <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>961</c:v>
+                    <c:v>953</c:v>
                   </c:pt>
                   <c:pt idx="138">
-                    <c:v>981</c:v>
+                    <c:v>973</c:v>
                   </c:pt>
                   <c:pt idx="139">
-                    <c:v>1001</c:v>
+                    <c:v>993</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>1022</c:v>
+                    <c:v>1013</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>1043</c:v>
+                    <c:v>1034</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>1065</c:v>
+                    <c:v>1056</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>1087</c:v>
+                    <c:v>1078</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>1109</c:v>
+                    <c:v>1100</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>1132</c:v>
+                    <c:v>1123</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>1156</c:v>
+                    <c:v>1146</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>1180</c:v>
+                    <c:v>1169</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3448,6 +3454,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4000,40 +4009,40 @@
                     <c:v>922</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>941</c:v>
+                    <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>961</c:v>
+                    <c:v>953</c:v>
                   </c:pt>
                   <c:pt idx="138">
-                    <c:v>981</c:v>
+                    <c:v>973</c:v>
                   </c:pt>
                   <c:pt idx="139">
-                    <c:v>1001</c:v>
+                    <c:v>993</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>1022</c:v>
+                    <c:v>1013</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>1043</c:v>
+                    <c:v>1034</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>1065</c:v>
+                    <c:v>1056</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>1087</c:v>
+                    <c:v>1078</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>1109</c:v>
+                    <c:v>1100</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>1132</c:v>
+                    <c:v>1123</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>1156</c:v>
+                    <c:v>1146</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>1180</c:v>
+                    <c:v>1169</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4449,6 +4458,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4991,40 +5003,40 @@
                     <c:v>922</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>941</c:v>
+                    <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>961</c:v>
+                    <c:v>953</c:v>
                   </c:pt>
                   <c:pt idx="138">
-                    <c:v>981</c:v>
+                    <c:v>973</c:v>
                   </c:pt>
                   <c:pt idx="139">
-                    <c:v>1001</c:v>
+                    <c:v>993</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>1022</c:v>
+                    <c:v>1013</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>1043</c:v>
+                    <c:v>1034</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>1065</c:v>
+                    <c:v>1056</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>1087</c:v>
+                    <c:v>1078</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>1109</c:v>
+                    <c:v>1100</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>1132</c:v>
+                    <c:v>1123</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>1156</c:v>
+                    <c:v>1146</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>1180</c:v>
+                    <c:v>1169</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5440,6 +5452,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>841.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>860.28571428571433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5983,40 +5998,40 @@
                     <c:v>922</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>941</c:v>
+                    <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>961</c:v>
+                    <c:v>953</c:v>
                   </c:pt>
                   <c:pt idx="138">
-                    <c:v>981</c:v>
+                    <c:v>973</c:v>
                   </c:pt>
                   <c:pt idx="139">
-                    <c:v>1001</c:v>
+                    <c:v>993</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>1022</c:v>
+                    <c:v>1013</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>1043</c:v>
+                    <c:v>1034</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>1065</c:v>
+                    <c:v>1056</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>1087</c:v>
+                    <c:v>1078</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>1109</c:v>
+                    <c:v>1100</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>1132</c:v>
+                    <c:v>1123</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>1156</c:v>
+                    <c:v>1146</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>1180</c:v>
+                    <c:v>1169</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -6035,40 +6050,40 @@
                   <c:v>922</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>941</c:v>
+                  <c:v>934</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>961</c:v>
+                  <c:v>953</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>981</c:v>
+                  <c:v>973</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1001</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1022</c:v>
+                  <c:v>1013</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1043</c:v>
+                  <c:v>1034</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1065</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1087</c:v>
+                  <c:v>1078</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1109</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1132</c:v>
+                  <c:v>1123</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1156</c:v>
+                  <c:v>1146</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1180</c:v>
+                  <c:v>1169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6610,40 +6625,40 @@
                     <c:v>922</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>941</c:v>
+                    <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>961</c:v>
+                    <c:v>953</c:v>
                   </c:pt>
                   <c:pt idx="138">
-                    <c:v>981</c:v>
+                    <c:v>973</c:v>
                   </c:pt>
                   <c:pt idx="139">
-                    <c:v>1001</c:v>
+                    <c:v>993</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>1022</c:v>
+                    <c:v>1013</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>1043</c:v>
+                    <c:v>1034</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>1065</c:v>
+                    <c:v>1056</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>1087</c:v>
+                    <c:v>1078</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>1109</c:v>
+                    <c:v>1100</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>1132</c:v>
+                    <c:v>1123</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>1156</c:v>
+                    <c:v>1146</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>1180</c:v>
+                    <c:v>1169</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -7386,6 +7401,9 @@
                 <c:pt idx="50">
                   <c:v>840</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7792,6 +7810,9 @@
                 <c:pt idx="50">
                   <c:v>903</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>915</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8917,40 +8938,40 @@
                   <c:v>922</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>941</c:v>
+                  <c:v>934</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>961</c:v>
+                  <c:v>953</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>981</c:v>
+                  <c:v>973</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1001</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1022</c:v>
+                  <c:v>1013</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1043</c:v>
+                  <c:v>1034</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1065</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1087</c:v>
+                  <c:v>1078</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1109</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1132</c:v>
+                  <c:v>1123</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1156</c:v>
+                  <c:v>1146</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1180</c:v>
+                  <c:v>1169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9560,6 +9581,9 @@
                 <c:pt idx="38">
                   <c:v>840</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9894,6 +9918,9 @@
                 <c:pt idx="38">
                   <c:v>903</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>915</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10839,40 +10866,40 @@
                   <c:v>922</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>941</c:v>
+                  <c:v>934</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>961</c:v>
+                  <c:v>953</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>981</c:v>
+                  <c:v>973</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1001</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1022</c:v>
+                  <c:v>1013</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1043</c:v>
+                  <c:v>1034</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1065</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1087</c:v>
+                  <c:v>1078</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1109</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1132</c:v>
+                  <c:v>1123</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1156</c:v>
+                  <c:v>1146</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1180</c:v>
+                  <c:v>1169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12059,6 +12086,9 @@
                 <c:pt idx="134">
                   <c:v>904</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12968,6 +12998,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13758,6 +13791,9 @@
                 <c:pt idx="70">
                   <c:v>904</c:v>
                 </c:pt>
+                <c:pt idx="71">
+                  <c:v>919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14253,6 +14289,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15367,6 +15406,9 @@
                 <c:pt idx="70">
                   <c:v>904</c:v>
                 </c:pt>
+                <c:pt idx="71">
+                  <c:v>919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15883,6 +15925,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16837,6 +16882,9 @@
                 <c:pt idx="38">
                   <c:v>904</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17171,6 +17219,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23077,6 +23128,9 @@
                 <c:pt idx="128">
                   <c:v>840</c:v>
                 </c:pt>
+                <c:pt idx="129">
+                  <c:v>857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -23951,6 +24005,9 @@
                 <c:pt idx="128">
                   <c:v>903</c:v>
                 </c:pt>
+                <c:pt idx="129">
+                  <c:v>915</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -24814,6 +24871,9 @@
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>841.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>860.28571428571433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25629,19 +25689,19 @@
                     <c:v>922</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>941</c:v>
+                    <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>961</c:v>
+                    <c:v>953</c:v>
                   </c:pt>
                   <c:pt idx="138">
-                    <c:v>981</c:v>
+                    <c:v>973</c:v>
                   </c:pt>
                   <c:pt idx="139">
-                    <c:v>1001</c:v>
+                    <c:v>993</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>1022</c:v>
+                    <c:v>1013</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -26057,6 +26117,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26588,19 +26651,19 @@
                     <c:v>922</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>941</c:v>
+                    <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>961</c:v>
+                    <c:v>953</c:v>
                   </c:pt>
                   <c:pt idx="138">
-                    <c:v>981</c:v>
+                    <c:v>973</c:v>
                   </c:pt>
                   <c:pt idx="139">
-                    <c:v>1001</c:v>
+                    <c:v>993</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>1022</c:v>
+                    <c:v>1013</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -27016,6 +27079,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27537,19 +27603,19 @@
                     <c:v>922</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>941</c:v>
+                    <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>961</c:v>
+                    <c:v>953</c:v>
                   </c:pt>
                   <c:pt idx="138">
-                    <c:v>981</c:v>
+                    <c:v>973</c:v>
                   </c:pt>
                   <c:pt idx="139">
-                    <c:v>1001</c:v>
+                    <c:v>993</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>1022</c:v>
+                    <c:v>1013</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -27965,6 +28031,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>841.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>860.28571428571433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28487,19 +28556,19 @@
                     <c:v>922</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>941</c:v>
+                    <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>961</c:v>
+                    <c:v>953</c:v>
                   </c:pt>
                   <c:pt idx="138">
-                    <c:v>981</c:v>
+                    <c:v>973</c:v>
                   </c:pt>
                   <c:pt idx="139">
-                    <c:v>1001</c:v>
+                    <c:v>993</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>1022</c:v>
+                    <c:v>1013</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -28518,19 +28587,19 @@
                   <c:v>922</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>941</c:v>
+                  <c:v>934</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>961</c:v>
+                  <c:v>953</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>981</c:v>
+                  <c:v>973</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1001</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1022</c:v>
+                  <c:v>1013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29051,19 +29120,19 @@
                     <c:v>922</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>941</c:v>
+                    <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>961</c:v>
+                    <c:v>953</c:v>
                   </c:pt>
                   <c:pt idx="138">
-                    <c:v>981</c:v>
+                    <c:v>973</c:v>
                   </c:pt>
                   <c:pt idx="139">
-                    <c:v>1001</c:v>
+                    <c:v>993</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>1022</c:v>
+                    <c:v>1013</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -36754,10 +36823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K137"/>
+  <dimension ref="A2:K138"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136:C137"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38240,7 +38309,7 @@
         <v>610</v>
       </c>
       <c r="C126">
-        <f t="shared" ref="C126:C137" si="2">AVERAGE(B120:B126)</f>
+        <f t="shared" ref="C126:C138" si="2">AVERAGE(B120:B126)</f>
         <v>505.28571428571428</v>
       </c>
     </row>
@@ -38376,9 +38445,24 @@
         <v>841.28571428571433</v>
       </c>
     </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B138">
+        <v>915</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>860.28571428571433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C9:C138" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -38386,8 +38470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView topLeftCell="K102" workbookViewId="0">
-      <selection activeCell="AK72" sqref="AK72"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="L140" sqref="L140:M141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45594,7 +45678,7 @@
         <v>44151</v>
       </c>
       <c r="L138" s="8">
-        <f t="shared" ref="L138:L146" si="64">E138</f>
+        <f t="shared" ref="L138:L140" si="64">E138</f>
         <v>865</v>
       </c>
       <c r="M138" s="8">
@@ -45722,7 +45806,7 @@
         <v>903</v>
       </c>
       <c r="N140" s="4">
-        <f t="shared" ref="N135:N146" si="65">E140</f>
+        <f t="shared" ref="N140:N146" si="65">E140</f>
         <v>904</v>
       </c>
       <c r="O140" s="4">
@@ -45776,8 +45860,14 @@
         <f t="shared" si="61"/>
         <v>44154</v>
       </c>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
+      <c r="L141" s="4">
+        <f t="shared" ref="L141" si="66">E141</f>
+        <v>919</v>
+      </c>
+      <c r="M141" s="4">
+        <f>RealData!B138</f>
+        <v>915</v>
+      </c>
       <c r="N141" s="4">
         <f t="shared" si="65"/>
         <v>919</v>
@@ -46015,7 +46105,7 @@
         <v>7032</v>
       </c>
       <c r="P145" s="4">
-        <f t="shared" ref="P145:P146" si="66">J145</f>
+        <f t="shared" ref="P145:P146" si="67">J145</f>
         <v>3004</v>
       </c>
     </row>
@@ -46072,7 +46162,7 @@
         <v>7911</v>
       </c>
       <c r="P146" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>3355</v>
       </c>
     </row>
@@ -46087,49 +46177,49 @@
         <v>1.2</v>
       </c>
       <c r="D147" s="8">
-        <f t="shared" ref="D147:D153" si="67">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
+        <f t="shared" ref="D147:D153" si="68">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
         <v>9996956</v>
       </c>
       <c r="E147" s="8">
-        <f t="shared" ref="E147:E153" si="68">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
+        <f t="shared" ref="E147:E153" si="69">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
         <v>1014</v>
       </c>
       <c r="F147" s="8">
-        <f t="shared" ref="F147:F153" si="69">F146+ROUND(E146/$D$2,0)</f>
+        <f t="shared" ref="F147:F153" si="70">F146+ROUND(E146/$D$2,0)</f>
         <v>2030</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" ref="G147:G153" si="70">D147</f>
+        <f t="shared" ref="G147:G153" si="71">D147</f>
         <v>9996956</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" ref="H147:H153" si="71">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
+        <f t="shared" ref="H147:H153" si="72">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
         <v>8633</v>
       </c>
       <c r="I147" s="5">
-        <f t="shared" ref="I147:I153" si="72">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="I147:I153" si="73">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>8900</v>
       </c>
       <c r="J147" s="6">
-        <f t="shared" ref="J147:J153" si="73">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="J147:J153" si="74">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>3750</v>
       </c>
       <c r="K147" s="7">
-        <f t="shared" ref="K147:K153" si="74">A147</f>
+        <f t="shared" ref="K147:K153" si="75">A147</f>
         <v>44160</v>
       </c>
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
       <c r="N147" s="8">
-        <f t="shared" ref="N147:N153" si="75">E147</f>
+        <f t="shared" ref="N147:N153" si="76">E147</f>
         <v>1014</v>
       </c>
       <c r="O147" s="8">
-        <f t="shared" ref="O147:O153" si="76">I147</f>
+        <f t="shared" ref="O147:O153" si="77">I147</f>
         <v>8900</v>
       </c>
       <c r="P147" s="8">
-        <f t="shared" ref="P147:P153" si="77">J147</f>
+        <f t="shared" ref="P147:P153" si="78">J147</f>
         <v>3750</v>
       </c>
     </row>
@@ -46144,49 +46234,49 @@
         <v>1.2</v>
       </c>
       <c r="D148" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>9996855</v>
       </c>
       <c r="E148" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1030</v>
       </c>
       <c r="F148" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>2115</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>9996855</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>9712</v>
       </c>
       <c r="I148" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>10012</v>
       </c>
       <c r="J148" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>4194</v>
       </c>
       <c r="K148" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>44161</v>
       </c>
       <c r="L148" s="8"/>
       <c r="M148" s="8"/>
       <c r="N148" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1030</v>
       </c>
       <c r="O148" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10012</v>
       </c>
       <c r="P148" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>4194</v>
       </c>
     </row>
@@ -46201,49 +46291,49 @@
         <v>1.2</v>
       </c>
       <c r="D149" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>9996752</v>
       </c>
       <c r="E149" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1047</v>
       </c>
       <c r="F149" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>2201</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>9996752</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>10926</v>
       </c>
       <c r="I149" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>11263</v>
       </c>
       <c r="J149" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>4695</v>
       </c>
       <c r="K149" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>44162</v>
       </c>
       <c r="L149" s="8"/>
       <c r="M149" s="8"/>
       <c r="N149" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1047</v>
       </c>
       <c r="O149" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>11263</v>
       </c>
       <c r="P149" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>4695</v>
       </c>
     </row>
@@ -46258,49 +46348,49 @@
         <v>1.2</v>
       </c>
       <c r="D150" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>9996647</v>
       </c>
       <c r="E150" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1065</v>
       </c>
       <c r="F150" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>2288</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>9996647</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>12291</v>
       </c>
       <c r="I150" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>12670</v>
       </c>
       <c r="J150" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5257</v>
       </c>
       <c r="K150" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>44163</v>
       </c>
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
       <c r="N150" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1065</v>
       </c>
       <c r="O150" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>12670</v>
       </c>
       <c r="P150" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>5257</v>
       </c>
     </row>
@@ -46315,49 +46405,49 @@
         <v>1.2</v>
       </c>
       <c r="D151" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>9996541</v>
       </c>
       <c r="E151" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1082</v>
       </c>
       <c r="F151" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>2377</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>9996541</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>13827</v>
       </c>
       <c r="I151" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>14253</v>
       </c>
       <c r="J151" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5890</v>
       </c>
       <c r="K151" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>44164</v>
       </c>
       <c r="L151" s="8"/>
       <c r="M151" s="8"/>
       <c r="N151" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1082</v>
       </c>
       <c r="O151" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>14253</v>
       </c>
       <c r="P151" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>5890</v>
       </c>
     </row>
@@ -46372,49 +46462,49 @@
         <v>1.2</v>
       </c>
       <c r="D152" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>9996433</v>
       </c>
       <c r="E152" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1100</v>
       </c>
       <c r="F152" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>2467</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>9996433</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>15555</v>
       </c>
       <c r="I152" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>16033</v>
       </c>
       <c r="J152" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>6602</v>
       </c>
       <c r="K152" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>44165</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="8"/>
       <c r="N152" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1100</v>
       </c>
       <c r="O152" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>16033</v>
       </c>
       <c r="P152" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6602</v>
       </c>
     </row>
@@ -46429,49 +46519,49 @@
         <v>1.2</v>
       </c>
       <c r="D153" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>9996323</v>
       </c>
       <c r="E153" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1118</v>
       </c>
       <c r="F153" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>2559</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>9996323</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>17498</v>
       </c>
       <c r="I153" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>18036</v>
       </c>
       <c r="J153" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>7403</v>
       </c>
       <c r="K153" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>44166</v>
       </c>
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
       <c r="N153" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1118</v>
       </c>
       <c r="O153" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>18036</v>
       </c>
       <c r="P153" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>7403</v>
       </c>
     </row>
@@ -46486,8 +46576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C18E4-1873-48DD-B7B4-EAEB82B5E392}">
   <dimension ref="A1:S153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AT41" sqref="AT41"/>
+    <sheetView tabSelected="1" topLeftCell="AF7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K143" sqref="K143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53923,7 +54013,7 @@
         <v>715</v>
       </c>
       <c r="K131" s="6">
-        <f t="shared" ref="K131:K139" si="25">N130+ROUND((C131/$D$2)*D130*(N130/$D$3),0)-ROUND(N130/$D$2,0)</f>
+        <f t="shared" ref="K131:K133" si="25">N130+ROUND((C131/$D$2)*D130*(N130/$D$3),0)-ROUND(N130/$D$2,0)</f>
         <v>690</v>
       </c>
       <c r="L131" s="3">
@@ -54619,16 +54709,25 @@
         <v>1929</v>
       </c>
       <c r="K141" s="6">
-        <f t="shared" si="35"/>
+        <f>N140+ROUND((C141/$D$2)*D140*(N140/$D$3),0)-ROUND(N140/$D$2,0)</f>
         <v>922</v>
       </c>
       <c r="L141" s="3">
         <f t="shared" si="44"/>
         <v>44154</v>
       </c>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
+      <c r="M141" s="4">
+        <f t="shared" ref="M141" si="50">E141</f>
+        <v>857</v>
+      </c>
+      <c r="N141" s="4">
+        <f>RealData!B138</f>
+        <v>915</v>
+      </c>
+      <c r="O141" s="4">
+        <f>RealData!C138</f>
+        <v>860.28571428571433</v>
+      </c>
       <c r="P141" s="4">
         <f t="shared" si="46"/>
         <v>922</v>
@@ -54685,8 +54784,8 @@
         <v>2148</v>
       </c>
       <c r="K142" s="6">
-        <f t="shared" ref="K140:K146" si="50">K141+ROUND((C142/$D$2)*D141*(K141/$D$3),0)-ROUND(K141/$D$2,0)</f>
-        <v>941</v>
+        <f>N141+ROUND((C142/$D$2)*D141*(N141/$D$3),0)-ROUND(N141/$D$2,0)</f>
+        <v>934</v>
       </c>
       <c r="L142" s="3">
         <f t="shared" si="44"/>
@@ -54697,7 +54796,7 @@
       <c r="O142" s="4"/>
       <c r="P142" s="4">
         <f t="shared" si="46"/>
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="Q142" s="4">
         <f t="shared" si="47"/>
@@ -54751,8 +54850,8 @@
         <v>2395</v>
       </c>
       <c r="K143" s="6">
-        <f t="shared" si="50"/>
-        <v>961</v>
+        <f t="shared" ref="K142:K146" si="51">K142+ROUND((C143/$D$2)*D142*(K142/$D$3),0)-ROUND(K142/$D$2,0)</f>
+        <v>953</v>
       </c>
       <c r="L143" s="3">
         <f t="shared" si="44"/>
@@ -54763,7 +54862,7 @@
       <c r="O143" s="4"/>
       <c r="P143" s="4">
         <f t="shared" si="46"/>
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="Q143" s="4">
         <f t="shared" si="47"/>
@@ -54817,8 +54916,8 @@
         <v>2673</v>
       </c>
       <c r="K144" s="6">
-        <f t="shared" si="50"/>
-        <v>981</v>
+        <f t="shared" si="51"/>
+        <v>973</v>
       </c>
       <c r="L144" s="3">
         <f t="shared" si="44"/>
@@ -54829,7 +54928,7 @@
       <c r="O144" s="4"/>
       <c r="P144" s="4">
         <f t="shared" si="46"/>
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="Q144" s="4">
         <f t="shared" si="47"/>
@@ -54883,8 +54982,8 @@
         <v>2985</v>
       </c>
       <c r="K145" s="6">
-        <f t="shared" si="50"/>
-        <v>1001</v>
+        <f t="shared" si="51"/>
+        <v>993</v>
       </c>
       <c r="L145" s="3">
         <f t="shared" si="44"/>
@@ -54895,7 +54994,7 @@
       <c r="O145" s="4"/>
       <c r="P145" s="4">
         <f t="shared" si="46"/>
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="Q145" s="4">
         <f t="shared" si="47"/>
@@ -54949,8 +55048,8 @@
         <v>3336</v>
       </c>
       <c r="K146" s="6">
-        <f t="shared" si="50"/>
-        <v>1022</v>
+        <f t="shared" si="51"/>
+        <v>1013</v>
       </c>
       <c r="L146" s="3">
         <f t="shared" si="44"/>
@@ -54961,7 +55060,7 @@
       <c r="O146" s="4"/>
       <c r="P146" s="4">
         <f t="shared" si="46"/>
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="Q146" s="4">
         <f t="shared" si="47"/>
@@ -54987,58 +55086,58 @@
         <v>1.25</v>
       </c>
       <c r="D147" s="8">
-        <f t="shared" ref="D147:D153" si="51">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
+        <f t="shared" ref="D147:D153" si="52">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
         <v>9997258</v>
       </c>
       <c r="E147" s="8">
-        <f t="shared" ref="E147:E153" si="52">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
+        <f t="shared" ref="E147:E153" si="53">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
         <v>970</v>
       </c>
       <c r="F147" s="8">
-        <f t="shared" ref="F147:F153" si="53">F146+ROUND(E146/$D$2,0)</f>
+        <f t="shared" ref="F147:F153" si="54">F146+ROUND(E146/$D$2,0)</f>
         <v>1774</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" ref="G147:G153" si="54">D147</f>
+        <f t="shared" ref="G147:G153" si="55">D147</f>
         <v>9997258</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" ref="H147:H153" si="55">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
+        <f t="shared" ref="H147:H153" si="56">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
         <v>6251</v>
       </c>
       <c r="I147" s="5">
-        <f t="shared" ref="I147:I153" si="56">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="I147:I153" si="57">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>8900</v>
       </c>
       <c r="J147" s="6">
-        <f t="shared" ref="J147:J153" si="57">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="J147:J153" si="58">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>3732</v>
       </c>
       <c r="K147" s="6">
-        <f t="shared" ref="K147:K153" si="58">K146+ROUND((C147/$D$2)*D146*(K146/$D$3),0)-ROUND(K146/$D$2,0)</f>
-        <v>1043</v>
+        <f t="shared" ref="K147:K153" si="59">K146+ROUND((C147/$D$2)*D146*(K146/$D$3),0)-ROUND(K146/$D$2,0)</f>
+        <v>1034</v>
       </c>
       <c r="L147" s="7">
-        <f t="shared" ref="L147:L153" si="59">A147</f>
+        <f t="shared" ref="L147:L153" si="60">A147</f>
         <v>44160</v>
       </c>
       <c r="M147" s="8"/>
       <c r="N147" s="8"/>
       <c r="O147" s="8"/>
       <c r="P147" s="8">
-        <f t="shared" ref="P147:P153" si="60">K147</f>
-        <v>1043</v>
+        <f t="shared" ref="P147:P153" si="61">K147</f>
+        <v>1034</v>
       </c>
       <c r="Q147" s="8">
-        <f t="shared" ref="Q147:Q153" si="61">E147</f>
+        <f t="shared" ref="Q147:Q153" si="62">E147</f>
         <v>970</v>
       </c>
       <c r="R147" s="8">
-        <f t="shared" ref="R147:R153" si="62">I147</f>
+        <f t="shared" ref="R147:R153" si="63">I147</f>
         <v>8900</v>
       </c>
       <c r="S147" s="8">
-        <f t="shared" ref="S147:S153" si="63">J147</f>
+        <f t="shared" ref="S147:S153" si="64">J147</f>
         <v>3732</v>
       </c>
     </row>
@@ -55053,58 +55152,58 @@
         <v>1.25</v>
       </c>
       <c r="D148" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9997157</v>
       </c>
       <c r="E148" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>990</v>
       </c>
       <c r="F148" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>1855</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9997157</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>7032</v>
       </c>
       <c r="I148" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>10012</v>
       </c>
       <c r="J148" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>4176</v>
       </c>
       <c r="K148" s="6">
-        <f t="shared" si="58"/>
-        <v>1065</v>
+        <f t="shared" si="59"/>
+        <v>1056</v>
       </c>
       <c r="L148" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>44161</v>
       </c>
       <c r="M148" s="8"/>
       <c r="N148" s="8"/>
       <c r="O148" s="8"/>
       <c r="P148" s="8">
-        <f t="shared" si="60"/>
-        <v>1065</v>
+        <f t="shared" si="61"/>
+        <v>1056</v>
       </c>
       <c r="Q148" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>990</v>
       </c>
       <c r="R148" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>10012</v>
       </c>
       <c r="S148" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>4176</v>
       </c>
     </row>
@@ -55119,58 +55218,58 @@
         <v>1.25</v>
       </c>
       <c r="D149" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9997054</v>
       </c>
       <c r="E149" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1010</v>
       </c>
       <c r="F149" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>1938</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9997054</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>7911</v>
       </c>
       <c r="I149" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>11263</v>
       </c>
       <c r="J149" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>4677</v>
       </c>
       <c r="K149" s="6">
-        <f t="shared" si="58"/>
-        <v>1087</v>
+        <f t="shared" si="59"/>
+        <v>1078</v>
       </c>
       <c r="L149" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>44162</v>
       </c>
       <c r="M149" s="8"/>
       <c r="N149" s="8"/>
       <c r="O149" s="8"/>
       <c r="P149" s="8">
-        <f t="shared" si="60"/>
-        <v>1087</v>
+        <f t="shared" si="61"/>
+        <v>1078</v>
       </c>
       <c r="Q149" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1010</v>
       </c>
       <c r="R149" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>11263</v>
       </c>
       <c r="S149" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>4677</v>
       </c>
     </row>
@@ -55185,58 +55284,58 @@
         <v>1.25</v>
       </c>
       <c r="D150" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9996949</v>
       </c>
       <c r="E150" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1031</v>
       </c>
       <c r="F150" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>2022</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9996949</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>8900</v>
       </c>
       <c r="I150" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>12670</v>
       </c>
       <c r="J150" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>5239</v>
       </c>
       <c r="K150" s="6">
-        <f t="shared" si="58"/>
-        <v>1109</v>
+        <f t="shared" si="59"/>
+        <v>1100</v>
       </c>
       <c r="L150" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>44163</v>
       </c>
       <c r="M150" s="8"/>
       <c r="N150" s="8"/>
       <c r="O150" s="8"/>
       <c r="P150" s="8">
-        <f t="shared" si="60"/>
-        <v>1109</v>
+        <f t="shared" si="61"/>
+        <v>1100</v>
       </c>
       <c r="Q150" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1031</v>
       </c>
       <c r="R150" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>12670</v>
       </c>
       <c r="S150" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5239</v>
       </c>
     </row>
@@ -55251,58 +55350,58 @@
         <v>1.25</v>
       </c>
       <c r="D151" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9996842</v>
       </c>
       <c r="E151" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1052</v>
       </c>
       <c r="F151" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>2108</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9996842</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>10012</v>
       </c>
       <c r="I151" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>14253</v>
       </c>
       <c r="J151" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>5872</v>
       </c>
       <c r="K151" s="6">
-        <f t="shared" si="58"/>
-        <v>1132</v>
+        <f t="shared" si="59"/>
+        <v>1123</v>
       </c>
       <c r="L151" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>44164</v>
       </c>
       <c r="M151" s="8"/>
       <c r="N151" s="8"/>
       <c r="O151" s="8"/>
       <c r="P151" s="8">
-        <f t="shared" si="60"/>
-        <v>1132</v>
+        <f t="shared" si="61"/>
+        <v>1123</v>
       </c>
       <c r="Q151" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1052</v>
       </c>
       <c r="R151" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>14253</v>
       </c>
       <c r="S151" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5872</v>
       </c>
     </row>
@@ -55317,58 +55416,58 @@
         <v>1.25</v>
       </c>
       <c r="D152" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9996732</v>
       </c>
       <c r="E152" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1074</v>
       </c>
       <c r="F152" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>2196</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9996732</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>11263</v>
       </c>
       <c r="I152" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>16033</v>
       </c>
       <c r="J152" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6584</v>
       </c>
       <c r="K152" s="6">
-        <f t="shared" si="58"/>
-        <v>1156</v>
+        <f t="shared" si="59"/>
+        <v>1146</v>
       </c>
       <c r="L152" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>44165</v>
       </c>
       <c r="M152" s="8"/>
       <c r="N152" s="8"/>
       <c r="O152" s="8"/>
       <c r="P152" s="8">
-        <f t="shared" si="60"/>
-        <v>1156</v>
+        <f t="shared" si="61"/>
+        <v>1146</v>
       </c>
       <c r="Q152" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1074</v>
       </c>
       <c r="R152" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>16033</v>
       </c>
       <c r="S152" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>6584</v>
       </c>
     </row>
@@ -55383,58 +55482,58 @@
         <v>1.25</v>
       </c>
       <c r="D153" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9996620</v>
       </c>
       <c r="E153" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1096</v>
       </c>
       <c r="F153" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>2286</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9996620</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>12670</v>
       </c>
       <c r="I153" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>18036</v>
       </c>
       <c r="J153" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>7385</v>
       </c>
       <c r="K153" s="6">
-        <f t="shared" si="58"/>
-        <v>1180</v>
+        <f t="shared" si="59"/>
+        <v>1169</v>
       </c>
       <c r="L153" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>44166</v>
       </c>
       <c r="M153" s="8"/>
       <c r="N153" s="8"/>
       <c r="O153" s="8"/>
       <c r="P153" s="8">
-        <f t="shared" si="60"/>
-        <v>1180</v>
+        <f t="shared" si="61"/>
+        <v>1169</v>
       </c>
       <c r="Q153" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1096</v>
       </c>
       <c r="R153" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>18036</v>
       </c>
       <c r="S153" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>7385</v>
       </c>
     </row>

--- a/COVID_EXCEL/COVID Lombardia.xlsx
+++ b/COVID_EXCEL/COVID Lombardia.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C06CF1-4D6F-4149-AE03-E47D3F3E063D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A00100-CC58-4DA7-BC60-BEB94163E505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23730" yWindow="300" windowWidth="15720" windowHeight="10920" activeTab="2" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +135,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -148,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -158,6 +164,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,10 +707,13 @@
                   <c:v>889</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>904</c:v>
+                  <c:v>903</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>919</c:v>
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1173,6 +1184,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3008,37 +3022,37 @@
                     <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>953</c:v>
+                    <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="138">
+                    <c:v>961</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>973</c:v>
                   </c:pt>
-                  <c:pt idx="139">
-                    <c:v>993</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>1013</c:v>
+                    <c:v>985</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>1034</c:v>
+                    <c:v>997</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>1056</c:v>
+                    <c:v>1010</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>1078</c:v>
+                    <c:v>1023</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>1100</c:v>
+                    <c:v>1036</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>1123</c:v>
+                    <c:v>1049</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>1146</c:v>
+                    <c:v>1062</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>1169</c:v>
+                    <c:v>1075</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3457,6 +3471,9 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4012,37 +4029,37 @@
                     <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>953</c:v>
+                    <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="138">
+                    <c:v>961</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>973</c:v>
                   </c:pt>
-                  <c:pt idx="139">
-                    <c:v>993</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>1013</c:v>
+                    <c:v>985</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>1034</c:v>
+                    <c:v>997</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>1056</c:v>
+                    <c:v>1010</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>1078</c:v>
+                    <c:v>1023</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>1100</c:v>
+                    <c:v>1036</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>1123</c:v>
+                    <c:v>1049</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>1146</c:v>
+                    <c:v>1062</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>1169</c:v>
+                    <c:v>1075</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4461,6 +4478,9 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5006,37 +5026,37 @@
                     <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>953</c:v>
+                    <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="138">
+                    <c:v>961</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>973</c:v>
                   </c:pt>
-                  <c:pt idx="139">
-                    <c:v>993</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>1013</c:v>
+                    <c:v>985</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>1034</c:v>
+                    <c:v>997</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>1056</c:v>
+                    <c:v>1010</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>1078</c:v>
+                    <c:v>1023</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>1100</c:v>
+                    <c:v>1036</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>1123</c:v>
+                    <c:v>1049</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>1146</c:v>
+                    <c:v>1062</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>1169</c:v>
+                    <c:v>1075</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5455,6 +5475,9 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>860.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>878.71428571428567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6001,37 +6024,37 @@
                     <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>953</c:v>
+                    <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="138">
+                    <c:v>961</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>973</c:v>
                   </c:pt>
-                  <c:pt idx="139">
-                    <c:v>993</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>1013</c:v>
+                    <c:v>985</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>1034</c:v>
+                    <c:v>997</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>1056</c:v>
+                    <c:v>1010</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>1078</c:v>
+                    <c:v>1023</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>1100</c:v>
+                    <c:v>1036</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>1123</c:v>
+                    <c:v>1049</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>1146</c:v>
+                    <c:v>1062</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>1169</c:v>
+                    <c:v>1075</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -6053,37 +6076,37 @@
                   <c:v>934</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>953</c:v>
+                  <c:v>949</c:v>
                 </c:pt>
                 <c:pt idx="138">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="139">
                   <c:v>973</c:v>
                 </c:pt>
-                <c:pt idx="139">
-                  <c:v>993</c:v>
-                </c:pt>
                 <c:pt idx="140">
-                  <c:v>1013</c:v>
+                  <c:v>985</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1034</c:v>
+                  <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1056</c:v>
+                  <c:v>1010</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1078</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1100</c:v>
+                  <c:v>1036</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1123</c:v>
+                  <c:v>1049</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1146</c:v>
+                  <c:v>1062</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1169</c:v>
+                  <c:v>1075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6628,37 +6651,37 @@
                     <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>953</c:v>
+                    <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="138">
+                    <c:v>961</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>973</c:v>
                   </c:pt>
-                  <c:pt idx="139">
-                    <c:v>993</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>1013</c:v>
+                    <c:v>985</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>1034</c:v>
+                    <c:v>997</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>1056</c:v>
+                    <c:v>1010</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>1078</c:v>
+                    <c:v>1023</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>1100</c:v>
+                    <c:v>1036</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>1123</c:v>
+                    <c:v>1049</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>1146</c:v>
+                    <c:v>1062</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>1169</c:v>
+                    <c:v>1075</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -6683,34 +6706,34 @@
                   <c:v>893</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>912</c:v>
+                  <c:v>905</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>931</c:v>
+                  <c:v>917</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>950</c:v>
+                  <c:v>929</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>970</c:v>
+                  <c:v>941</c:v>
                 </c:pt>
                 <c:pt idx="142">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="145">
                   <c:v>990</c:v>
                 </c:pt>
-                <c:pt idx="143">
-                  <c:v>1010</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>1031</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1052</c:v>
-                </c:pt>
                 <c:pt idx="146">
-                  <c:v>1074</c:v>
+                  <c:v>1002</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1096</c:v>
+                  <c:v>1014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7404,6 +7427,9 @@
                 <c:pt idx="51">
                   <c:v>857</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>875</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7813,6 +7839,9 @@
                 <c:pt idx="51">
                   <c:v>915</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>930</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8941,37 +8970,37 @@
                   <c:v>934</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>953</c:v>
+                  <c:v>949</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>973</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>993</c:v>
-                </c:pt>
                 <c:pt idx="56">
-                  <c:v>1013</c:v>
+                  <c:v>985</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1034</c:v>
+                  <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1056</c:v>
+                  <c:v>1010</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1078</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1100</c:v>
+                  <c:v>1036</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1123</c:v>
+                  <c:v>1049</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1146</c:v>
+                  <c:v>1062</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1169</c:v>
+                  <c:v>1075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9584,6 +9613,9 @@
                 <c:pt idx="39">
                   <c:v>857</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>875</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9921,6 +9953,9 @@
                 <c:pt idx="39">
                   <c:v>915</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>930</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10869,37 +10904,37 @@
                   <c:v>934</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>953</c:v>
+                  <c:v>949</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>973</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>993</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>1013</c:v>
+                  <c:v>985</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1034</c:v>
+                  <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1056</c:v>
+                  <c:v>1010</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1078</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1100</c:v>
+                  <c:v>1036</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1123</c:v>
+                  <c:v>1049</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1146</c:v>
+                  <c:v>1062</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1169</c:v>
+                  <c:v>1075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12084,10 +12119,13 @@
                   <c:v>889</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>904</c:v>
+                  <c:v>903</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>919</c:v>
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13001,6 +13039,9 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13789,10 +13830,13 @@
                   <c:v>889</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>904</c:v>
+                  <c:v>903</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>919</c:v>
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14293,6 +14337,9 @@
                 <c:pt idx="71">
                   <c:v>915</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>930</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14577,25 +14624,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="77"/>
                 <c:pt idx="70">
-                  <c:v>904</c:v>
+                  <c:v>903</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>919</c:v>
+                  <c:v>918</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>934</c:v>
+                  <c:v>932</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>949</c:v>
+                  <c:v>946</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>965</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>981</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>997</c:v>
+                  <c:v>992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15404,10 +15451,13 @@
                   <c:v>889</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>904</c:v>
+                  <c:v>903</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>919</c:v>
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15929,6 +15979,9 @@
                 <c:pt idx="71">
                   <c:v>915</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>930</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16234,46 +16287,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
                 <c:pt idx="70">
-                  <c:v>904</c:v>
+                  <c:v>903</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>919</c:v>
+                  <c:v>918</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>934</c:v>
+                  <c:v>932</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>949</c:v>
+                  <c:v>946</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>965</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>981</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>997</c:v>
+                  <c:v>992</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1014</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1030</c:v>
+                  <c:v>1009</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1047</c:v>
+                  <c:v>1017</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1065</c:v>
+                  <c:v>1025</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1082</c:v>
+                  <c:v>1034</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1100</c:v>
+                  <c:v>1043</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1118</c:v>
+                  <c:v>1052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16880,10 +16933,13 @@
                   <c:v>889</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>904</c:v>
+                  <c:v>903</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>919</c:v>
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17222,6 +17278,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23131,6 +23190,9 @@
                 <c:pt idx="129">
                   <c:v>857</c:v>
                 </c:pt>
+                <c:pt idx="130">
+                  <c:v>875</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -24008,6 +24070,9 @@
                 <c:pt idx="129">
                   <c:v>915</c:v>
                 </c:pt>
+                <c:pt idx="130">
+                  <c:v>930</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -24874,6 +24939,9 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>860.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>878.71428571428567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25692,16 +25760,16 @@
                     <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>953</c:v>
+                    <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="138">
+                    <c:v>961</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>973</c:v>
                   </c:pt>
-                  <c:pt idx="139">
-                    <c:v>993</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>1013</c:v>
+                    <c:v>985</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -26120,6 +26188,9 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26654,16 +26725,16 @@
                     <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>953</c:v>
+                    <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="138">
+                    <c:v>961</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>973</c:v>
                   </c:pt>
-                  <c:pt idx="139">
-                    <c:v>993</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>1013</c:v>
+                    <c:v>985</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -27082,6 +27153,9 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27606,16 +27680,16 @@
                     <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>953</c:v>
+                    <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="138">
+                    <c:v>961</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>973</c:v>
                   </c:pt>
-                  <c:pt idx="139">
-                    <c:v>993</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>1013</c:v>
+                    <c:v>985</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -28034,6 +28108,9 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>860.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>878.71428571428567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28559,16 +28636,16 @@
                     <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>953</c:v>
+                    <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="138">
+                    <c:v>961</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>973</c:v>
                   </c:pt>
-                  <c:pt idx="139">
-                    <c:v>993</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>1013</c:v>
+                    <c:v>985</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -28590,16 +28667,16 @@
                   <c:v>934</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>953</c:v>
+                  <c:v>949</c:v>
                 </c:pt>
                 <c:pt idx="138">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="139">
                   <c:v>973</c:v>
                 </c:pt>
-                <c:pt idx="139">
-                  <c:v>993</c:v>
-                </c:pt>
                 <c:pt idx="140">
-                  <c:v>1013</c:v>
+                  <c:v>985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29123,16 +29200,16 @@
                     <c:v>934</c:v>
                   </c:pt>
                   <c:pt idx="137">
-                    <c:v>953</c:v>
+                    <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="138">
+                    <c:v>961</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>973</c:v>
                   </c:pt>
-                  <c:pt idx="139">
-                    <c:v>993</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>1013</c:v>
+                    <c:v>985</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -29157,13 +29234,13 @@
                   <c:v>893</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>912</c:v>
+                  <c:v>905</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>931</c:v>
+                  <c:v>917</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>950</c:v>
+                  <c:v>929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -36823,10 +36900,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K138"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:K139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C138"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38309,7 +38387,7 @@
         <v>610</v>
       </c>
       <c r="C126">
-        <f t="shared" ref="C126:C138" si="2">AVERAGE(B120:B126)</f>
+        <f t="shared" ref="C126:C139" si="2">AVERAGE(B120:B126)</f>
         <v>505.28571428571428</v>
       </c>
     </row>
@@ -38455,23 +38533,36 @@
       <c r="C138">
         <f t="shared" si="2"/>
         <v>860.28571428571433</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B139">
+        <v>930</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>878.71428571428567</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C9:C138" formulaRange="1"/>
+    <ignoredError sqref="C9:C139" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="L140" sqref="L140:M141"/>
+    <sheetView topLeftCell="S28" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147:C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45763,15 +45854,15 @@
         <v>121</v>
       </c>
       <c r="C140" s="4">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="D140" s="4">
         <f t="shared" si="54"/>
-        <v>9997620</v>
+        <v>9997621</v>
       </c>
       <c r="E140" s="4">
         <f t="shared" si="55"/>
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F140" s="4">
         <f t="shared" si="56"/>
@@ -45779,7 +45870,7 @@
       </c>
       <c r="G140" s="2">
         <f t="shared" si="57"/>
-        <v>9997620</v>
+        <v>9997621</v>
       </c>
       <c r="H140" s="2">
         <f t="shared" si="58"/>
@@ -45799,7 +45890,7 @@
       </c>
       <c r="L140" s="4">
         <f t="shared" si="64"/>
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M140" s="4">
         <f>RealData!B137</f>
@@ -45807,7 +45898,7 @@
       </c>
       <c r="N140" s="4">
         <f t="shared" ref="N140:N146" si="65">E140</f>
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="O140" s="4">
         <f t="shared" si="62"/>
@@ -45826,15 +45917,15 @@
         <v>122</v>
       </c>
       <c r="C141" s="4">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="D141" s="4">
         <f t="shared" si="54"/>
-        <v>9997530</v>
+        <v>9997531</v>
       </c>
       <c r="E141" s="4">
         <f t="shared" si="55"/>
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F141" s="4">
         <f t="shared" si="56"/>
@@ -45842,7 +45933,7 @@
       </c>
       <c r="G141" s="2">
         <f t="shared" si="57"/>
-        <v>9997530</v>
+        <v>9997531</v>
       </c>
       <c r="H141" s="2">
         <f t="shared" si="58"/>
@@ -45862,7 +45953,7 @@
       </c>
       <c r="L141" s="4">
         <f t="shared" ref="L141" si="66">E141</f>
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M141" s="4">
         <f>RealData!B138</f>
@@ -45870,7 +45961,7 @@
       </c>
       <c r="N141" s="4">
         <f t="shared" si="65"/>
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O141" s="4">
         <f t="shared" si="62"/>
@@ -45889,15 +45980,15 @@
         <v>123</v>
       </c>
       <c r="C142" s="4">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="D142" s="4">
         <f t="shared" si="54"/>
-        <v>9997438</v>
+        <v>9997440</v>
       </c>
       <c r="E142" s="4">
         <f t="shared" si="55"/>
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F142" s="4">
         <f t="shared" si="56"/>
@@ -45905,7 +45996,7 @@
       </c>
       <c r="G142" s="2">
         <f t="shared" si="57"/>
-        <v>9997438</v>
+        <v>9997440</v>
       </c>
       <c r="H142" s="2">
         <f t="shared" si="58"/>
@@ -45923,11 +46014,17 @@
         <f t="shared" si="61"/>
         <v>44155</v>
       </c>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
+      <c r="L142" s="4">
+        <f t="shared" ref="L142" si="67">E142</f>
+        <v>932</v>
+      </c>
+      <c r="M142" s="4">
+        <f>RealData!B139</f>
+        <v>930</v>
+      </c>
       <c r="N142" s="4">
         <f t="shared" si="65"/>
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="O142" s="4">
         <f t="shared" si="62"/>
@@ -45946,15 +46043,15 @@
         <v>124</v>
       </c>
       <c r="C143" s="4">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="D143" s="4">
         <f t="shared" si="54"/>
-        <v>9997345</v>
+        <v>9997348</v>
       </c>
       <c r="E143" s="4">
         <f t="shared" si="55"/>
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="F143" s="4">
         <f t="shared" si="56"/>
@@ -45962,7 +46059,7 @@
       </c>
       <c r="G143" s="2">
         <f t="shared" si="57"/>
-        <v>9997345</v>
+        <v>9997348</v>
       </c>
       <c r="H143" s="2">
         <f t="shared" si="58"/>
@@ -45984,7 +46081,7 @@
       <c r="M143" s="4"/>
       <c r="N143" s="4">
         <f t="shared" si="65"/>
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O143" s="4">
         <f t="shared" si="62"/>
@@ -46003,15 +46100,15 @@
         <v>125</v>
       </c>
       <c r="C144" s="4">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="D144" s="4">
         <f t="shared" si="54"/>
-        <v>9997250</v>
+        <v>9997254</v>
       </c>
       <c r="E144" s="4">
         <f t="shared" si="55"/>
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F144" s="4">
         <f t="shared" si="56"/>
@@ -46019,7 +46116,7 @@
       </c>
       <c r="G144" s="2">
         <f t="shared" si="57"/>
-        <v>9997250</v>
+        <v>9997254</v>
       </c>
       <c r="H144" s="2">
         <f t="shared" si="58"/>
@@ -46041,7 +46138,7 @@
       <c r="M144" s="4"/>
       <c r="N144" s="4">
         <f t="shared" si="65"/>
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="O144" s="4">
         <f t="shared" si="62"/>
@@ -46060,15 +46157,15 @@
         <v>126</v>
       </c>
       <c r="C145" s="4">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="D145" s="4">
         <f t="shared" si="54"/>
-        <v>9997154</v>
+        <v>9997159</v>
       </c>
       <c r="E145" s="4">
         <f t="shared" si="55"/>
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F145" s="4">
         <f t="shared" si="56"/>
@@ -46076,7 +46173,7 @@
       </c>
       <c r="G145" s="2">
         <f t="shared" si="57"/>
-        <v>9997154</v>
+        <v>9997159</v>
       </c>
       <c r="H145" s="2">
         <f t="shared" si="58"/>
@@ -46098,14 +46195,14 @@
       <c r="M145" s="4"/>
       <c r="N145" s="4">
         <f t="shared" si="65"/>
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="O145" s="4">
         <f t="shared" si="62"/>
         <v>7032</v>
       </c>
       <c r="P145" s="4">
-        <f t="shared" ref="P145:P146" si="67">J145</f>
+        <f t="shared" ref="P145:P146" si="68">J145</f>
         <v>3004</v>
       </c>
     </row>
@@ -46117,23 +46214,23 @@
         <v>127</v>
       </c>
       <c r="C146" s="4">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="D146" s="4">
         <f t="shared" si="54"/>
-        <v>9997056</v>
+        <v>9997062</v>
       </c>
       <c r="E146" s="4">
         <f t="shared" si="55"/>
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="F146" s="4">
         <f t="shared" si="56"/>
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="G146" s="2">
         <f t="shared" si="57"/>
-        <v>9997056</v>
+        <v>9997062</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" si="58"/>
@@ -46155,14 +46252,14 @@
       <c r="M146" s="4"/>
       <c r="N146" s="4">
         <f t="shared" si="65"/>
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="O146" s="4">
         <f t="shared" si="62"/>
         <v>7911</v>
       </c>
       <c r="P146" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>3355</v>
       </c>
     </row>
@@ -46174,52 +46271,52 @@
         <v>128</v>
       </c>
       <c r="C147" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D147" s="8">
-        <f t="shared" ref="D147:D153" si="68">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
-        <v>9996956</v>
+        <f t="shared" ref="D147:D153" si="69">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
+        <v>9996971</v>
       </c>
       <c r="E147" s="8">
-        <f t="shared" ref="E147:E153" si="69">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
-        <v>1014</v>
+        <f t="shared" ref="E147:E153" si="70">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
+        <v>1000</v>
       </c>
       <c r="F147" s="8">
-        <f t="shared" ref="F147:F153" si="70">F146+ROUND(E146/$D$2,0)</f>
-        <v>2030</v>
+        <f t="shared" ref="F147:F153" si="71">F146+ROUND(E146/$D$2,0)</f>
+        <v>2029</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" ref="G147:G153" si="71">D147</f>
-        <v>9996956</v>
+        <f t="shared" ref="G147:G153" si="72">D147</f>
+        <v>9996971</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" ref="H147:H153" si="72">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
+        <f t="shared" ref="H147:H153" si="73">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
         <v>8633</v>
       </c>
       <c r="I147" s="5">
-        <f t="shared" ref="I147:I153" si="73">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="I147:I153" si="74">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>8900</v>
       </c>
       <c r="J147" s="6">
-        <f t="shared" ref="J147:J153" si="74">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="J147:J153" si="75">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>3750</v>
       </c>
       <c r="K147" s="7">
-        <f t="shared" ref="K147:K153" si="75">A147</f>
+        <f t="shared" ref="K147:K153" si="76">A147</f>
         <v>44160</v>
       </c>
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
       <c r="N147" s="8">
-        <f t="shared" ref="N147:N153" si="76">E147</f>
-        <v>1014</v>
+        <f t="shared" ref="N147:N153" si="77">E147</f>
+        <v>1000</v>
       </c>
       <c r="O147" s="8">
-        <f t="shared" ref="O147:O153" si="77">I147</f>
+        <f t="shared" ref="O147:O153" si="78">I147</f>
         <v>8900</v>
       </c>
       <c r="P147" s="8">
-        <f t="shared" ref="P147:P153" si="78">J147</f>
+        <f t="shared" ref="P147:P153" si="79">J147</f>
         <v>3750</v>
       </c>
     </row>
@@ -46231,52 +46328,52 @@
         <v>129</v>
       </c>
       <c r="C148" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D148" s="8">
-        <f t="shared" si="68"/>
-        <v>9996855</v>
+        <f t="shared" si="69"/>
+        <v>9996879</v>
       </c>
       <c r="E148" s="8">
-        <f t="shared" si="69"/>
-        <v>1030</v>
+        <f t="shared" si="70"/>
+        <v>1009</v>
       </c>
       <c r="F148" s="8">
-        <f t="shared" si="70"/>
-        <v>2115</v>
+        <f t="shared" si="71"/>
+        <v>2112</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="71"/>
-        <v>9996855</v>
+        <f t="shared" si="72"/>
+        <v>9996879</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>9712</v>
       </c>
       <c r="I148" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>10012</v>
       </c>
       <c r="J148" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4194</v>
       </c>
       <c r="K148" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>44161</v>
       </c>
       <c r="L148" s="8"/>
       <c r="M148" s="8"/>
       <c r="N148" s="8">
-        <f t="shared" si="76"/>
-        <v>1030</v>
+        <f t="shared" si="77"/>
+        <v>1009</v>
       </c>
       <c r="O148" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>10012</v>
       </c>
       <c r="P148" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>4194</v>
       </c>
     </row>
@@ -46288,52 +46385,52 @@
         <v>130</v>
       </c>
       <c r="C149" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D149" s="8">
-        <f t="shared" si="68"/>
-        <v>9996752</v>
+        <f t="shared" si="69"/>
+        <v>9996787</v>
       </c>
       <c r="E149" s="8">
-        <f t="shared" si="69"/>
-        <v>1047</v>
+        <f t="shared" si="70"/>
+        <v>1017</v>
       </c>
       <c r="F149" s="8">
-        <f t="shared" si="70"/>
-        <v>2201</v>
+        <f t="shared" si="71"/>
+        <v>2196</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="71"/>
-        <v>9996752</v>
+        <f t="shared" si="72"/>
+        <v>9996787</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>10926</v>
       </c>
       <c r="I149" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>11263</v>
       </c>
       <c r="J149" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4695</v>
       </c>
       <c r="K149" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>44162</v>
       </c>
       <c r="L149" s="8"/>
       <c r="M149" s="8"/>
       <c r="N149" s="8">
-        <f t="shared" si="76"/>
-        <v>1047</v>
+        <f t="shared" si="77"/>
+        <v>1017</v>
       </c>
       <c r="O149" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>11263</v>
       </c>
       <c r="P149" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>4695</v>
       </c>
     </row>
@@ -46345,52 +46442,52 @@
         <v>131</v>
       </c>
       <c r="C150" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D150" s="8">
-        <f t="shared" si="68"/>
-        <v>9996647</v>
+        <f t="shared" si="69"/>
+        <v>9996694</v>
       </c>
       <c r="E150" s="8">
-        <f t="shared" si="69"/>
-        <v>1065</v>
+        <f t="shared" si="70"/>
+        <v>1025</v>
       </c>
       <c r="F150" s="8">
-        <f t="shared" si="70"/>
-        <v>2288</v>
+        <f t="shared" si="71"/>
+        <v>2281</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="71"/>
-        <v>9996647</v>
+        <f t="shared" si="72"/>
+        <v>9996694</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>12291</v>
       </c>
       <c r="I150" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>12670</v>
       </c>
       <c r="J150" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>5257</v>
       </c>
       <c r="K150" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>44163</v>
       </c>
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
       <c r="N150" s="8">
-        <f t="shared" si="76"/>
-        <v>1065</v>
+        <f t="shared" si="77"/>
+        <v>1025</v>
       </c>
       <c r="O150" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>12670</v>
       </c>
       <c r="P150" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>5257</v>
       </c>
     </row>
@@ -46402,52 +46499,52 @@
         <v>132</v>
       </c>
       <c r="C151" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D151" s="8">
-        <f t="shared" si="68"/>
-        <v>9996541</v>
+        <f t="shared" si="69"/>
+        <v>9996600</v>
       </c>
       <c r="E151" s="8">
-        <f t="shared" si="69"/>
-        <v>1082</v>
+        <f t="shared" si="70"/>
+        <v>1034</v>
       </c>
       <c r="F151" s="8">
-        <f t="shared" si="70"/>
-        <v>2377</v>
+        <f t="shared" si="71"/>
+        <v>2366</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="71"/>
-        <v>9996541</v>
+        <f t="shared" si="72"/>
+        <v>9996600</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>13827</v>
       </c>
       <c r="I151" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>14253</v>
       </c>
       <c r="J151" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>5890</v>
       </c>
       <c r="K151" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>44164</v>
       </c>
       <c r="L151" s="8"/>
       <c r="M151" s="8"/>
       <c r="N151" s="8">
-        <f t="shared" si="76"/>
-        <v>1082</v>
+        <f t="shared" si="77"/>
+        <v>1034</v>
       </c>
       <c r="O151" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>14253</v>
       </c>
       <c r="P151" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>5890</v>
       </c>
     </row>
@@ -46459,52 +46556,52 @@
         <v>133</v>
       </c>
       <c r="C152" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D152" s="8">
-        <f t="shared" si="68"/>
-        <v>9996433</v>
+        <f t="shared" si="69"/>
+        <v>9996505</v>
       </c>
       <c r="E152" s="8">
-        <f t="shared" si="69"/>
-        <v>1100</v>
+        <f t="shared" si="70"/>
+        <v>1043</v>
       </c>
       <c r="F152" s="8">
-        <f t="shared" si="70"/>
-        <v>2467</v>
+        <f t="shared" si="71"/>
+        <v>2452</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="71"/>
-        <v>9996433</v>
+        <f t="shared" si="72"/>
+        <v>9996505</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>15555</v>
       </c>
       <c r="I152" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>16033</v>
       </c>
       <c r="J152" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>6602</v>
       </c>
       <c r="K152" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>44165</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="8"/>
       <c r="N152" s="8">
-        <f t="shared" si="76"/>
-        <v>1100</v>
+        <f t="shared" si="77"/>
+        <v>1043</v>
       </c>
       <c r="O152" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>16033</v>
       </c>
       <c r="P152" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>6602</v>
       </c>
     </row>
@@ -46516,52 +46613,52 @@
         <v>134</v>
       </c>
       <c r="C153" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D153" s="8">
-        <f t="shared" si="68"/>
-        <v>9996323</v>
+        <f t="shared" si="69"/>
+        <v>9996409</v>
       </c>
       <c r="E153" s="8">
-        <f t="shared" si="69"/>
-        <v>1118</v>
+        <f t="shared" si="70"/>
+        <v>1052</v>
       </c>
       <c r="F153" s="8">
-        <f t="shared" si="70"/>
-        <v>2559</v>
+        <f t="shared" si="71"/>
+        <v>2539</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="71"/>
-        <v>9996323</v>
+        <f t="shared" si="72"/>
+        <v>9996409</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>17498</v>
       </c>
       <c r="I153" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>18036</v>
       </c>
       <c r="J153" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>7403</v>
       </c>
       <c r="K153" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>44166</v>
       </c>
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
       <c r="N153" s="8">
-        <f t="shared" si="76"/>
-        <v>1118</v>
+        <f t="shared" si="77"/>
+        <v>1052</v>
       </c>
       <c r="O153" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>18036</v>
       </c>
       <c r="P153" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>7403</v>
       </c>
     </row>
@@ -46574,10 +46671,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C18E4-1873-48DD-B7B4-EAEB82B5E392}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K143" sqref="K143"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144:C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53178,453 +53276,447 @@
         <v>290</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+    <row r="119" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="9">
         <v>44132</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="10">
         <v>114</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="10">
         <v>2.5</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="10">
         <f t="shared" si="11"/>
         <v>9999430</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="10">
         <f t="shared" si="12"/>
         <v>225</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="10">
         <f t="shared" si="13"/>
         <v>347</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G119" s="10">
         <f t="shared" si="14"/>
         <v>9999430</v>
       </c>
-      <c r="H119" s="2">
+      <c r="H119" s="10">
         <f t="shared" si="16"/>
         <v>231</v>
       </c>
-      <c r="I119" s="5">
+      <c r="I119" s="10">
         <f t="shared" si="17"/>
         <v>329</v>
       </c>
-      <c r="J119" s="6">
+      <c r="J119" s="10">
         <f t="shared" si="8"/>
         <v>305</v>
       </c>
-      <c r="K119" s="6"/>
-      <c r="L119" s="1">
+      <c r="L119" s="9">
         <f t="shared" si="9"/>
         <v>44132</v>
       </c>
-      <c r="M119">
+      <c r="M119" s="10">
         <f t="shared" si="18"/>
         <v>225</v>
       </c>
-      <c r="N119">
+      <c r="N119" s="10">
         <f>RealData!B116</f>
         <v>292</v>
       </c>
-      <c r="O119">
+      <c r="O119" s="10">
         <f>RealData!C116</f>
         <v>227</v>
       </c>
-      <c r="R119">
+      <c r="R119" s="10">
         <f t="shared" ref="R119:R134" si="19">I119</f>
         <v>329</v>
       </c>
-      <c r="S119">
+      <c r="S119" s="10">
         <f t="shared" ref="S119:S134" si="20">J119</f>
         <v>305</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+    <row r="120" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="9">
         <v>44133</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="10">
         <v>115</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="10">
         <v>2.5</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="10">
         <f t="shared" si="11"/>
         <v>9999383</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="10">
         <f t="shared" si="12"/>
         <v>253</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="10">
         <f t="shared" si="13"/>
         <v>366</v>
       </c>
-      <c r="G120" s="2">
+      <c r="G120" s="10">
         <f t="shared" si="14"/>
         <v>9999383</v>
       </c>
-      <c r="H120" s="2">
+      <c r="H120" s="10">
         <f t="shared" si="16"/>
         <v>260</v>
       </c>
-      <c r="I120" s="5">
+      <c r="I120" s="10">
         <f t="shared" si="17"/>
         <v>371</v>
       </c>
-      <c r="J120" s="6">
+      <c r="J120" s="10">
         <f t="shared" ref="J120:J139" si="21">J119+ROUND(($E$1/$D$2)*G119*(I119/$D$3),0)-ROUND(I119/$D$2,0)</f>
         <v>322</v>
       </c>
-      <c r="K120" s="6"/>
-      <c r="L120" s="1">
+      <c r="L120" s="9">
         <f t="shared" si="9"/>
         <v>44133</v>
       </c>
-      <c r="M120">
+      <c r="M120" s="10">
         <f t="shared" si="18"/>
         <v>253</v>
       </c>
-      <c r="N120">
+      <c r="N120" s="10">
         <f>RealData!B117</f>
         <v>345</v>
       </c>
-      <c r="O120">
+      <c r="O120" s="10">
         <f>RealData!C117</f>
         <v>254</v>
       </c>
-      <c r="R120">
+      <c r="R120" s="10">
         <f t="shared" si="19"/>
         <v>371</v>
       </c>
-      <c r="S120">
+      <c r="S120" s="10">
         <f t="shared" si="20"/>
         <v>322</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+    <row r="121" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="9">
         <v>44134</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="10">
         <v>116</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="10">
         <v>2.5</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="10">
         <f t="shared" si="11"/>
         <v>9999330</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="10">
         <f t="shared" si="12"/>
         <v>285</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="10">
         <f t="shared" si="13"/>
         <v>387</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G121" s="10">
         <f t="shared" si="14"/>
         <v>9999330</v>
       </c>
-      <c r="H121" s="2">
+      <c r="H121" s="10">
         <f t="shared" si="16"/>
         <v>292</v>
       </c>
-      <c r="I121" s="5">
+      <c r="I121" s="10">
         <f t="shared" si="17"/>
         <v>417</v>
       </c>
-      <c r="J121" s="6">
+      <c r="J121" s="10">
         <f t="shared" si="21"/>
         <v>340</v>
       </c>
-      <c r="K121" s="6"/>
-      <c r="L121" s="1">
+      <c r="L121" s="9">
         <f t="shared" si="9"/>
         <v>44134</v>
       </c>
-      <c r="M121">
+      <c r="M121" s="10">
         <f t="shared" si="18"/>
         <v>285</v>
       </c>
-      <c r="N121">
+      <c r="N121" s="10">
         <f>RealData!B118</f>
         <v>370</v>
       </c>
-      <c r="O121">
+      <c r="O121" s="10">
         <f>RealData!C118</f>
         <v>280.57142857142856</v>
       </c>
-      <c r="R121">
+      <c r="R121" s="10">
         <f t="shared" si="19"/>
         <v>417</v>
       </c>
-      <c r="S121">
+      <c r="S121" s="10">
         <f t="shared" si="20"/>
         <v>340</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+    <row r="122" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9">
         <v>44135</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="10">
         <v>117</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="10">
         <v>2</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="10">
         <f t="shared" si="11"/>
         <v>9999283</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="10">
         <f t="shared" si="12"/>
         <v>308</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="10">
         <f t="shared" si="13"/>
         <v>411</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G122" s="10">
         <f t="shared" si="14"/>
         <v>9999283</v>
       </c>
-      <c r="H122" s="2">
+      <c r="H122" s="10">
         <f t="shared" si="16"/>
         <v>329</v>
       </c>
-      <c r="I122" s="5">
+      <c r="I122" s="10">
         <f t="shared" si="17"/>
         <v>469</v>
       </c>
-      <c r="J122" s="6">
+      <c r="J122" s="10">
         <f t="shared" si="21"/>
         <v>361</v>
       </c>
-      <c r="K122" s="6"/>
-      <c r="L122" s="1">
+      <c r="L122" s="9">
         <f t="shared" si="9"/>
         <v>44135</v>
       </c>
-      <c r="M122">
+      <c r="M122" s="10">
         <f t="shared" si="18"/>
         <v>308</v>
       </c>
-      <c r="N122">
+      <c r="N122" s="10">
         <f>RealData!B119</f>
         <v>392</v>
       </c>
-      <c r="O122">
+      <c r="O122" s="10">
         <f>RealData!C119</f>
         <v>306.14285714285717</v>
       </c>
-      <c r="R122">
+      <c r="R122" s="10">
         <f t="shared" si="19"/>
         <v>469</v>
       </c>
-      <c r="S122">
+      <c r="S122" s="10">
         <f t="shared" si="20"/>
         <v>361</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+    <row r="123" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9">
         <v>44136</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="10">
         <v>118</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="10">
         <v>2</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="10">
         <f t="shared" si="11"/>
         <v>9999232</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="10">
         <f t="shared" si="12"/>
         <v>333</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="10">
         <f t="shared" si="13"/>
         <v>437</v>
       </c>
-      <c r="G123" s="2">
+      <c r="G123" s="10">
         <f t="shared" si="14"/>
         <v>9999232</v>
       </c>
-      <c r="H123" s="2">
+      <c r="H123" s="10">
         <f t="shared" si="16"/>
         <v>371</v>
       </c>
-      <c r="I123" s="5">
+      <c r="I123" s="10">
         <f t="shared" si="17"/>
         <v>528</v>
       </c>
-      <c r="J123" s="6">
+      <c r="J123" s="10">
         <f t="shared" si="21"/>
         <v>385</v>
       </c>
-      <c r="K123" s="6"/>
-      <c r="L123" s="1">
+      <c r="L123" s="9">
         <f t="shared" si="9"/>
         <v>44136</v>
       </c>
-      <c r="M123">
+      <c r="M123" s="10">
         <f t="shared" si="18"/>
         <v>333</v>
       </c>
-      <c r="N123">
+      <c r="N123" s="10">
         <f>RealData!B120</f>
         <v>418</v>
       </c>
-      <c r="O123">
+      <c r="O123" s="10">
         <f>RealData!C120</f>
         <v>332.85714285714283</v>
       </c>
-      <c r="R123">
+      <c r="R123" s="10">
         <f t="shared" si="19"/>
         <v>528</v>
       </c>
-      <c r="S123">
+      <c r="S123" s="10">
         <f t="shared" si="20"/>
         <v>385</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+    <row r="124" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9">
         <v>44137</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="10">
         <v>119</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="10">
         <v>2</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="10">
         <f t="shared" si="11"/>
         <v>9999177</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="10">
         <f t="shared" si="12"/>
         <v>360</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="10">
         <f t="shared" si="13"/>
         <v>465</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G124" s="10">
         <f t="shared" si="14"/>
         <v>9999177</v>
       </c>
-      <c r="H124" s="2">
+      <c r="H124" s="10">
         <f t="shared" si="16"/>
         <v>417</v>
       </c>
-      <c r="I124" s="5">
+      <c r="I124" s="10">
         <f t="shared" si="17"/>
         <v>594</v>
       </c>
-      <c r="J124" s="6">
+      <c r="J124" s="10">
         <f t="shared" si="21"/>
         <v>411</v>
       </c>
-      <c r="K124" s="6"/>
-      <c r="L124" s="1">
+      <c r="L124" s="9">
         <f t="shared" si="9"/>
         <v>44137</v>
       </c>
-      <c r="M124">
+      <c r="M124" s="10">
         <f t="shared" si="18"/>
         <v>360</v>
       </c>
-      <c r="N124">
+      <c r="N124" s="10">
         <f>RealData!B121</f>
         <v>435</v>
       </c>
-      <c r="O124">
+      <c r="O124" s="10">
         <f>RealData!C121</f>
         <v>360.42857142857144</v>
       </c>
-      <c r="R124">
+      <c r="R124" s="10">
         <f t="shared" si="19"/>
         <v>594</v>
       </c>
-      <c r="S124">
+      <c r="S124" s="10">
         <f t="shared" si="20"/>
         <v>411</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+    <row r="125" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="9">
         <v>44138</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="10">
         <v>120</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="10">
         <v>2</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="10">
         <f t="shared" si="11"/>
         <v>9999117</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="10">
         <f t="shared" si="12"/>
         <v>390</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="10">
         <f t="shared" si="13"/>
         <v>495</v>
       </c>
-      <c r="G125" s="2">
+      <c r="G125" s="10">
         <f t="shared" si="14"/>
         <v>9999117</v>
       </c>
-      <c r="H125" s="2">
+      <c r="H125" s="10">
         <f t="shared" si="16"/>
         <v>469</v>
       </c>
-      <c r="I125" s="5">
+      <c r="I125" s="10">
         <f>I124+ROUND(($D$1/$D$2)*G124*(I124/$D$3),0)-ROUND(I124/$D$2,0)</f>
         <v>668</v>
       </c>
-      <c r="J125" s="6">
+      <c r="J125" s="10">
         <f t="shared" si="21"/>
         <v>440</v>
       </c>
-      <c r="K125" s="6">
+      <c r="K125" s="10">
         <f>N124+ROUND((C125/$D$2)*D124*(N124/$D$3),0)-ROUND(N124/$D$2,0)</f>
         <v>471</v>
       </c>
-      <c r="L125" s="1">
+      <c r="L125" s="9">
         <f t="shared" si="9"/>
         <v>44138</v>
       </c>
-      <c r="M125">
+      <c r="M125" s="10">
         <f t="shared" si="18"/>
         <v>390</v>
       </c>
-      <c r="N125">
+      <c r="N125" s="10">
         <f>RealData!B122</f>
         <v>475</v>
       </c>
-      <c r="O125">
+      <c r="O125" s="10">
         <f>RealData!C122</f>
         <v>389.57142857142856</v>
       </c>
-      <c r="R125">
+      <c r="R125" s="10">
         <f t="shared" si="19"/>
         <v>668</v>
       </c>
-      <c r="S125">
+      <c r="S125" s="10">
         <f t="shared" si="20"/>
         <v>440</v>
       </c>
@@ -54358,7 +54450,7 @@
         <v>1148</v>
       </c>
       <c r="K136" s="6">
-        <f t="shared" ref="K136:K141" si="35">N135+ROUND((C136/$D$2)*D135*(N135/$D$3),0)-ROUND(N135/$D$2,0)</f>
+        <f t="shared" ref="K136:K139" si="35">N135+ROUND((C136/$D$2)*D135*(N135/$D$3),0)-ROUND(N135/$D$2,0)</f>
         <v>834</v>
       </c>
       <c r="L136" s="7">
@@ -54709,7 +54801,7 @@
         <v>1929</v>
       </c>
       <c r="K141" s="6">
-        <f>N140+ROUND((C141/$D$2)*D140*(N140/$D$3),0)-ROUND(N140/$D$2,0)</f>
+        <f t="shared" ref="K141:K143" si="50">N140+ROUND((C141/$D$2)*D140*(N140/$D$3),0)-ROUND(N140/$D$2,0)</f>
         <v>922</v>
       </c>
       <c r="L141" s="3">
@@ -54717,7 +54809,7 @@
         <v>44154</v>
       </c>
       <c r="M141" s="4">
-        <f t="shared" ref="M141" si="50">E141</f>
+        <f t="shared" ref="M141" si="51">E141</f>
         <v>857</v>
       </c>
       <c r="N141" s="4">
@@ -54784,16 +54876,25 @@
         <v>2148</v>
       </c>
       <c r="K142" s="6">
-        <f>N141+ROUND((C142/$D$2)*D141*(N141/$D$3),0)-ROUND(N141/$D$2,0)</f>
+        <f t="shared" si="50"/>
         <v>934</v>
       </c>
       <c r="L142" s="3">
         <f t="shared" si="44"/>
         <v>44155</v>
       </c>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
+      <c r="M142" s="4">
+        <f t="shared" ref="M142" si="52">E142</f>
+        <v>875</v>
+      </c>
+      <c r="N142" s="4">
+        <f>RealData!B139</f>
+        <v>930</v>
+      </c>
+      <c r="O142" s="4">
+        <f>RealData!C139</f>
+        <v>878.71428571428567</v>
+      </c>
       <c r="P142" s="4">
         <f t="shared" si="46"/>
         <v>934</v>
@@ -54850,8 +54951,8 @@
         <v>2395</v>
       </c>
       <c r="K143" s="6">
-        <f t="shared" ref="K142:K146" si="51">K142+ROUND((C143/$D$2)*D142*(K142/$D$3),0)-ROUND(K142/$D$2,0)</f>
-        <v>953</v>
+        <f>N142+ROUND((C143/$D$2)*D142*(N142/$D$3),0)-ROUND(N142/$D$2,0)</f>
+        <v>949</v>
       </c>
       <c r="L143" s="3">
         <f t="shared" si="44"/>
@@ -54862,7 +54963,7 @@
       <c r="O143" s="4"/>
       <c r="P143" s="4">
         <f t="shared" si="46"/>
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="Q143" s="4">
         <f t="shared" si="47"/>
@@ -54885,15 +54986,15 @@
         <v>134</v>
       </c>
       <c r="C144" s="4">
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D144" s="4">
         <f t="shared" si="37"/>
-        <v>9997549</v>
+        <v>9997556</v>
       </c>
       <c r="E144" s="4">
         <f t="shared" si="38"/>
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="F144" s="4">
         <f t="shared" si="39"/>
@@ -54901,7 +55002,7 @@
       </c>
       <c r="G144" s="2">
         <f t="shared" si="40"/>
-        <v>9997549</v>
+        <v>9997556</v>
       </c>
       <c r="H144" s="2">
         <f t="shared" si="41"/>
@@ -54916,8 +55017,8 @@
         <v>2673</v>
       </c>
       <c r="K144" s="6">
-        <f t="shared" si="51"/>
-        <v>973</v>
+        <f t="shared" ref="K143:K146" si="53">K143+ROUND((C144/$D$2)*D143*(K143/$D$3),0)-ROUND(K143/$D$2,0)</f>
+        <v>961</v>
       </c>
       <c r="L144" s="3">
         <f t="shared" si="44"/>
@@ -54928,11 +55029,11 @@
       <c r="O144" s="4"/>
       <c r="P144" s="4">
         <f t="shared" si="46"/>
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="Q144" s="4">
         <f t="shared" si="47"/>
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="R144" s="4">
         <f t="shared" si="48"/>
@@ -54951,23 +55052,23 @@
         <v>134</v>
       </c>
       <c r="C145" s="4">
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D145" s="4">
         <f t="shared" si="37"/>
-        <v>9997454</v>
+        <v>9997469</v>
       </c>
       <c r="E145" s="4">
         <f t="shared" si="38"/>
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="F145" s="4">
         <f t="shared" si="39"/>
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="G145" s="2">
         <f t="shared" si="40"/>
-        <v>9997454</v>
+        <v>9997469</v>
       </c>
       <c r="H145" s="2">
         <f t="shared" si="41"/>
@@ -54982,8 +55083,8 @@
         <v>2985</v>
       </c>
       <c r="K145" s="6">
-        <f t="shared" si="51"/>
-        <v>993</v>
+        <f t="shared" si="53"/>
+        <v>973</v>
       </c>
       <c r="L145" s="3">
         <f t="shared" si="44"/>
@@ -54994,11 +55095,11 @@
       <c r="O145" s="4"/>
       <c r="P145" s="4">
         <f t="shared" si="46"/>
-        <v>993</v>
+        <v>973</v>
       </c>
       <c r="Q145" s="4">
         <f t="shared" si="47"/>
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="R145" s="4">
         <f t="shared" si="48"/>
@@ -55017,23 +55118,23 @@
         <v>134</v>
       </c>
       <c r="C146" s="4">
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D146" s="4">
         <f t="shared" si="37"/>
-        <v>9997357</v>
+        <v>9997381</v>
       </c>
       <c r="E146" s="4">
         <f t="shared" si="38"/>
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="F146" s="4">
         <f t="shared" si="39"/>
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="G146" s="2">
         <f t="shared" si="40"/>
-        <v>9997357</v>
+        <v>9997381</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" si="41"/>
@@ -55048,8 +55149,8 @@
         <v>3336</v>
       </c>
       <c r="K146" s="6">
-        <f t="shared" si="51"/>
-        <v>1013</v>
+        <f t="shared" si="53"/>
+        <v>985</v>
       </c>
       <c r="L146" s="3">
         <f t="shared" si="44"/>
@@ -55060,11 +55161,11 @@
       <c r="O146" s="4"/>
       <c r="P146" s="4">
         <f t="shared" si="46"/>
-        <v>1013</v>
+        <v>985</v>
       </c>
       <c r="Q146" s="4">
         <f t="shared" si="47"/>
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="R146" s="4">
         <f t="shared" si="48"/>
@@ -55083,61 +55184,61 @@
         <v>134</v>
       </c>
       <c r="C147" s="8">
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D147" s="8">
-        <f t="shared" ref="D147:D153" si="52">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
-        <v>9997258</v>
+        <f t="shared" ref="D147:D153" si="54">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
+        <v>9997292</v>
       </c>
       <c r="E147" s="8">
-        <f t="shared" ref="E147:E153" si="53">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
-        <v>970</v>
+        <f t="shared" ref="E147:E153" si="55">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
+        <v>941</v>
       </c>
       <c r="F147" s="8">
-        <f t="shared" ref="F147:F153" si="54">F146+ROUND(E146/$D$2,0)</f>
-        <v>1774</v>
+        <f t="shared" ref="F147:F153" si="56">F146+ROUND(E146/$D$2,0)</f>
+        <v>1769</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" ref="G147:G153" si="55">D147</f>
-        <v>9997258</v>
+        <f t="shared" ref="G147:G153" si="57">D147</f>
+        <v>9997292</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" ref="H147:H153" si="56">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
+        <f t="shared" ref="H147:H153" si="58">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
         <v>6251</v>
       </c>
       <c r="I147" s="5">
-        <f t="shared" ref="I147:I153" si="57">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="I147:I153" si="59">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>8900</v>
       </c>
       <c r="J147" s="6">
-        <f t="shared" ref="J147:J153" si="58">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="J147:J153" si="60">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>3732</v>
       </c>
       <c r="K147" s="6">
-        <f t="shared" ref="K147:K153" si="59">K146+ROUND((C147/$D$2)*D146*(K146/$D$3),0)-ROUND(K146/$D$2,0)</f>
-        <v>1034</v>
+        <f t="shared" ref="K147:K153" si="61">K146+ROUND((C147/$D$2)*D146*(K146/$D$3),0)-ROUND(K146/$D$2,0)</f>
+        <v>997</v>
       </c>
       <c r="L147" s="7">
-        <f t="shared" ref="L147:L153" si="60">A147</f>
+        <f t="shared" ref="L147:L153" si="62">A147</f>
         <v>44160</v>
       </c>
       <c r="M147" s="8"/>
       <c r="N147" s="8"/>
       <c r="O147" s="8"/>
       <c r="P147" s="8">
-        <f t="shared" ref="P147:P153" si="61">K147</f>
-        <v>1034</v>
+        <f t="shared" ref="P147:P153" si="63">K147</f>
+        <v>997</v>
       </c>
       <c r="Q147" s="8">
-        <f t="shared" ref="Q147:Q153" si="62">E147</f>
-        <v>970</v>
+        <f t="shared" ref="Q147:Q153" si="64">E147</f>
+        <v>941</v>
       </c>
       <c r="R147" s="8">
-        <f t="shared" ref="R147:R153" si="63">I147</f>
+        <f t="shared" ref="R147:R153" si="65">I147</f>
         <v>8900</v>
       </c>
       <c r="S147" s="8">
-        <f t="shared" ref="S147:S153" si="64">J147</f>
+        <f t="shared" ref="S147:S153" si="66">J147</f>
         <v>3732</v>
       </c>
     </row>
@@ -55149,61 +55250,61 @@
         <v>134</v>
       </c>
       <c r="C148" s="8">
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D148" s="8">
-        <f t="shared" si="52"/>
-        <v>9997157</v>
+        <f t="shared" si="54"/>
+        <v>9997202</v>
       </c>
       <c r="E148" s="8">
-        <f t="shared" si="53"/>
-        <v>990</v>
+        <f t="shared" si="55"/>
+        <v>953</v>
       </c>
       <c r="F148" s="8">
-        <f t="shared" si="54"/>
-        <v>1855</v>
+        <f t="shared" si="56"/>
+        <v>1847</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="55"/>
-        <v>9997157</v>
+        <f t="shared" si="57"/>
+        <v>9997202</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>7032</v>
       </c>
       <c r="I148" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>10012</v>
       </c>
       <c r="J148" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>4176</v>
       </c>
       <c r="K148" s="6">
-        <f t="shared" si="59"/>
-        <v>1056</v>
+        <f t="shared" si="61"/>
+        <v>1010</v>
       </c>
       <c r="L148" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>44161</v>
       </c>
       <c r="M148" s="8"/>
       <c r="N148" s="8"/>
       <c r="O148" s="8"/>
       <c r="P148" s="8">
-        <f t="shared" si="61"/>
-        <v>1056</v>
+        <f t="shared" si="63"/>
+        <v>1010</v>
       </c>
       <c r="Q148" s="8">
-        <f t="shared" si="62"/>
-        <v>990</v>
+        <f t="shared" si="64"/>
+        <v>953</v>
       </c>
       <c r="R148" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>10012</v>
       </c>
       <c r="S148" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>4176</v>
       </c>
     </row>
@@ -55215,61 +55316,61 @@
         <v>134</v>
       </c>
       <c r="C149" s="8">
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D149" s="8">
-        <f t="shared" si="52"/>
-        <v>9997054</v>
+        <f t="shared" si="54"/>
+        <v>9997111</v>
       </c>
       <c r="E149" s="8">
-        <f t="shared" si="53"/>
-        <v>1010</v>
+        <f t="shared" si="55"/>
+        <v>965</v>
       </c>
       <c r="F149" s="8">
-        <f t="shared" si="54"/>
-        <v>1938</v>
+        <f t="shared" si="56"/>
+        <v>1926</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="55"/>
-        <v>9997054</v>
+        <f t="shared" si="57"/>
+        <v>9997111</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>7911</v>
       </c>
       <c r="I149" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>11263</v>
       </c>
       <c r="J149" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>4677</v>
       </c>
       <c r="K149" s="6">
-        <f t="shared" si="59"/>
-        <v>1078</v>
+        <f t="shared" si="61"/>
+        <v>1023</v>
       </c>
       <c r="L149" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>44162</v>
       </c>
       <c r="M149" s="8"/>
       <c r="N149" s="8"/>
       <c r="O149" s="8"/>
       <c r="P149" s="8">
-        <f t="shared" si="61"/>
-        <v>1078</v>
+        <f t="shared" si="63"/>
+        <v>1023</v>
       </c>
       <c r="Q149" s="8">
-        <f t="shared" si="62"/>
-        <v>1010</v>
+        <f t="shared" si="64"/>
+        <v>965</v>
       </c>
       <c r="R149" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>11263</v>
       </c>
       <c r="S149" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>4677</v>
       </c>
     </row>
@@ -55281,61 +55382,61 @@
         <v>134</v>
       </c>
       <c r="C150" s="8">
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D150" s="8">
-        <f t="shared" si="52"/>
-        <v>9996949</v>
+        <f t="shared" si="54"/>
+        <v>9997019</v>
       </c>
       <c r="E150" s="8">
-        <f t="shared" si="53"/>
-        <v>1031</v>
+        <f t="shared" si="55"/>
+        <v>977</v>
       </c>
       <c r="F150" s="8">
-        <f t="shared" si="54"/>
-        <v>2022</v>
+        <f t="shared" si="56"/>
+        <v>2006</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="55"/>
-        <v>9996949</v>
+        <f t="shared" si="57"/>
+        <v>9997019</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>8900</v>
       </c>
       <c r="I150" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>12670</v>
       </c>
       <c r="J150" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>5239</v>
       </c>
       <c r="K150" s="6">
-        <f t="shared" si="59"/>
-        <v>1100</v>
+        <f t="shared" si="61"/>
+        <v>1036</v>
       </c>
       <c r="L150" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>44163</v>
       </c>
       <c r="M150" s="8"/>
       <c r="N150" s="8"/>
       <c r="O150" s="8"/>
       <c r="P150" s="8">
-        <f t="shared" si="61"/>
-        <v>1100</v>
+        <f t="shared" si="63"/>
+        <v>1036</v>
       </c>
       <c r="Q150" s="8">
-        <f t="shared" si="62"/>
-        <v>1031</v>
+        <f t="shared" si="64"/>
+        <v>977</v>
       </c>
       <c r="R150" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>12670</v>
       </c>
       <c r="S150" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5239</v>
       </c>
     </row>
@@ -55347,61 +55448,61 @@
         <v>134</v>
       </c>
       <c r="C151" s="8">
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D151" s="8">
-        <f t="shared" si="52"/>
-        <v>9996842</v>
+        <f t="shared" si="54"/>
+        <v>9996925</v>
       </c>
       <c r="E151" s="8">
-        <f t="shared" si="53"/>
-        <v>1052</v>
+        <f t="shared" si="55"/>
+        <v>990</v>
       </c>
       <c r="F151" s="8">
-        <f t="shared" si="54"/>
-        <v>2108</v>
+        <f t="shared" si="56"/>
+        <v>2087</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="55"/>
-        <v>9996842</v>
+        <f t="shared" si="57"/>
+        <v>9996925</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>10012</v>
       </c>
       <c r="I151" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>14253</v>
       </c>
       <c r="J151" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>5872</v>
       </c>
       <c r="K151" s="6">
-        <f t="shared" si="59"/>
-        <v>1123</v>
+        <f t="shared" si="61"/>
+        <v>1049</v>
       </c>
       <c r="L151" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>44164</v>
       </c>
       <c r="M151" s="8"/>
       <c r="N151" s="8"/>
       <c r="O151" s="8"/>
       <c r="P151" s="8">
-        <f t="shared" si="61"/>
-        <v>1123</v>
+        <f t="shared" si="63"/>
+        <v>1049</v>
       </c>
       <c r="Q151" s="8">
-        <f t="shared" si="62"/>
-        <v>1052</v>
+        <f t="shared" si="64"/>
+        <v>990</v>
       </c>
       <c r="R151" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>14253</v>
       </c>
       <c r="S151" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5872</v>
       </c>
     </row>
@@ -55413,61 +55514,61 @@
         <v>134</v>
       </c>
       <c r="C152" s="8">
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D152" s="8">
-        <f t="shared" si="52"/>
-        <v>9996732</v>
+        <f t="shared" si="54"/>
+        <v>9996830</v>
       </c>
       <c r="E152" s="8">
-        <f t="shared" si="53"/>
-        <v>1074</v>
+        <f t="shared" si="55"/>
+        <v>1002</v>
       </c>
       <c r="F152" s="8">
-        <f t="shared" si="54"/>
-        <v>2196</v>
+        <f t="shared" si="56"/>
+        <v>2170</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="55"/>
-        <v>9996732</v>
+        <f t="shared" si="57"/>
+        <v>9996830</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>11263</v>
       </c>
       <c r="I152" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>16033</v>
       </c>
       <c r="J152" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>6584</v>
       </c>
       <c r="K152" s="6">
-        <f t="shared" si="59"/>
-        <v>1146</v>
+        <f t="shared" si="61"/>
+        <v>1062</v>
       </c>
       <c r="L152" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>44165</v>
       </c>
       <c r="M152" s="8"/>
       <c r="N152" s="8"/>
       <c r="O152" s="8"/>
       <c r="P152" s="8">
-        <f t="shared" si="61"/>
-        <v>1146</v>
+        <f t="shared" si="63"/>
+        <v>1062</v>
       </c>
       <c r="Q152" s="8">
-        <f t="shared" si="62"/>
-        <v>1074</v>
+        <f t="shared" si="64"/>
+        <v>1002</v>
       </c>
       <c r="R152" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>16033</v>
       </c>
       <c r="S152" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>6584</v>
       </c>
     </row>
@@ -55479,61 +55580,61 @@
         <v>134</v>
       </c>
       <c r="C153" s="8">
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D153" s="8">
-        <f t="shared" si="52"/>
-        <v>9996620</v>
+        <f t="shared" si="54"/>
+        <v>9996734</v>
       </c>
       <c r="E153" s="8">
-        <f t="shared" si="53"/>
-        <v>1096</v>
+        <f t="shared" si="55"/>
+        <v>1014</v>
       </c>
       <c r="F153" s="8">
-        <f t="shared" si="54"/>
-        <v>2286</v>
+        <f t="shared" si="56"/>
+        <v>2254</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="55"/>
-        <v>9996620</v>
+        <f t="shared" si="57"/>
+        <v>9996734</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>12670</v>
       </c>
       <c r="I153" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>18036</v>
       </c>
       <c r="J153" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>7385</v>
       </c>
       <c r="K153" s="6">
-        <f t="shared" si="59"/>
-        <v>1169</v>
+        <f t="shared" si="61"/>
+        <v>1075</v>
       </c>
       <c r="L153" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>44166</v>
       </c>
       <c r="M153" s="8"/>
       <c r="N153" s="8"/>
       <c r="O153" s="8"/>
       <c r="P153" s="8">
-        <f t="shared" si="61"/>
-        <v>1169</v>
+        <f t="shared" si="63"/>
+        <v>1075</v>
       </c>
       <c r="Q153" s="8">
-        <f t="shared" si="62"/>
-        <v>1096</v>
+        <f t="shared" si="64"/>
+        <v>1014</v>
       </c>
       <c r="R153" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>18036</v>
       </c>
       <c r="S153" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>7385</v>
       </c>
     </row>

--- a/COVID_EXCEL/COVID Lombardia.xlsx
+++ b/COVID_EXCEL/COVID Lombardia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A00100-CC58-4DA7-BC60-BEB94163E505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4E9960-EA6A-4CFE-9D83-2170957F7A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
@@ -707,13 +707,22 @@
                   <c:v>889</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>903</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>918</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>932</c:v>
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,6 +1196,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3013,46 +3031,46 @@
                     <c:v>886</c:v>
                   </c:pt>
                   <c:pt idx="134">
-                    <c:v>912</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                   <c:pt idx="135">
-                    <c:v>922</c:v>
+                    <c:v>918</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>934</c:v>
+                    <c:v>930</c:v>
                   </c:pt>
                   <c:pt idx="137">
+                    <c:v>937</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>944</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>949</c:v>
                   </c:pt>
-                  <c:pt idx="138">
-                    <c:v>961</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>973</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>985</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>997</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>1010</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>1023</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>1036</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>1049</c:v>
+                    <c:v>941</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>1062</c:v>
+                    <c:v>937</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>1075</c:v>
+                    <c:v>933</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3467,13 +3485,22 @@
                   <c:v>823</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>840</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>857</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>875</c:v>
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4020,46 +4047,46 @@
                     <c:v>886</c:v>
                   </c:pt>
                   <c:pt idx="134">
-                    <c:v>912</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                   <c:pt idx="135">
-                    <c:v>922</c:v>
+                    <c:v>918</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>934</c:v>
+                    <c:v>930</c:v>
                   </c:pt>
                   <c:pt idx="137">
+                    <c:v>937</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>944</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>949</c:v>
                   </c:pt>
-                  <c:pt idx="138">
-                    <c:v>961</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>973</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>985</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>997</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>1010</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>1023</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>1036</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>1049</c:v>
+                    <c:v>941</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>1062</c:v>
+                    <c:v>937</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>1075</c:v>
+                    <c:v>933</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4481,6 +4508,15 @@
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5017,46 +5053,46 @@
                     <c:v>886</c:v>
                   </c:pt>
                   <c:pt idx="134">
-                    <c:v>912</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                   <c:pt idx="135">
-                    <c:v>922</c:v>
+                    <c:v>918</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>934</c:v>
+                    <c:v>930</c:v>
                   </c:pt>
                   <c:pt idx="137">
+                    <c:v>937</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>944</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>949</c:v>
                   </c:pt>
-                  <c:pt idx="138">
-                    <c:v>961</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>973</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>985</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>997</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>1010</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>1023</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>1036</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>1049</c:v>
+                    <c:v>941</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>1062</c:v>
+                    <c:v>937</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>1075</c:v>
+                    <c:v>933</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5478,6 +5514,15 @@
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>878.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>895.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>911.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>924.57142857142856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6015,46 +6060,46 @@
                     <c:v>886</c:v>
                   </c:pt>
                   <c:pt idx="134">
-                    <c:v>912</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                   <c:pt idx="135">
-                    <c:v>922</c:v>
+                    <c:v>918</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>934</c:v>
+                    <c:v>930</c:v>
                   </c:pt>
                   <c:pt idx="137">
+                    <c:v>937</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>944</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>949</c:v>
                   </c:pt>
-                  <c:pt idx="138">
-                    <c:v>961</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>973</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>985</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>997</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>1010</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>1023</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>1036</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>1049</c:v>
+                    <c:v>941</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>1062</c:v>
+                    <c:v>937</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>1075</c:v>
+                    <c:v>933</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -6067,46 +6112,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="148"/>
                 <c:pt idx="134">
-                  <c:v>912</c:v>
+                  <c:v>908</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>922</c:v>
+                  <c:v>918</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>934</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="137">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="139">
                   <c:v>949</c:v>
                 </c:pt>
-                <c:pt idx="138">
-                  <c:v>961</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>973</c:v>
-                </c:pt>
                 <c:pt idx="140">
-                  <c:v>985</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>997</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1010</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1023</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1036</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1049</c:v>
+                  <c:v>941</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1062</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1075</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6642,46 +6687,46 @@
                     <c:v>886</c:v>
                   </c:pt>
                   <c:pt idx="134">
-                    <c:v>912</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                   <c:pt idx="135">
-                    <c:v>922</c:v>
+                    <c:v>918</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>934</c:v>
+                    <c:v>930</c:v>
                   </c:pt>
                   <c:pt idx="137">
+                    <c:v>937</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>944</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>949</c:v>
                   </c:pt>
-                  <c:pt idx="138">
-                    <c:v>961</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>973</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>985</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>997</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>1010</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>1023</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>1036</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>1049</c:v>
+                    <c:v>941</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>1062</c:v>
+                    <c:v>937</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>1075</c:v>
+                    <c:v>933</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -6694,46 +6739,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="148"/>
                 <c:pt idx="134">
-                  <c:v>840</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>857</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>875</c:v>
+                  <c:v>864</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>893</c:v>
+                  <c:v>871</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>905</c:v>
+                  <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>917</c:v>
+                  <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>929</c:v>
+                  <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>941</c:v>
+                  <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>953</c:v>
+                  <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>965</c:v>
+                  <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>977</c:v>
+                  <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>990</c:v>
+                  <c:v>874</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1002</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1014</c:v>
+                  <c:v>866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7422,13 +7467,22 @@
                   <c:v>823</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>840</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>857</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>875</c:v>
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7842,6 +7896,15 @@
                 <c:pt idx="52">
                   <c:v>930</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>945</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8273,10 +8336,10 @@
                   <c:v>14253</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>16033</c:v>
+                  <c:v>16034</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>18036</c:v>
+                  <c:v>18037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8961,46 +9024,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="50">
-                  <c:v>912</c:v>
+                  <c:v>908</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>922</c:v>
+                  <c:v>918</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>934</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>949</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>961</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>973</c:v>
-                </c:pt>
                 <c:pt idx="56">
-                  <c:v>985</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>997</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1010</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1023</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1036</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1049</c:v>
+                  <c:v>941</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1062</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1075</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9608,13 +9671,22 @@
                   <c:v>823</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>840</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>857</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>875</c:v>
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9956,6 +10028,15 @@
                 <c:pt idx="40">
                   <c:v>930</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>945</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10315,10 +10396,10 @@
                   <c:v>14253</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>16033</c:v>
+                  <c:v>16034</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18036</c:v>
+                  <c:v>18037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10895,46 +10976,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="38">
-                  <c:v>912</c:v>
+                  <c:v>908</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>922</c:v>
+                  <c:v>918</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>934</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>949</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>961</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>973</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>985</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>997</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1010</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1023</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1036</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1049</c:v>
+                  <c:v>941</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1062</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1075</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12119,13 +12200,22 @@
                   <c:v>889</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>903</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>918</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>932</c:v>
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13042,6 +13132,15 @@
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13830,13 +13929,22 @@
                   <c:v>889</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>903</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>918</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>932</c:v>
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14340,6 +14448,15 @@
                 <c:pt idx="72">
                   <c:v>930</c:v>
                 </c:pt>
+                <c:pt idx="73">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>945</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14624,25 +14741,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="77"/>
                 <c:pt idx="70">
-                  <c:v>903</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>918</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>932</c:v>
+                  <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>946</c:v>
+                  <c:v>934</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>961</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>976</c:v>
+                  <c:v>947</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>992</c:v>
+                  <c:v>953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15451,13 +15568,22 @@
                   <c:v>889</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>903</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>918</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>932</c:v>
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15982,6 +16108,15 @@
                 <c:pt idx="72">
                   <c:v>930</c:v>
                 </c:pt>
+                <c:pt idx="73">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>945</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16287,46 +16422,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
                 <c:pt idx="70">
-                  <c:v>903</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>918</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>932</c:v>
+                  <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>946</c:v>
+                  <c:v>934</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>961</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>976</c:v>
+                  <c:v>947</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>992</c:v>
+                  <c:v>953</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1000</c:v>
+                  <c:v>955</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1009</c:v>
+                  <c:v>956</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1017</c:v>
+                  <c:v>957</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1025</c:v>
+                  <c:v>958</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1034</c:v>
+                  <c:v>959</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1043</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1052</c:v>
+                  <c:v>962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16933,13 +17068,22 @@
                   <c:v>889</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>903</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>918</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>932</c:v>
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17281,6 +17425,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23185,13 +23338,22 @@
                   <c:v>823</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>840</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>857</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>875</c:v>
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24073,6 +24235,15 @@
                 <c:pt idx="130">
                   <c:v>930</c:v>
                 </c:pt>
+                <c:pt idx="131">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>945</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -24942,6 +25113,15 @@
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>878.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>895.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>911.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>924.57142857142856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25751,25 +25931,25 @@
                     <c:v>886</c:v>
                   </c:pt>
                   <c:pt idx="134">
-                    <c:v>912</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                   <c:pt idx="135">
-                    <c:v>922</c:v>
+                    <c:v>918</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>934</c:v>
+                    <c:v>930</c:v>
                   </c:pt>
                   <c:pt idx="137">
+                    <c:v>937</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>944</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>949</c:v>
                   </c:pt>
-                  <c:pt idx="138">
-                    <c:v>961</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>973</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>985</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -26184,13 +26364,22 @@
                   <c:v>823</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>840</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>857</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>875</c:v>
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26716,25 +26905,25 @@
                     <c:v>886</c:v>
                   </c:pt>
                   <c:pt idx="134">
-                    <c:v>912</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                   <c:pt idx="135">
-                    <c:v>922</c:v>
+                    <c:v>918</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>934</c:v>
+                    <c:v>930</c:v>
                   </c:pt>
                   <c:pt idx="137">
+                    <c:v>937</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>944</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>949</c:v>
                   </c:pt>
-                  <c:pt idx="138">
-                    <c:v>961</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>973</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>985</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -27156,6 +27345,15 @@
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27671,25 +27869,25 @@
                     <c:v>886</c:v>
                   </c:pt>
                   <c:pt idx="134">
-                    <c:v>912</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                   <c:pt idx="135">
-                    <c:v>922</c:v>
+                    <c:v>918</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>934</c:v>
+                    <c:v>930</c:v>
                   </c:pt>
                   <c:pt idx="137">
+                    <c:v>937</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>944</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>949</c:v>
                   </c:pt>
-                  <c:pt idx="138">
-                    <c:v>961</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>973</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>985</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -28111,6 +28309,15 @@
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>878.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>895.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>911.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>924.57142857142856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28627,25 +28834,25 @@
                     <c:v>886</c:v>
                   </c:pt>
                   <c:pt idx="134">
-                    <c:v>912</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                   <c:pt idx="135">
-                    <c:v>922</c:v>
+                    <c:v>918</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>934</c:v>
+                    <c:v>930</c:v>
                   </c:pt>
                   <c:pt idx="137">
+                    <c:v>937</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>944</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>949</c:v>
                   </c:pt>
-                  <c:pt idx="138">
-                    <c:v>961</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>973</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>985</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -28658,25 +28865,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
                 <c:pt idx="134">
-                  <c:v>912</c:v>
+                  <c:v>908</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>922</c:v>
+                  <c:v>918</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>934</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="137">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="139">
                   <c:v>949</c:v>
                 </c:pt>
-                <c:pt idx="138">
-                  <c:v>961</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>973</c:v>
-                </c:pt>
                 <c:pt idx="140">
-                  <c:v>985</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29191,25 +29398,25 @@
                     <c:v>886</c:v>
                   </c:pt>
                   <c:pt idx="134">
-                    <c:v>912</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                   <c:pt idx="135">
-                    <c:v>922</c:v>
+                    <c:v>918</c:v>
                   </c:pt>
                   <c:pt idx="136">
-                    <c:v>934</c:v>
+                    <c:v>930</c:v>
                   </c:pt>
                   <c:pt idx="137">
+                    <c:v>937</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>944</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
                     <c:v>949</c:v>
                   </c:pt>
-                  <c:pt idx="138">
-                    <c:v>961</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>973</c:v>
-                  </c:pt>
                   <c:pt idx="140">
-                    <c:v>985</c:v>
+                    <c:v>945</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -29222,25 +29429,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
                 <c:pt idx="134">
-                  <c:v>840</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>857</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>875</c:v>
+                  <c:v>864</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>893</c:v>
+                  <c:v>871</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>905</c:v>
+                  <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>917</c:v>
+                  <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>929</c:v>
+                  <c:v>878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -36901,10 +37108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:K139"/>
+  <dimension ref="A2:K142"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38387,7 +38594,7 @@
         <v>610</v>
       </c>
       <c r="C126">
-        <f t="shared" ref="C126:C139" si="2">AVERAGE(B120:B126)</f>
+        <f t="shared" ref="C126:C142" si="2">AVERAGE(B120:B126)</f>
         <v>505.28571428571428</v>
       </c>
     </row>
@@ -38545,13 +38752,49 @@
       <c r="C139">
         <f t="shared" si="2"/>
         <v>878.71428571428567</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B140">
+        <v>936</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>895.71428571428567</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B141">
+        <v>949</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>911.71428571428567</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B142">
+        <v>945</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="2"/>
+        <v>924.57142857142856</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C9:C139" formulaRange="1"/>
+    <ignoredError sqref="C9:C139 C140:C142" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38561,8 +38804,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView topLeftCell="S28" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147:C153"/>
+    <sheetView topLeftCell="L4" workbookViewId="0">
+      <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45854,15 +46097,15 @@
         <v>121</v>
       </c>
       <c r="C140" s="4">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="D140" s="4">
         <f t="shared" si="54"/>
-        <v>9997621</v>
+        <v>9997622</v>
       </c>
       <c r="E140" s="4">
         <f t="shared" si="55"/>
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F140" s="4">
         <f t="shared" si="56"/>
@@ -45870,7 +46113,7 @@
       </c>
       <c r="G140" s="2">
         <f t="shared" si="57"/>
-        <v>9997621</v>
+        <v>9997622</v>
       </c>
       <c r="H140" s="2">
         <f t="shared" si="58"/>
@@ -45890,7 +46133,7 @@
       </c>
       <c r="L140" s="4">
         <f t="shared" si="64"/>
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="M140" s="4">
         <f>RealData!B137</f>
@@ -45898,7 +46141,7 @@
       </c>
       <c r="N140" s="4">
         <f t="shared" ref="N140:N146" si="65">E140</f>
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O140" s="4">
         <f t="shared" si="62"/>
@@ -45917,15 +46160,15 @@
         <v>122</v>
       </c>
       <c r="C141" s="4">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="D141" s="4">
         <f t="shared" si="54"/>
-        <v>9997531</v>
+        <v>9997534</v>
       </c>
       <c r="E141" s="4">
         <f t="shared" si="55"/>
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="F141" s="4">
         <f t="shared" si="56"/>
@@ -45933,7 +46176,7 @@
       </c>
       <c r="G141" s="2">
         <f t="shared" si="57"/>
-        <v>9997531</v>
+        <v>9997534</v>
       </c>
       <c r="H141" s="2">
         <f t="shared" si="58"/>
@@ -45953,7 +46196,7 @@
       </c>
       <c r="L141" s="4">
         <f t="shared" ref="L141" si="66">E141</f>
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="M141" s="4">
         <f>RealData!B138</f>
@@ -45961,7 +46204,7 @@
       </c>
       <c r="N141" s="4">
         <f t="shared" si="65"/>
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="O141" s="4">
         <f t="shared" si="62"/>
@@ -45980,23 +46223,23 @@
         <v>123</v>
       </c>
       <c r="C142" s="4">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="D142" s="4">
         <f t="shared" si="54"/>
-        <v>9997440</v>
+        <v>9997445</v>
       </c>
       <c r="E142" s="4">
         <f t="shared" si="55"/>
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="F142" s="4">
         <f t="shared" si="56"/>
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="G142" s="2">
         <f t="shared" si="57"/>
-        <v>9997440</v>
+        <v>9997445</v>
       </c>
       <c r="H142" s="2">
         <f t="shared" si="58"/>
@@ -46016,7 +46259,7 @@
       </c>
       <c r="L142" s="4">
         <f t="shared" ref="L142" si="67">E142</f>
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="M142" s="4">
         <f>RealData!B139</f>
@@ -46024,7 +46267,7 @@
       </c>
       <c r="N142" s="4">
         <f t="shared" si="65"/>
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="O142" s="4">
         <f t="shared" si="62"/>
@@ -46043,23 +46286,23 @@
         <v>124</v>
       </c>
       <c r="C143" s="4">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="D143" s="4">
         <f t="shared" si="54"/>
-        <v>9997348</v>
+        <v>9997362</v>
       </c>
       <c r="E143" s="4">
         <f t="shared" si="55"/>
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="F143" s="4">
         <f t="shared" si="56"/>
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="G143" s="2">
         <f t="shared" si="57"/>
-        <v>9997348</v>
+        <v>9997362</v>
       </c>
       <c r="H143" s="2">
         <f t="shared" si="58"/>
@@ -46077,11 +46320,17 @@
         <f t="shared" si="61"/>
         <v>44156</v>
       </c>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
+      <c r="L143" s="4">
+        <f t="shared" ref="L143:L145" si="68">E143</f>
+        <v>934</v>
+      </c>
+      <c r="M143" s="4">
+        <f>RealData!B140</f>
+        <v>936</v>
+      </c>
       <c r="N143" s="4">
         <f t="shared" si="65"/>
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="O143" s="4">
         <f t="shared" si="62"/>
@@ -46100,23 +46349,23 @@
         <v>125</v>
       </c>
       <c r="C144" s="4">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="D144" s="4">
         <f t="shared" si="54"/>
-        <v>9997254</v>
+        <v>9997278</v>
       </c>
       <c r="E144" s="4">
         <f t="shared" si="55"/>
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="F144" s="4">
         <f t="shared" si="56"/>
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="G144" s="2">
         <f t="shared" si="57"/>
-        <v>9997254</v>
+        <v>9997278</v>
       </c>
       <c r="H144" s="2">
         <f t="shared" si="58"/>
@@ -46134,11 +46383,17 @@
         <f t="shared" si="61"/>
         <v>44157</v>
       </c>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
+      <c r="L144" s="4">
+        <f t="shared" si="68"/>
+        <v>940</v>
+      </c>
+      <c r="M144" s="4">
+        <f>RealData!B141</f>
+        <v>949</v>
+      </c>
       <c r="N144" s="4">
         <f t="shared" si="65"/>
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="O144" s="4">
         <f t="shared" si="62"/>
@@ -46157,23 +46412,23 @@
         <v>126</v>
       </c>
       <c r="C145" s="4">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="D145" s="4">
         <f t="shared" si="54"/>
-        <v>9997159</v>
+        <v>9997193</v>
       </c>
       <c r="E145" s="4">
         <f t="shared" si="55"/>
-        <v>976</v>
+        <v>947</v>
       </c>
       <c r="F145" s="4">
         <f t="shared" si="56"/>
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="G145" s="2">
         <f t="shared" si="57"/>
-        <v>9997159</v>
+        <v>9997193</v>
       </c>
       <c r="H145" s="2">
         <f t="shared" si="58"/>
@@ -46191,18 +46446,24 @@
         <f t="shared" si="61"/>
         <v>44158</v>
       </c>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
+      <c r="L145" s="4">
+        <f t="shared" si="68"/>
+        <v>947</v>
+      </c>
+      <c r="M145" s="4">
+        <f>RealData!B142</f>
+        <v>945</v>
+      </c>
       <c r="N145" s="4">
         <f t="shared" si="65"/>
-        <v>976</v>
+        <v>947</v>
       </c>
       <c r="O145" s="4">
         <f t="shared" si="62"/>
         <v>7032</v>
       </c>
       <c r="P145" s="4">
-        <f t="shared" ref="P145:P146" si="68">J145</f>
+        <f t="shared" ref="P145:P146" si="69">J145</f>
         <v>3004</v>
       </c>
     </row>
@@ -46214,23 +46475,23 @@
         <v>127</v>
       </c>
       <c r="C146" s="4">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="D146" s="4">
         <f t="shared" si="54"/>
-        <v>9997062</v>
+        <v>9997108</v>
       </c>
       <c r="E146" s="4">
         <f t="shared" si="55"/>
-        <v>992</v>
+        <v>953</v>
       </c>
       <c r="F146" s="4">
         <f t="shared" si="56"/>
-        <v>1946</v>
+        <v>1939</v>
       </c>
       <c r="G146" s="2">
         <f t="shared" si="57"/>
-        <v>9997062</v>
+        <v>9997108</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" si="58"/>
@@ -46252,14 +46513,14 @@
       <c r="M146" s="4"/>
       <c r="N146" s="4">
         <f t="shared" si="65"/>
-        <v>992</v>
+        <v>953</v>
       </c>
       <c r="O146" s="4">
         <f t="shared" si="62"/>
         <v>7911</v>
       </c>
       <c r="P146" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>3355</v>
       </c>
     </row>
@@ -46271,52 +46532,52 @@
         <v>128</v>
       </c>
       <c r="C147" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="D147" s="8">
-        <f t="shared" ref="D147:D153" si="69">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
-        <v>9996971</v>
+        <f t="shared" ref="D147:D153" si="70">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
+        <v>9997027</v>
       </c>
       <c r="E147" s="8">
-        <f t="shared" ref="E147:E153" si="70">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
-        <v>1000</v>
+        <f t="shared" ref="E147:E153" si="71">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
+        <v>955</v>
       </c>
       <c r="F147" s="8">
-        <f t="shared" ref="F147:F153" si="71">F146+ROUND(E146/$D$2,0)</f>
-        <v>2029</v>
+        <f t="shared" ref="F147:F153" si="72">F146+ROUND(E146/$D$2,0)</f>
+        <v>2018</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" ref="G147:G153" si="72">D147</f>
-        <v>9996971</v>
+        <f t="shared" ref="G147:G153" si="73">D147</f>
+        <v>9997027</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" ref="H147:H153" si="73">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
+        <f t="shared" ref="H147:H153" si="74">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
         <v>8633</v>
       </c>
       <c r="I147" s="5">
-        <f t="shared" ref="I147:I153" si="74">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="I147:I153" si="75">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>8900</v>
       </c>
       <c r="J147" s="6">
-        <f t="shared" ref="J147:J153" si="75">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="J147:J153" si="76">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>3750</v>
       </c>
       <c r="K147" s="7">
-        <f t="shared" ref="K147:K153" si="76">A147</f>
+        <f t="shared" ref="K147:K153" si="77">A147</f>
         <v>44160</v>
       </c>
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
       <c r="N147" s="8">
-        <f t="shared" ref="N147:N153" si="77">E147</f>
-        <v>1000</v>
+        <f t="shared" ref="N147:N153" si="78">E147</f>
+        <v>955</v>
       </c>
       <c r="O147" s="8">
-        <f t="shared" ref="O147:O153" si="78">I147</f>
+        <f t="shared" ref="O147:O153" si="79">I147</f>
         <v>8900</v>
       </c>
       <c r="P147" s="8">
-        <f t="shared" ref="P147:P153" si="79">J147</f>
+        <f t="shared" ref="P147:P153" si="80">J147</f>
         <v>3750</v>
       </c>
     </row>
@@ -46328,52 +46589,52 @@
         <v>129</v>
       </c>
       <c r="C148" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="D148" s="8">
-        <f t="shared" si="69"/>
-        <v>9996879</v>
+        <f t="shared" si="70"/>
+        <v>9996946</v>
       </c>
       <c r="E148" s="8">
-        <f t="shared" si="70"/>
-        <v>1009</v>
+        <f t="shared" si="71"/>
+        <v>956</v>
       </c>
       <c r="F148" s="8">
-        <f t="shared" si="71"/>
-        <v>2112</v>
+        <f t="shared" si="72"/>
+        <v>2098</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="72"/>
-        <v>9996879</v>
+        <f t="shared" si="73"/>
+        <v>9996946</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>9712</v>
       </c>
       <c r="I148" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>10012</v>
       </c>
       <c r="J148" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>4194</v>
       </c>
       <c r="K148" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>44161</v>
       </c>
       <c r="L148" s="8"/>
       <c r="M148" s="8"/>
       <c r="N148" s="8">
-        <f t="shared" si="77"/>
-        <v>1009</v>
+        <f t="shared" si="78"/>
+        <v>956</v>
       </c>
       <c r="O148" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>10012</v>
       </c>
       <c r="P148" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>4194</v>
       </c>
     </row>
@@ -46385,52 +46646,52 @@
         <v>130</v>
       </c>
       <c r="C149" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="D149" s="8">
-        <f t="shared" si="69"/>
-        <v>9996787</v>
+        <f t="shared" si="70"/>
+        <v>9996865</v>
       </c>
       <c r="E149" s="8">
-        <f t="shared" si="70"/>
-        <v>1017</v>
+        <f t="shared" si="71"/>
+        <v>957</v>
       </c>
       <c r="F149" s="8">
-        <f t="shared" si="71"/>
-        <v>2196</v>
+        <f t="shared" si="72"/>
+        <v>2178</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="72"/>
-        <v>9996787</v>
+        <f t="shared" si="73"/>
+        <v>9996865</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>10926</v>
       </c>
       <c r="I149" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>11263</v>
       </c>
       <c r="J149" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>4695</v>
       </c>
       <c r="K149" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>44162</v>
       </c>
       <c r="L149" s="8"/>
       <c r="M149" s="8"/>
       <c r="N149" s="8">
-        <f t="shared" si="77"/>
-        <v>1017</v>
+        <f t="shared" si="78"/>
+        <v>957</v>
       </c>
       <c r="O149" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>11263</v>
       </c>
       <c r="P149" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>4695</v>
       </c>
     </row>
@@ -46442,52 +46703,52 @@
         <v>131</v>
       </c>
       <c r="C150" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="D150" s="8">
-        <f t="shared" si="69"/>
-        <v>9996694</v>
+        <f t="shared" si="70"/>
+        <v>9996784</v>
       </c>
       <c r="E150" s="8">
-        <f t="shared" si="70"/>
-        <v>1025</v>
+        <f t="shared" si="71"/>
+        <v>958</v>
       </c>
       <c r="F150" s="8">
-        <f t="shared" si="71"/>
-        <v>2281</v>
+        <f t="shared" si="72"/>
+        <v>2258</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="72"/>
-        <v>9996694</v>
+        <f t="shared" si="73"/>
+        <v>9996784</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>12291</v>
       </c>
       <c r="I150" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>12670</v>
       </c>
       <c r="J150" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>5257</v>
       </c>
       <c r="K150" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>44163</v>
       </c>
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
       <c r="N150" s="8">
-        <f t="shared" si="77"/>
-        <v>1025</v>
+        <f t="shared" si="78"/>
+        <v>958</v>
       </c>
       <c r="O150" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>12670</v>
       </c>
       <c r="P150" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>5257</v>
       </c>
     </row>
@@ -46499,52 +46760,52 @@
         <v>132</v>
       </c>
       <c r="C151" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="D151" s="8">
-        <f t="shared" si="69"/>
-        <v>9996600</v>
+        <f t="shared" si="70"/>
+        <v>9996703</v>
       </c>
       <c r="E151" s="8">
-        <f t="shared" si="70"/>
-        <v>1034</v>
+        <f t="shared" si="71"/>
+        <v>959</v>
       </c>
       <c r="F151" s="8">
-        <f t="shared" si="71"/>
-        <v>2366</v>
+        <f t="shared" si="72"/>
+        <v>2338</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="72"/>
-        <v>9996600</v>
+        <f t="shared" si="73"/>
+        <v>9996703</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>13827</v>
       </c>
       <c r="I151" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>14253</v>
       </c>
       <c r="J151" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>5890</v>
       </c>
       <c r="K151" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>44164</v>
       </c>
       <c r="L151" s="8"/>
       <c r="M151" s="8"/>
       <c r="N151" s="8">
-        <f t="shared" si="77"/>
-        <v>1034</v>
+        <f t="shared" si="78"/>
+        <v>959</v>
       </c>
       <c r="O151" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>14253</v>
       </c>
       <c r="P151" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>5890</v>
       </c>
     </row>
@@ -46556,52 +46817,52 @@
         <v>133</v>
       </c>
       <c r="C152" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="D152" s="8">
-        <f t="shared" si="69"/>
-        <v>9996505</v>
+        <f t="shared" si="70"/>
+        <v>9996622</v>
       </c>
       <c r="E152" s="8">
-        <f t="shared" si="70"/>
-        <v>1043</v>
+        <f t="shared" si="71"/>
+        <v>960</v>
       </c>
       <c r="F152" s="8">
-        <f t="shared" si="71"/>
-        <v>2452</v>
+        <f t="shared" si="72"/>
+        <v>2418</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="72"/>
-        <v>9996505</v>
+        <f t="shared" si="73"/>
+        <v>9996622</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>15555</v>
       </c>
       <c r="I152" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>16033</v>
       </c>
       <c r="J152" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>6602</v>
       </c>
       <c r="K152" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>44165</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="8"/>
       <c r="N152" s="8">
-        <f t="shared" si="77"/>
-        <v>1043</v>
+        <f t="shared" si="78"/>
+        <v>960</v>
       </c>
       <c r="O152" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>16033</v>
       </c>
       <c r="P152" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>6602</v>
       </c>
     </row>
@@ -46613,52 +46874,52 @@
         <v>134</v>
       </c>
       <c r="C153" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="D153" s="8">
-        <f t="shared" si="69"/>
-        <v>9996409</v>
+        <f t="shared" si="70"/>
+        <v>9996540</v>
       </c>
       <c r="E153" s="8">
-        <f t="shared" si="70"/>
-        <v>1052</v>
+        <f t="shared" si="71"/>
+        <v>962</v>
       </c>
       <c r="F153" s="8">
-        <f t="shared" si="71"/>
-        <v>2539</v>
+        <f t="shared" si="72"/>
+        <v>2498</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="72"/>
-        <v>9996409</v>
+        <f t="shared" si="73"/>
+        <v>9996540</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="73"/>
-        <v>17498</v>
+        <f t="shared" si="74"/>
+        <v>17499</v>
       </c>
       <c r="I153" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>18036</v>
       </c>
       <c r="J153" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7403</v>
       </c>
       <c r="K153" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>44166</v>
       </c>
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
       <c r="N153" s="8">
-        <f t="shared" si="77"/>
-        <v>1052</v>
+        <f t="shared" si="78"/>
+        <v>962</v>
       </c>
       <c r="O153" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>18036</v>
       </c>
       <c r="P153" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7403</v>
       </c>
     </row>
@@ -46674,8 +46935,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144:C146"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147:C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54695,15 +54956,15 @@
         <v>134</v>
       </c>
       <c r="C140" s="4">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="D140" s="4">
         <f t="shared" ref="D140:D146" si="37">D139-ROUND((C140/$D$2)*D139*(E139/$D$3),0)</f>
-        <v>9997909</v>
+        <v>9997913</v>
       </c>
       <c r="E140" s="4">
         <f t="shared" ref="E140:E146" si="38">E139+ROUND((C140/$D$2)*D139*(E139/$D$3),0)-ROUND(E139/$D$2,0)</f>
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F140" s="4">
         <f t="shared" ref="F140:F146" si="39">F139+ROUND(E139/$D$2,0)</f>
@@ -54711,7 +54972,7 @@
       </c>
       <c r="G140" s="2">
         <f t="shared" ref="G140:G146" si="40">D140</f>
-        <v>9997909</v>
+        <v>9997913</v>
       </c>
       <c r="H140" s="2">
         <f t="shared" ref="H140:H146" si="41">H139+ROUND(($D$1/$D$2)*G139*(H139/$D$3),0)-ROUND(H139/$D$2,0)</f>
@@ -54727,7 +54988,7 @@
       </c>
       <c r="K140" s="6">
         <f>N139+ROUND((C140/$D$2)*D139*(N139/$D$3),0)-ROUND(N139/$D$2,0)</f>
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="L140" s="3">
         <f t="shared" ref="L140:L146" si="44">A140</f>
@@ -54735,7 +54996,7 @@
       </c>
       <c r="M140" s="4">
         <f t="shared" ref="M140" si="45">E140</f>
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="N140" s="4">
         <f>RealData!B137</f>
@@ -54747,11 +55008,11 @@
       </c>
       <c r="P140" s="4">
         <f t="shared" ref="P140:P146" si="46">K140</f>
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="Q140" s="4">
         <f t="shared" ref="Q140:Q146" si="47">E140</f>
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="R140" s="4">
         <f t="shared" ref="R140:R146" si="48">I140</f>
@@ -54770,15 +55031,15 @@
         <v>134</v>
       </c>
       <c r="C141" s="4">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="D141" s="4">
         <f t="shared" si="37"/>
-        <v>9997822</v>
+        <v>9997829</v>
       </c>
       <c r="E141" s="4">
         <f t="shared" si="38"/>
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="F141" s="4">
         <f t="shared" si="39"/>
@@ -54786,7 +55047,7 @@
       </c>
       <c r="G141" s="2">
         <f t="shared" si="40"/>
-        <v>9997822</v>
+        <v>9997829</v>
       </c>
       <c r="H141" s="2">
         <f t="shared" si="41"/>
@@ -54801,8 +55062,8 @@
         <v>1929</v>
       </c>
       <c r="K141" s="6">
-        <f t="shared" ref="K141:K143" si="50">N140+ROUND((C141/$D$2)*D140*(N140/$D$3),0)-ROUND(N140/$D$2,0)</f>
-        <v>922</v>
+        <f t="shared" ref="K141:K146" si="50">N140+ROUND((C141/$D$2)*D140*(N140/$D$3),0)-ROUND(N140/$D$2,0)</f>
+        <v>918</v>
       </c>
       <c r="L141" s="3">
         <f t="shared" si="44"/>
@@ -54810,7 +55071,7 @@
       </c>
       <c r="M141" s="4">
         <f t="shared" ref="M141" si="51">E141</f>
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="N141" s="4">
         <f>RealData!B138</f>
@@ -54822,11 +55083,11 @@
       </c>
       <c r="P141" s="4">
         <f t="shared" si="46"/>
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="Q141" s="4">
         <f t="shared" si="47"/>
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="R141" s="4">
         <f t="shared" si="48"/>
@@ -54845,15 +55106,15 @@
         <v>134</v>
       </c>
       <c r="C142" s="4">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="D142" s="4">
         <f t="shared" si="37"/>
-        <v>9997733</v>
+        <v>9997744</v>
       </c>
       <c r="E142" s="4">
         <f t="shared" si="38"/>
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="F142" s="4">
         <f t="shared" si="39"/>
@@ -54861,7 +55122,7 @@
       </c>
       <c r="G142" s="2">
         <f t="shared" si="40"/>
-        <v>9997733</v>
+        <v>9997744</v>
       </c>
       <c r="H142" s="2">
         <f t="shared" si="41"/>
@@ -54877,7 +55138,7 @@
       </c>
       <c r="K142" s="6">
         <f t="shared" si="50"/>
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="L142" s="3">
         <f t="shared" si="44"/>
@@ -54885,7 +55146,7 @@
       </c>
       <c r="M142" s="4">
         <f t="shared" ref="M142" si="52">E142</f>
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="N142" s="4">
         <f>RealData!B139</f>
@@ -54897,11 +55158,11 @@
       </c>
       <c r="P142" s="4">
         <f t="shared" si="46"/>
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="Q142" s="4">
         <f t="shared" si="47"/>
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="R142" s="4">
         <f t="shared" si="48"/>
@@ -54920,23 +55181,23 @@
         <v>134</v>
       </c>
       <c r="C143" s="4">
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D143" s="4">
         <f t="shared" si="37"/>
-        <v>9997642</v>
+        <v>9997665</v>
       </c>
       <c r="E143" s="4">
         <f t="shared" si="38"/>
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="F143" s="4">
         <f t="shared" si="39"/>
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G143" s="2">
         <f t="shared" si="40"/>
-        <v>9997642</v>
+        <v>9997665</v>
       </c>
       <c r="H143" s="2">
         <f t="shared" si="41"/>
@@ -54951,23 +55212,32 @@
         <v>2395</v>
       </c>
       <c r="K143" s="6">
-        <f>N142+ROUND((C143/$D$2)*D142*(N142/$D$3),0)-ROUND(N142/$D$2,0)</f>
-        <v>949</v>
+        <f t="shared" si="50"/>
+        <v>937</v>
       </c>
       <c r="L143" s="3">
         <f t="shared" si="44"/>
         <v>44156</v>
       </c>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
+      <c r="M143" s="4">
+        <f t="shared" ref="M143:M145" si="53">E143</f>
+        <v>871</v>
+      </c>
+      <c r="N143" s="4">
+        <f>RealData!B140</f>
+        <v>936</v>
+      </c>
+      <c r="O143" s="4">
+        <f>RealData!C140</f>
+        <v>895.71428571428567</v>
+      </c>
       <c r="P143" s="4">
         <f t="shared" si="46"/>
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="Q143" s="4">
         <f t="shared" si="47"/>
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="R143" s="4">
         <f t="shared" si="48"/>
@@ -54986,23 +55256,23 @@
         <v>134</v>
       </c>
       <c r="C144" s="4">
-        <v>1.1499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D144" s="4">
         <f t="shared" si="37"/>
-        <v>9997556</v>
+        <v>9997585</v>
       </c>
       <c r="E144" s="4">
         <f t="shared" si="38"/>
-        <v>905</v>
+        <v>878</v>
       </c>
       <c r="F144" s="4">
         <f t="shared" si="39"/>
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="G144" s="2">
         <f t="shared" si="40"/>
-        <v>9997556</v>
+        <v>9997585</v>
       </c>
       <c r="H144" s="2">
         <f t="shared" si="41"/>
@@ -55017,23 +55287,32 @@
         <v>2673</v>
       </c>
       <c r="K144" s="6">
-        <f t="shared" ref="K143:K146" si="53">K143+ROUND((C144/$D$2)*D143*(K143/$D$3),0)-ROUND(K143/$D$2,0)</f>
-        <v>961</v>
+        <f t="shared" si="50"/>
+        <v>944</v>
       </c>
       <c r="L144" s="3">
         <f t="shared" si="44"/>
         <v>44157</v>
       </c>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
+      <c r="M144" s="4">
+        <f t="shared" si="53"/>
+        <v>878</v>
+      </c>
+      <c r="N144" s="4">
+        <f>RealData!B141</f>
+        <v>949</v>
+      </c>
+      <c r="O144" s="4">
+        <f>RealData!C141</f>
+        <v>911.71428571428567</v>
+      </c>
       <c r="P144" s="4">
         <f t="shared" si="46"/>
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="Q144" s="4">
         <f t="shared" si="47"/>
-        <v>905</v>
+        <v>878</v>
       </c>
       <c r="R144" s="4">
         <f t="shared" si="48"/>
@@ -55052,23 +55331,23 @@
         <v>134</v>
       </c>
       <c r="C145" s="4">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="D145" s="4">
         <f t="shared" si="37"/>
-        <v>9997469</v>
+        <v>9997512</v>
       </c>
       <c r="E145" s="4">
         <f t="shared" si="38"/>
-        <v>917</v>
+        <v>878</v>
       </c>
       <c r="F145" s="4">
         <f t="shared" si="39"/>
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="G145" s="2">
         <f t="shared" si="40"/>
-        <v>9997469</v>
+        <v>9997512</v>
       </c>
       <c r="H145" s="2">
         <f t="shared" si="41"/>
@@ -55083,23 +55362,32 @@
         <v>2985</v>
       </c>
       <c r="K145" s="6">
-        <f t="shared" si="53"/>
-        <v>973</v>
+        <f t="shared" si="50"/>
+        <v>949</v>
       </c>
       <c r="L145" s="3">
         <f t="shared" si="44"/>
         <v>44158</v>
       </c>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="4"/>
+      <c r="M145" s="4">
+        <f t="shared" si="53"/>
+        <v>878</v>
+      </c>
+      <c r="N145" s="4">
+        <f>RealData!B142</f>
+        <v>945</v>
+      </c>
+      <c r="O145" s="4">
+        <f>RealData!C142</f>
+        <v>924.57142857142856</v>
+      </c>
       <c r="P145" s="4">
         <f t="shared" si="46"/>
-        <v>973</v>
+        <v>949</v>
       </c>
       <c r="Q145" s="4">
         <f t="shared" si="47"/>
-        <v>917</v>
+        <v>878</v>
       </c>
       <c r="R145" s="4">
         <f t="shared" si="48"/>
@@ -55118,23 +55406,23 @@
         <v>134</v>
       </c>
       <c r="C146" s="4">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="D146" s="4">
         <f t="shared" si="37"/>
-        <v>9997381</v>
+        <v>9997439</v>
       </c>
       <c r="E146" s="4">
         <f t="shared" si="38"/>
-        <v>929</v>
+        <v>878</v>
       </c>
       <c r="F146" s="4">
         <f t="shared" si="39"/>
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="G146" s="2">
         <f t="shared" si="40"/>
-        <v>9997381</v>
+        <v>9997439</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" si="41"/>
@@ -55149,8 +55437,8 @@
         <v>3336</v>
       </c>
       <c r="K146" s="6">
-        <f t="shared" si="53"/>
-        <v>985</v>
+        <f>N145+ROUND((C146/$D$2)*D145*(N145/$D$3),0)-ROUND(N145/$D$2,0)</f>
+        <v>945</v>
       </c>
       <c r="L146" s="3">
         <f t="shared" si="44"/>
@@ -55161,11 +55449,11 @@
       <c r="O146" s="4"/>
       <c r="P146" s="4">
         <f t="shared" si="46"/>
-        <v>985</v>
+        <v>945</v>
       </c>
       <c r="Q146" s="4">
         <f t="shared" si="47"/>
-        <v>929</v>
+        <v>878</v>
       </c>
       <c r="R146" s="4">
         <f t="shared" si="48"/>
@@ -55184,23 +55472,23 @@
         <v>134</v>
       </c>
       <c r="C147" s="8">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="D147" s="8">
         <f t="shared" ref="D147:D153" si="54">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
-        <v>9997292</v>
+        <v>9997366</v>
       </c>
       <c r="E147" s="8">
         <f t="shared" ref="E147:E153" si="55">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
-        <v>941</v>
+        <v>878</v>
       </c>
       <c r="F147" s="8">
         <f t="shared" ref="F147:F153" si="56">F146+ROUND(E146/$D$2,0)</f>
-        <v>1769</v>
+        <v>1758</v>
       </c>
       <c r="G147" s="2">
         <f t="shared" ref="G147:G153" si="57">D147</f>
-        <v>9997292</v>
+        <v>9997366</v>
       </c>
       <c r="H147" s="2">
         <f t="shared" ref="H147:H153" si="58">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
@@ -55216,7 +55504,7 @@
       </c>
       <c r="K147" s="6">
         <f t="shared" ref="K147:K153" si="61">K146+ROUND((C147/$D$2)*D146*(K146/$D$3),0)-ROUND(K146/$D$2,0)</f>
-        <v>997</v>
+        <v>945</v>
       </c>
       <c r="L147" s="7">
         <f t="shared" ref="L147:L153" si="62">A147</f>
@@ -55227,11 +55515,11 @@
       <c r="O147" s="8"/>
       <c r="P147" s="8">
         <f t="shared" ref="P147:P153" si="63">K147</f>
-        <v>997</v>
+        <v>945</v>
       </c>
       <c r="Q147" s="8">
         <f t="shared" ref="Q147:Q153" si="64">E147</f>
-        <v>941</v>
+        <v>878</v>
       </c>
       <c r="R147" s="8">
         <f t="shared" ref="R147:R153" si="65">I147</f>
@@ -55250,23 +55538,23 @@
         <v>134</v>
       </c>
       <c r="C148" s="8">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="D148" s="8">
         <f t="shared" si="54"/>
-        <v>9997202</v>
+        <v>9997293</v>
       </c>
       <c r="E148" s="8">
         <f t="shared" si="55"/>
-        <v>953</v>
+        <v>878</v>
       </c>
       <c r="F148" s="8">
         <f t="shared" si="56"/>
-        <v>1847</v>
+        <v>1831</v>
       </c>
       <c r="G148" s="2">
         <f t="shared" si="57"/>
-        <v>9997202</v>
+        <v>9997293</v>
       </c>
       <c r="H148" s="2">
         <f t="shared" si="58"/>
@@ -55282,7 +55570,7 @@
       </c>
       <c r="K148" s="6">
         <f t="shared" si="61"/>
-        <v>1010</v>
+        <v>945</v>
       </c>
       <c r="L148" s="7">
         <f t="shared" si="62"/>
@@ -55293,11 +55581,11 @@
       <c r="O148" s="8"/>
       <c r="P148" s="8">
         <f t="shared" si="63"/>
-        <v>1010</v>
+        <v>945</v>
       </c>
       <c r="Q148" s="8">
         <f t="shared" si="64"/>
-        <v>953</v>
+        <v>878</v>
       </c>
       <c r="R148" s="8">
         <f t="shared" si="65"/>
@@ -55316,23 +55604,23 @@
         <v>134</v>
       </c>
       <c r="C149" s="8">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="D149" s="8">
         <f t="shared" si="54"/>
-        <v>9997111</v>
+        <v>9997220</v>
       </c>
       <c r="E149" s="8">
         <f t="shared" si="55"/>
-        <v>965</v>
+        <v>878</v>
       </c>
       <c r="F149" s="8">
         <f t="shared" si="56"/>
-        <v>1926</v>
+        <v>1904</v>
       </c>
       <c r="G149" s="2">
         <f t="shared" si="57"/>
-        <v>9997111</v>
+        <v>9997220</v>
       </c>
       <c r="H149" s="2">
         <f t="shared" si="58"/>
@@ -55348,7 +55636,7 @@
       </c>
       <c r="K149" s="6">
         <f t="shared" si="61"/>
-        <v>1023</v>
+        <v>945</v>
       </c>
       <c r="L149" s="7">
         <f t="shared" si="62"/>
@@ -55359,11 +55647,11 @@
       <c r="O149" s="8"/>
       <c r="P149" s="8">
         <f t="shared" si="63"/>
-        <v>1023</v>
+        <v>945</v>
       </c>
       <c r="Q149" s="8">
         <f t="shared" si="64"/>
-        <v>965</v>
+        <v>878</v>
       </c>
       <c r="R149" s="8">
         <f t="shared" si="65"/>
@@ -55382,23 +55670,23 @@
         <v>134</v>
       </c>
       <c r="C150" s="8">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="D150" s="8">
         <f t="shared" si="54"/>
-        <v>9997019</v>
+        <v>9997147</v>
       </c>
       <c r="E150" s="8">
         <f t="shared" si="55"/>
-        <v>977</v>
+        <v>878</v>
       </c>
       <c r="F150" s="8">
         <f t="shared" si="56"/>
-        <v>2006</v>
+        <v>1977</v>
       </c>
       <c r="G150" s="2">
         <f t="shared" si="57"/>
-        <v>9997019</v>
+        <v>9997147</v>
       </c>
       <c r="H150" s="2">
         <f t="shared" si="58"/>
@@ -55414,7 +55702,7 @@
       </c>
       <c r="K150" s="6">
         <f t="shared" si="61"/>
-        <v>1036</v>
+        <v>945</v>
       </c>
       <c r="L150" s="7">
         <f t="shared" si="62"/>
@@ -55425,11 +55713,11 @@
       <c r="O150" s="8"/>
       <c r="P150" s="8">
         <f t="shared" si="63"/>
-        <v>1036</v>
+        <v>945</v>
       </c>
       <c r="Q150" s="8">
         <f t="shared" si="64"/>
-        <v>977</v>
+        <v>878</v>
       </c>
       <c r="R150" s="8">
         <f t="shared" si="65"/>
@@ -55448,23 +55736,23 @@
         <v>134</v>
       </c>
       <c r="C151" s="8">
-        <v>1.1499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="D151" s="8">
         <f t="shared" si="54"/>
-        <v>9996925</v>
+        <v>9997078</v>
       </c>
       <c r="E151" s="8">
         <f t="shared" si="55"/>
-        <v>990</v>
+        <v>874</v>
       </c>
       <c r="F151" s="8">
         <f t="shared" si="56"/>
-        <v>2087</v>
+        <v>2050</v>
       </c>
       <c r="G151" s="2">
         <f t="shared" si="57"/>
-        <v>9996925</v>
+        <v>9997078</v>
       </c>
       <c r="H151" s="2">
         <f t="shared" si="58"/>
@@ -55480,7 +55768,7 @@
       </c>
       <c r="K151" s="6">
         <f t="shared" si="61"/>
-        <v>1049</v>
+        <v>941</v>
       </c>
       <c r="L151" s="7">
         <f t="shared" si="62"/>
@@ -55491,11 +55779,11 @@
       <c r="O151" s="8"/>
       <c r="P151" s="8">
         <f t="shared" si="63"/>
-        <v>1049</v>
+        <v>941</v>
       </c>
       <c r="Q151" s="8">
         <f t="shared" si="64"/>
-        <v>990</v>
+        <v>874</v>
       </c>
       <c r="R151" s="8">
         <f t="shared" si="65"/>
@@ -55514,23 +55802,23 @@
         <v>134</v>
       </c>
       <c r="C152" s="8">
-        <v>1.1499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="D152" s="8">
         <f t="shared" si="54"/>
-        <v>9996830</v>
+        <v>9997009</v>
       </c>
       <c r="E152" s="8">
         <f t="shared" si="55"/>
-        <v>1002</v>
+        <v>870</v>
       </c>
       <c r="F152" s="8">
         <f t="shared" si="56"/>
-        <v>2170</v>
+        <v>2123</v>
       </c>
       <c r="G152" s="2">
         <f t="shared" si="57"/>
-        <v>9996830</v>
+        <v>9997009</v>
       </c>
       <c r="H152" s="2">
         <f t="shared" si="58"/>
@@ -55538,7 +55826,7 @@
       </c>
       <c r="I152" s="5">
         <f t="shared" si="59"/>
-        <v>16033</v>
+        <v>16034</v>
       </c>
       <c r="J152" s="6">
         <f t="shared" si="60"/>
@@ -55546,7 +55834,7 @@
       </c>
       <c r="K152" s="6">
         <f t="shared" si="61"/>
-        <v>1062</v>
+        <v>937</v>
       </c>
       <c r="L152" s="7">
         <f t="shared" si="62"/>
@@ -55557,15 +55845,15 @@
       <c r="O152" s="8"/>
       <c r="P152" s="8">
         <f t="shared" si="63"/>
-        <v>1062</v>
+        <v>937</v>
       </c>
       <c r="Q152" s="8">
         <f t="shared" si="64"/>
-        <v>1002</v>
+        <v>870</v>
       </c>
       <c r="R152" s="8">
         <f t="shared" si="65"/>
-        <v>16033</v>
+        <v>16034</v>
       </c>
       <c r="S152" s="8">
         <f t="shared" si="66"/>
@@ -55580,23 +55868,23 @@
         <v>134</v>
       </c>
       <c r="C153" s="8">
-        <v>1.1499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="D153" s="8">
         <f t="shared" si="54"/>
-        <v>9996734</v>
+        <v>9996940</v>
       </c>
       <c r="E153" s="8">
         <f t="shared" si="55"/>
-        <v>1014</v>
+        <v>866</v>
       </c>
       <c r="F153" s="8">
         <f t="shared" si="56"/>
-        <v>2254</v>
+        <v>2196</v>
       </c>
       <c r="G153" s="2">
         <f t="shared" si="57"/>
-        <v>9996734</v>
+        <v>9996940</v>
       </c>
       <c r="H153" s="2">
         <f t="shared" si="58"/>
@@ -55604,7 +55892,7 @@
       </c>
       <c r="I153" s="5">
         <f t="shared" si="59"/>
-        <v>18036</v>
+        <v>18037</v>
       </c>
       <c r="J153" s="6">
         <f t="shared" si="60"/>
@@ -55612,7 +55900,7 @@
       </c>
       <c r="K153" s="6">
         <f t="shared" si="61"/>
-        <v>1075</v>
+        <v>933</v>
       </c>
       <c r="L153" s="7">
         <f t="shared" si="62"/>
@@ -55623,15 +55911,15 @@
       <c r="O153" s="8"/>
       <c r="P153" s="8">
         <f t="shared" si="63"/>
-        <v>1075</v>
+        <v>933</v>
       </c>
       <c r="Q153" s="8">
         <f t="shared" si="64"/>
-        <v>1014</v>
+        <v>866</v>
       </c>
       <c r="R153" s="8">
         <f t="shared" si="65"/>
-        <v>18036</v>
+        <v>18037</v>
       </c>
       <c r="S153" s="8">
         <f t="shared" si="66"/>

--- a/COVID_EXCEL/COVID Lombardia.xlsx
+++ b/COVID_EXCEL/COVID Lombardia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4E9960-EA6A-4CFE-9D83-2170957F7A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EFBA73-3AEA-4D2D-83E2-8B0486128433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="21975" yWindow="255" windowWidth="15720" windowHeight="10920" activeTab="2" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -716,13 +716,16 @@
                   <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>934</c:v>
+                  <c:v>938</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>940</c:v>
+                  <c:v>948</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>947</c:v>
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,6 +1208,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3049,28 +3055,28 @@
                     <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>945</c:v>
+                    <c:v>933</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>945</c:v>
+                    <c:v>920</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>945</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>945</c:v>
+                    <c:v>896</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>945</c:v>
+                    <c:v>884</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>941</c:v>
+                    <c:v>873</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>937</c:v>
+                    <c:v>862</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>933</c:v>
+                    <c:v>851</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3501,6 +3507,9 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4065,28 +4074,28 @@
                     <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>945</c:v>
+                    <c:v>933</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>945</c:v>
+                    <c:v>920</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>945</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>945</c:v>
+                    <c:v>896</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>945</c:v>
+                    <c:v>884</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>941</c:v>
+                    <c:v>873</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>937</c:v>
+                    <c:v>862</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>933</c:v>
+                    <c:v>851</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4517,6 +4526,9 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5071,28 +5083,28 @@
                     <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>945</c:v>
+                    <c:v>933</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>945</c:v>
+                    <c:v>920</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>945</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>945</c:v>
+                    <c:v>896</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>945</c:v>
+                    <c:v>884</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>941</c:v>
+                    <c:v>873</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>937</c:v>
+                    <c:v>862</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>933</c:v>
+                    <c:v>851</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5523,6 +5535,9 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>924.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6078,28 +6093,28 @@
                     <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>945</c:v>
+                    <c:v>933</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>945</c:v>
+                    <c:v>920</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>945</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>945</c:v>
+                    <c:v>896</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>945</c:v>
+                    <c:v>884</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>941</c:v>
+                    <c:v>873</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>937</c:v>
+                    <c:v>862</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>933</c:v>
+                    <c:v>851</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -6130,28 +6145,28 @@
                   <c:v>949</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>945</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>945</c:v>
+                  <c:v>920</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>945</c:v>
+                  <c:v>908</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>945</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>945</c:v>
+                  <c:v>884</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>941</c:v>
+                  <c:v>873</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>937</c:v>
+                  <c:v>862</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>933</c:v>
+                  <c:v>851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6705,28 +6720,28 @@
                     <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>945</c:v>
+                    <c:v>933</c:v>
                   </c:pt>
                   <c:pt idx="141">
-                    <c:v>945</c:v>
+                    <c:v>920</c:v>
                   </c:pt>
                   <c:pt idx="142">
-                    <c:v>945</c:v>
+                    <c:v>908</c:v>
                   </c:pt>
                   <c:pt idx="143">
-                    <c:v>945</c:v>
+                    <c:v>896</c:v>
                   </c:pt>
                   <c:pt idx="144">
-                    <c:v>945</c:v>
+                    <c:v>884</c:v>
                   </c:pt>
                   <c:pt idx="145">
-                    <c:v>941</c:v>
+                    <c:v>873</c:v>
                   </c:pt>
                   <c:pt idx="146">
-                    <c:v>937</c:v>
+                    <c:v>862</c:v>
                   </c:pt>
                   <c:pt idx="147">
-                    <c:v>933</c:v>
+                    <c:v>851</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -6757,28 +6772,28 @@
                   <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>878</c:v>
+                  <c:v>867</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>878</c:v>
+                  <c:v>856</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>878</c:v>
+                  <c:v>846</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>878</c:v>
+                  <c:v>835</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>878</c:v>
+                  <c:v>824</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>874</c:v>
+                  <c:v>813</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>870</c:v>
+                  <c:v>803</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>866</c:v>
+                  <c:v>793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7484,6 +7499,9 @@
                 <c:pt idx="55">
                   <c:v>878</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>867</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7905,6 +7923,9 @@
                 <c:pt idx="55">
                   <c:v>945</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>932</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9042,28 +9063,28 @@
                   <c:v>949</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>945</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>945</c:v>
+                  <c:v>920</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>945</c:v>
+                  <c:v>908</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>945</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>945</c:v>
+                  <c:v>884</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>941</c:v>
+                  <c:v>873</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>937</c:v>
+                  <c:v>862</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>933</c:v>
+                  <c:v>851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9688,6 +9709,9 @@
                 <c:pt idx="43">
                   <c:v>878</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>867</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10037,6 +10061,9 @@
                 <c:pt idx="43">
                   <c:v>945</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>932</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10994,28 +11021,28 @@
                   <c:v>949</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>945</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>945</c:v>
+                  <c:v>920</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>945</c:v>
+                  <c:v>908</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>945</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>945</c:v>
+                  <c:v>884</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>941</c:v>
+                  <c:v>873</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>937</c:v>
+                  <c:v>862</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>933</c:v>
+                  <c:v>851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12209,13 +12236,16 @@
                   <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>934</c:v>
+                  <c:v>938</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>940</c:v>
+                  <c:v>948</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>947</c:v>
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13141,6 +13171,9 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13938,13 +13971,16 @@
                   <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>934</c:v>
+                  <c:v>938</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>940</c:v>
+                  <c:v>948</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>947</c:v>
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14457,6 +14493,9 @@
                 <c:pt idx="75">
                   <c:v>945</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>932</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14750,16 +14789,16 @@
                   <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>934</c:v>
+                  <c:v>938</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>940</c:v>
+                  <c:v>948</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>947</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>953</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15577,13 +15616,16 @@
                   <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>934</c:v>
+                  <c:v>938</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>940</c:v>
+                  <c:v>948</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>947</c:v>
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16117,6 +16159,9 @@
                 <c:pt idx="75">
                   <c:v>945</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>932</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16431,37 +16476,37 @@
                   <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>934</c:v>
+                  <c:v>938</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>940</c:v>
+                  <c:v>948</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>947</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>953</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>955</c:v>
+                  <c:v>921</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>956</c:v>
+                  <c:v>909</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>957</c:v>
+                  <c:v>897</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>958</c:v>
+                  <c:v>886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>959</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>960</c:v>
+                  <c:v>864</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>962</c:v>
+                  <c:v>853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17077,13 +17122,16 @@
                   <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>934</c:v>
+                  <c:v>938</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>940</c:v>
+                  <c:v>948</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>947</c:v>
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17434,6 +17482,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23355,6 +23406,9 @@
                 <c:pt idx="133">
                   <c:v>878</c:v>
                 </c:pt>
+                <c:pt idx="134">
+                  <c:v>867</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -24244,6 +24298,9 @@
                 <c:pt idx="133">
                   <c:v>945</c:v>
                 </c:pt>
+                <c:pt idx="134">
+                  <c:v>932</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -25122,6 +25179,9 @@
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>924.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25949,7 +26009,7 @@
                     <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>945</c:v>
+                    <c:v>933</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -26380,6 +26440,9 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26923,7 +26986,7 @@
                     <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>945</c:v>
+                    <c:v>933</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -27354,6 +27417,9 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27887,7 +27953,7 @@
                     <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>945</c:v>
+                    <c:v>933</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -28318,6 +28384,9 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>924.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28852,7 +28921,7 @@
                     <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>945</c:v>
+                    <c:v>933</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -28883,7 +28952,7 @@
                   <c:v>949</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>945</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29416,7 +29485,7 @@
                     <c:v>949</c:v>
                   </c:pt>
                   <c:pt idx="140">
-                    <c:v>945</c:v>
+                    <c:v>933</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -29447,7 +29516,7 @@
                   <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>878</c:v>
+                  <c:v>867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -37108,10 +37177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:K142"/>
+  <dimension ref="A2:K143"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38594,7 +38663,7 @@
         <v>610</v>
       </c>
       <c r="C126">
-        <f t="shared" ref="C126:C142" si="2">AVERAGE(B120:B126)</f>
+        <f t="shared" ref="C126:C143" si="2">AVERAGE(B120:B126)</f>
         <v>505.28571428571428</v>
       </c>
     </row>
@@ -38788,13 +38857,25 @@
       <c r="C142">
         <f t="shared" si="2"/>
         <v>924.57142857142856</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B143">
+        <v>932</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="2"/>
+        <v>930</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C9:C139 C140:C142" formulaRange="1"/>
+    <ignoredError sqref="C9:C143" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38804,8 +38885,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="I157" sqref="I157"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147:C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46286,15 +46367,15 @@
         <v>124</v>
       </c>
       <c r="C143" s="4">
-        <v>1.08</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D143" s="4">
         <f t="shared" si="54"/>
-        <v>9997362</v>
+        <v>9997358</v>
       </c>
       <c r="E143" s="4">
         <f t="shared" si="55"/>
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="F143" s="4">
         <f t="shared" si="56"/>
@@ -46302,7 +46383,7 @@
       </c>
       <c r="G143" s="2">
         <f t="shared" si="57"/>
-        <v>9997362</v>
+        <v>9997358</v>
       </c>
       <c r="H143" s="2">
         <f t="shared" si="58"/>
@@ -46322,7 +46403,7 @@
       </c>
       <c r="L143" s="4">
         <f t="shared" ref="L143:L145" si="68">E143</f>
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="M143" s="4">
         <f>RealData!B140</f>
@@ -46330,7 +46411,7 @@
       </c>
       <c r="N143" s="4">
         <f t="shared" si="65"/>
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="O143" s="4">
         <f t="shared" si="62"/>
@@ -46349,15 +46430,15 @@
         <v>125</v>
       </c>
       <c r="C144" s="4">
-        <v>1.08</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D144" s="4">
         <f t="shared" si="54"/>
-        <v>9997278</v>
+        <v>9997270</v>
       </c>
       <c r="E144" s="4">
         <f t="shared" si="55"/>
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="F144" s="4">
         <f t="shared" si="56"/>
@@ -46365,7 +46446,7 @@
       </c>
       <c r="G144" s="2">
         <f t="shared" si="57"/>
-        <v>9997278</v>
+        <v>9997270</v>
       </c>
       <c r="H144" s="2">
         <f t="shared" si="58"/>
@@ -46385,7 +46466,7 @@
       </c>
       <c r="L144" s="4">
         <f t="shared" si="68"/>
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="M144" s="4">
         <f>RealData!B141</f>
@@ -46393,7 +46474,7 @@
       </c>
       <c r="N144" s="4">
         <f t="shared" si="65"/>
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="O144" s="4">
         <f t="shared" si="62"/>
@@ -46412,23 +46493,23 @@
         <v>126</v>
       </c>
       <c r="C145" s="4">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="D145" s="4">
         <f t="shared" si="54"/>
-        <v>9997193</v>
+        <v>9997194</v>
       </c>
       <c r="E145" s="4">
         <f t="shared" si="55"/>
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F145" s="4">
         <f t="shared" si="56"/>
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="G145" s="2">
         <f t="shared" si="57"/>
-        <v>9997193</v>
+        <v>9997194</v>
       </c>
       <c r="H145" s="2">
         <f t="shared" si="58"/>
@@ -46448,7 +46529,7 @@
       </c>
       <c r="L145" s="4">
         <f t="shared" si="68"/>
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="M145" s="4">
         <f>RealData!B142</f>
@@ -46456,7 +46537,7 @@
       </c>
       <c r="N145" s="4">
         <f t="shared" si="65"/>
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="O145" s="4">
         <f t="shared" si="62"/>
@@ -46475,23 +46556,23 @@
         <v>127</v>
       </c>
       <c r="C146" s="4">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="D146" s="4">
         <f t="shared" si="54"/>
-        <v>9997108</v>
+        <v>9997127</v>
       </c>
       <c r="E146" s="4">
         <f t="shared" si="55"/>
-        <v>953</v>
+        <v>933</v>
       </c>
       <c r="F146" s="4">
         <f t="shared" si="56"/>
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="G146" s="2">
         <f t="shared" si="57"/>
-        <v>9997108</v>
+        <v>9997127</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" si="58"/>
@@ -46509,11 +46590,17 @@
         <f t="shared" si="61"/>
         <v>44159</v>
       </c>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
+      <c r="L146" s="4">
+        <f t="shared" ref="L146" si="70">E146</f>
+        <v>933</v>
+      </c>
+      <c r="M146" s="4">
+        <f>RealData!B143</f>
+        <v>932</v>
+      </c>
       <c r="N146" s="4">
         <f t="shared" si="65"/>
-        <v>953</v>
+        <v>933</v>
       </c>
       <c r="O146" s="4">
         <f t="shared" si="62"/>
@@ -46532,52 +46619,52 @@
         <v>128</v>
       </c>
       <c r="C147" s="8">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
       <c r="D147" s="8">
-        <f t="shared" ref="D147:D153" si="70">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
-        <v>9997027</v>
+        <f t="shared" ref="D147:D153" si="71">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
+        <v>9997061</v>
       </c>
       <c r="E147" s="8">
-        <f t="shared" ref="E147:E153" si="71">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
-        <v>955</v>
+        <f t="shared" ref="E147:E153" si="72">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
+        <v>921</v>
       </c>
       <c r="F147" s="8">
-        <f t="shared" ref="F147:F153" si="72">F146+ROUND(E146/$D$2,0)</f>
+        <f t="shared" ref="F147:F153" si="73">F146+ROUND(E146/$D$2,0)</f>
         <v>2018</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" ref="G147:G153" si="73">D147</f>
-        <v>9997027</v>
+        <f t="shared" ref="G147:G153" si="74">D147</f>
+        <v>9997061</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" ref="H147:H153" si="74">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
+        <f t="shared" ref="H147:H153" si="75">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
         <v>8633</v>
       </c>
       <c r="I147" s="5">
-        <f t="shared" ref="I147:I153" si="75">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="I147:I153" si="76">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>8900</v>
       </c>
       <c r="J147" s="6">
-        <f t="shared" ref="J147:J153" si="76">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="J147:J153" si="77">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>3750</v>
       </c>
       <c r="K147" s="7">
-        <f t="shared" ref="K147:K153" si="77">A147</f>
+        <f t="shared" ref="K147:K153" si="78">A147</f>
         <v>44160</v>
       </c>
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
       <c r="N147" s="8">
-        <f t="shared" ref="N147:N153" si="78">E147</f>
-        <v>955</v>
+        <f t="shared" ref="N147:N153" si="79">E147</f>
+        <v>921</v>
       </c>
       <c r="O147" s="8">
-        <f t="shared" ref="O147:O153" si="79">I147</f>
+        <f t="shared" ref="O147:O153" si="80">I147</f>
         <v>8900</v>
       </c>
       <c r="P147" s="8">
-        <f t="shared" ref="P147:P153" si="80">J147</f>
+        <f t="shared" ref="P147:P153" si="81">J147</f>
         <v>3750</v>
       </c>
     </row>
@@ -46589,52 +46676,52 @@
         <v>129</v>
       </c>
       <c r="C148" s="8">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
       <c r="D148" s="8">
-        <f t="shared" si="70"/>
-        <v>9996946</v>
+        <f t="shared" si="71"/>
+        <v>9996996</v>
       </c>
       <c r="E148" s="8">
-        <f t="shared" si="71"/>
-        <v>956</v>
+        <f t="shared" si="72"/>
+        <v>909</v>
       </c>
       <c r="F148" s="8">
-        <f t="shared" si="72"/>
-        <v>2098</v>
+        <f t="shared" si="73"/>
+        <v>2095</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="73"/>
-        <v>9996946</v>
+        <f t="shared" si="74"/>
+        <v>9996996</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>9712</v>
       </c>
       <c r="I148" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>10012</v>
       </c>
       <c r="J148" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>4194</v>
       </c>
       <c r="K148" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>44161</v>
       </c>
       <c r="L148" s="8"/>
       <c r="M148" s="8"/>
       <c r="N148" s="8">
-        <f t="shared" si="78"/>
-        <v>956</v>
+        <f t="shared" si="79"/>
+        <v>909</v>
       </c>
       <c r="O148" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>10012</v>
       </c>
       <c r="P148" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4194</v>
       </c>
     </row>
@@ -46646,52 +46733,52 @@
         <v>130</v>
       </c>
       <c r="C149" s="8">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
       <c r="D149" s="8">
-        <f t="shared" si="70"/>
-        <v>9996865</v>
+        <f t="shared" si="71"/>
+        <v>9996932</v>
       </c>
       <c r="E149" s="8">
-        <f t="shared" si="71"/>
-        <v>957</v>
+        <f t="shared" si="72"/>
+        <v>897</v>
       </c>
       <c r="F149" s="8">
-        <f t="shared" si="72"/>
-        <v>2178</v>
+        <f t="shared" si="73"/>
+        <v>2171</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="73"/>
-        <v>9996865</v>
+        <f t="shared" si="74"/>
+        <v>9996932</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>10926</v>
       </c>
       <c r="I149" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>11263</v>
       </c>
       <c r="J149" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>4695</v>
       </c>
       <c r="K149" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>44162</v>
       </c>
       <c r="L149" s="8"/>
       <c r="M149" s="8"/>
       <c r="N149" s="8">
-        <f t="shared" si="78"/>
-        <v>957</v>
+        <f t="shared" si="79"/>
+        <v>897</v>
       </c>
       <c r="O149" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>11263</v>
       </c>
       <c r="P149" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4695</v>
       </c>
     </row>
@@ -46703,52 +46790,52 @@
         <v>131</v>
       </c>
       <c r="C150" s="8">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
       <c r="D150" s="8">
-        <f t="shared" si="70"/>
-        <v>9996784</v>
+        <f t="shared" si="71"/>
+        <v>9996868</v>
       </c>
       <c r="E150" s="8">
-        <f t="shared" si="71"/>
-        <v>958</v>
+        <f t="shared" si="72"/>
+        <v>886</v>
       </c>
       <c r="F150" s="8">
-        <f t="shared" si="72"/>
-        <v>2258</v>
+        <f t="shared" si="73"/>
+        <v>2246</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="73"/>
-        <v>9996784</v>
+        <f t="shared" si="74"/>
+        <v>9996868</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>12291</v>
       </c>
       <c r="I150" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>12670</v>
       </c>
       <c r="J150" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5257</v>
       </c>
       <c r="K150" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>44163</v>
       </c>
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
       <c r="N150" s="8">
-        <f t="shared" si="78"/>
-        <v>958</v>
+        <f t="shared" si="79"/>
+        <v>886</v>
       </c>
       <c r="O150" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>12670</v>
       </c>
       <c r="P150" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>5257</v>
       </c>
     </row>
@@ -46760,52 +46847,52 @@
         <v>132</v>
       </c>
       <c r="C151" s="8">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
       <c r="D151" s="8">
-        <f t="shared" si="70"/>
-        <v>9996703</v>
+        <f t="shared" si="71"/>
+        <v>9996805</v>
       </c>
       <c r="E151" s="8">
-        <f t="shared" si="71"/>
-        <v>959</v>
+        <f t="shared" si="72"/>
+        <v>875</v>
       </c>
       <c r="F151" s="8">
-        <f t="shared" si="72"/>
-        <v>2338</v>
+        <f t="shared" si="73"/>
+        <v>2320</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="73"/>
-        <v>9996703</v>
+        <f t="shared" si="74"/>
+        <v>9996805</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>13827</v>
       </c>
       <c r="I151" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>14253</v>
       </c>
       <c r="J151" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5890</v>
       </c>
       <c r="K151" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>44164</v>
       </c>
       <c r="L151" s="8"/>
       <c r="M151" s="8"/>
       <c r="N151" s="8">
-        <f t="shared" si="78"/>
-        <v>959</v>
+        <f t="shared" si="79"/>
+        <v>875</v>
       </c>
       <c r="O151" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>14253</v>
       </c>
       <c r="P151" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>5890</v>
       </c>
     </row>
@@ -46817,52 +46904,52 @@
         <v>133</v>
       </c>
       <c r="C152" s="8">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
       <c r="D152" s="8">
-        <f t="shared" si="70"/>
-        <v>9996622</v>
+        <f t="shared" si="71"/>
+        <v>9996743</v>
       </c>
       <c r="E152" s="8">
-        <f t="shared" si="71"/>
-        <v>960</v>
+        <f t="shared" si="72"/>
+        <v>864</v>
       </c>
       <c r="F152" s="8">
-        <f t="shared" si="72"/>
-        <v>2418</v>
+        <f t="shared" si="73"/>
+        <v>2393</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="73"/>
-        <v>9996622</v>
+        <f t="shared" si="74"/>
+        <v>9996743</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>15555</v>
       </c>
       <c r="I152" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>16033</v>
       </c>
       <c r="J152" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>6602</v>
       </c>
       <c r="K152" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>44165</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="8"/>
       <c r="N152" s="8">
-        <f t="shared" si="78"/>
-        <v>960</v>
+        <f t="shared" si="79"/>
+        <v>864</v>
       </c>
       <c r="O152" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>16033</v>
       </c>
       <c r="P152" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>6602</v>
       </c>
     </row>
@@ -46874,52 +46961,52 @@
         <v>134</v>
       </c>
       <c r="C153" s="8">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
       <c r="D153" s="8">
-        <f t="shared" si="70"/>
-        <v>9996540</v>
+        <f t="shared" si="71"/>
+        <v>9996682</v>
       </c>
       <c r="E153" s="8">
-        <f t="shared" si="71"/>
-        <v>962</v>
+        <f t="shared" si="72"/>
+        <v>853</v>
       </c>
       <c r="F153" s="8">
-        <f t="shared" si="72"/>
-        <v>2498</v>
+        <f t="shared" si="73"/>
+        <v>2465</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="73"/>
-        <v>9996540</v>
+        <f t="shared" si="74"/>
+        <v>9996682</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>17499</v>
       </c>
       <c r="I153" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>18036</v>
       </c>
       <c r="J153" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>7403</v>
       </c>
       <c r="K153" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>44166</v>
       </c>
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
       <c r="N153" s="8">
-        <f t="shared" si="78"/>
-        <v>962</v>
+        <f t="shared" si="79"/>
+        <v>853</v>
       </c>
       <c r="O153" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>18036</v>
       </c>
       <c r="P153" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>7403</v>
       </c>
     </row>
@@ -46935,8 +47022,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147:C150"/>
+    <sheetView tabSelected="1" topLeftCell="C136" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O147" sqref="O147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55062,7 +55149,7 @@
         <v>1929</v>
       </c>
       <c r="K141" s="6">
-        <f t="shared" ref="K141:K146" si="50">N140+ROUND((C141/$D$2)*D140*(N140/$D$3),0)-ROUND(N140/$D$2,0)</f>
+        <f t="shared" ref="K141:K147" si="50">N140+ROUND((C141/$D$2)*D140*(N140/$D$3),0)-ROUND(N140/$D$2,0)</f>
         <v>918</v>
       </c>
       <c r="L141" s="3">
@@ -55406,15 +55493,15 @@
         <v>134</v>
       </c>
       <c r="C146" s="4">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="D146" s="4">
         <f t="shared" si="37"/>
-        <v>9997439</v>
+        <v>9997450</v>
       </c>
       <c r="E146" s="4">
         <f t="shared" si="38"/>
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="F146" s="4">
         <f t="shared" si="39"/>
@@ -55422,7 +55509,7 @@
       </c>
       <c r="G146" s="2">
         <f t="shared" si="40"/>
-        <v>9997439</v>
+        <v>9997450</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" si="41"/>
@@ -55437,23 +55524,32 @@
         <v>3336</v>
       </c>
       <c r="K146" s="6">
-        <f>N145+ROUND((C146/$D$2)*D145*(N145/$D$3),0)-ROUND(N145/$D$2,0)</f>
-        <v>945</v>
+        <f t="shared" si="50"/>
+        <v>933</v>
       </c>
       <c r="L146" s="3">
         <f t="shared" si="44"/>
         <v>44159</v>
       </c>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
+      <c r="M146" s="4">
+        <f t="shared" ref="M146" si="54">E146</f>
+        <v>867</v>
+      </c>
+      <c r="N146" s="4">
+        <f>RealData!B143</f>
+        <v>932</v>
+      </c>
+      <c r="O146" s="4">
+        <f>RealData!C143</f>
+        <v>930</v>
+      </c>
       <c r="P146" s="4">
         <f t="shared" si="46"/>
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="Q146" s="4">
         <f t="shared" si="47"/>
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="R146" s="4">
         <f t="shared" si="48"/>
@@ -55472,39 +55568,39 @@
         <v>134</v>
       </c>
       <c r="C147" s="8">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="D147" s="8">
-        <f t="shared" ref="D147:D153" si="54">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
-        <v>9997366</v>
+        <f t="shared" ref="D147:D153" si="55">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
+        <v>9997389</v>
       </c>
       <c r="E147" s="8">
-        <f t="shared" ref="E147:E153" si="55">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
-        <v>878</v>
+        <f t="shared" ref="E147:E153" si="56">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
+        <v>856</v>
       </c>
       <c r="F147" s="8">
-        <f t="shared" ref="F147:F153" si="56">F146+ROUND(E146/$D$2,0)</f>
-        <v>1758</v>
+        <f t="shared" ref="F147:F153" si="57">F146+ROUND(E146/$D$2,0)</f>
+        <v>1757</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" ref="G147:G153" si="57">D147</f>
-        <v>9997366</v>
+        <f t="shared" ref="G147:G153" si="58">D147</f>
+        <v>9997389</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" ref="H147:H153" si="58">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
+        <f t="shared" ref="H147:H153" si="59">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
         <v>6251</v>
       </c>
       <c r="I147" s="5">
-        <f t="shared" ref="I147:I153" si="59">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="I147:I153" si="60">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>8900</v>
       </c>
       <c r="J147" s="6">
-        <f t="shared" ref="J147:J153" si="60">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="J147:J153" si="61">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>3732</v>
       </c>
       <c r="K147" s="6">
-        <f t="shared" ref="K147:K153" si="61">K146+ROUND((C147/$D$2)*D146*(K146/$D$3),0)-ROUND(K146/$D$2,0)</f>
-        <v>945</v>
+        <f t="shared" si="50"/>
+        <v>920</v>
       </c>
       <c r="L147" s="7">
         <f t="shared" ref="L147:L153" si="62">A147</f>
@@ -55515,11 +55611,11 @@
       <c r="O147" s="8"/>
       <c r="P147" s="8">
         <f t="shared" ref="P147:P153" si="63">K147</f>
-        <v>945</v>
+        <v>920</v>
       </c>
       <c r="Q147" s="8">
         <f t="shared" ref="Q147:Q153" si="64">E147</f>
-        <v>878</v>
+        <v>856</v>
       </c>
       <c r="R147" s="8">
         <f t="shared" ref="R147:R153" si="65">I147</f>
@@ -55538,39 +55634,39 @@
         <v>134</v>
       </c>
       <c r="C148" s="8">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="D148" s="8">
-        <f t="shared" si="54"/>
-        <v>9997293</v>
+        <f t="shared" si="55"/>
+        <v>9997328</v>
       </c>
       <c r="E148" s="8">
-        <f t="shared" si="55"/>
-        <v>878</v>
+        <f t="shared" si="56"/>
+        <v>846</v>
       </c>
       <c r="F148" s="8">
-        <f t="shared" si="56"/>
-        <v>1831</v>
+        <f t="shared" si="57"/>
+        <v>1828</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="57"/>
-        <v>9997293</v>
+        <f t="shared" si="58"/>
+        <v>9997328</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>7032</v>
       </c>
       <c r="I148" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>10012</v>
       </c>
       <c r="J148" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>4176</v>
       </c>
       <c r="K148" s="6">
-        <f t="shared" si="61"/>
-        <v>945</v>
+        <f t="shared" ref="K147:K153" si="67">K147+ROUND((C148/$D$2)*D147*(K147/$D$3),0)-ROUND(K147/$D$2,0)</f>
+        <v>908</v>
       </c>
       <c r="L148" s="7">
         <f t="shared" si="62"/>
@@ -55581,11 +55677,11 @@
       <c r="O148" s="8"/>
       <c r="P148" s="8">
         <f t="shared" si="63"/>
-        <v>945</v>
+        <v>908</v>
       </c>
       <c r="Q148" s="8">
         <f t="shared" si="64"/>
-        <v>878</v>
+        <v>846</v>
       </c>
       <c r="R148" s="8">
         <f t="shared" si="65"/>
@@ -55604,39 +55700,39 @@
         <v>134</v>
       </c>
       <c r="C149" s="8">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="D149" s="8">
-        <f t="shared" si="54"/>
-        <v>9997220</v>
+        <f t="shared" si="55"/>
+        <v>9997268</v>
       </c>
       <c r="E149" s="8">
-        <f t="shared" si="55"/>
-        <v>878</v>
+        <f t="shared" si="56"/>
+        <v>835</v>
       </c>
       <c r="F149" s="8">
-        <f t="shared" si="56"/>
-        <v>1904</v>
+        <f t="shared" si="57"/>
+        <v>1899</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="57"/>
-        <v>9997220</v>
+        <f t="shared" si="58"/>
+        <v>9997268</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>7911</v>
       </c>
       <c r="I149" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>11263</v>
       </c>
       <c r="J149" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>4677</v>
       </c>
       <c r="K149" s="6">
-        <f t="shared" si="61"/>
-        <v>945</v>
+        <f t="shared" si="67"/>
+        <v>896</v>
       </c>
       <c r="L149" s="7">
         <f t="shared" si="62"/>
@@ -55647,11 +55743,11 @@
       <c r="O149" s="8"/>
       <c r="P149" s="8">
         <f t="shared" si="63"/>
-        <v>945</v>
+        <v>896</v>
       </c>
       <c r="Q149" s="8">
         <f t="shared" si="64"/>
-        <v>878</v>
+        <v>835</v>
       </c>
       <c r="R149" s="8">
         <f t="shared" si="65"/>
@@ -55670,39 +55766,39 @@
         <v>134</v>
       </c>
       <c r="C150" s="8">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="D150" s="8">
-        <f t="shared" si="54"/>
-        <v>9997147</v>
+        <f t="shared" si="55"/>
+        <v>9997209</v>
       </c>
       <c r="E150" s="8">
-        <f t="shared" si="55"/>
-        <v>878</v>
+        <f t="shared" si="56"/>
+        <v>824</v>
       </c>
       <c r="F150" s="8">
-        <f t="shared" si="56"/>
-        <v>1977</v>
+        <f t="shared" si="57"/>
+        <v>1969</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="57"/>
-        <v>9997147</v>
+        <f t="shared" si="58"/>
+        <v>9997209</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>8900</v>
       </c>
       <c r="I150" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>12670</v>
       </c>
       <c r="J150" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>5239</v>
       </c>
       <c r="K150" s="6">
-        <f t="shared" si="61"/>
-        <v>945</v>
+        <f t="shared" si="67"/>
+        <v>884</v>
       </c>
       <c r="L150" s="7">
         <f t="shared" si="62"/>
@@ -55713,11 +55809,11 @@
       <c r="O150" s="8"/>
       <c r="P150" s="8">
         <f t="shared" si="63"/>
-        <v>945</v>
+        <v>884</v>
       </c>
       <c r="Q150" s="8">
         <f t="shared" si="64"/>
-        <v>878</v>
+        <v>824</v>
       </c>
       <c r="R150" s="8">
         <f t="shared" si="65"/>
@@ -55736,39 +55832,39 @@
         <v>134</v>
       </c>
       <c r="C151" s="8">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="D151" s="8">
-        <f t="shared" si="54"/>
-        <v>9997078</v>
+        <f t="shared" si="55"/>
+        <v>9997151</v>
       </c>
       <c r="E151" s="8">
-        <f t="shared" si="55"/>
-        <v>874</v>
+        <f t="shared" si="56"/>
+        <v>813</v>
       </c>
       <c r="F151" s="8">
-        <f t="shared" si="56"/>
-        <v>2050</v>
+        <f t="shared" si="57"/>
+        <v>2038</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="57"/>
-        <v>9997078</v>
+        <f t="shared" si="58"/>
+        <v>9997151</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>10012</v>
       </c>
       <c r="I151" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>14253</v>
       </c>
       <c r="J151" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>5872</v>
       </c>
       <c r="K151" s="6">
-        <f t="shared" si="61"/>
-        <v>941</v>
+        <f t="shared" si="67"/>
+        <v>873</v>
       </c>
       <c r="L151" s="7">
         <f t="shared" si="62"/>
@@ -55779,11 +55875,11 @@
       <c r="O151" s="8"/>
       <c r="P151" s="8">
         <f t="shared" si="63"/>
-        <v>941</v>
+        <v>873</v>
       </c>
       <c r="Q151" s="8">
         <f t="shared" si="64"/>
-        <v>874</v>
+        <v>813</v>
       </c>
       <c r="R151" s="8">
         <f t="shared" si="65"/>
@@ -55802,39 +55898,39 @@
         <v>134</v>
       </c>
       <c r="C152" s="8">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="D152" s="8">
-        <f t="shared" si="54"/>
-        <v>9997009</v>
+        <f t="shared" si="55"/>
+        <v>9997093</v>
       </c>
       <c r="E152" s="8">
-        <f t="shared" si="55"/>
-        <v>870</v>
+        <f t="shared" si="56"/>
+        <v>803</v>
       </c>
       <c r="F152" s="8">
-        <f t="shared" si="56"/>
-        <v>2123</v>
+        <f t="shared" si="57"/>
+        <v>2106</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="57"/>
-        <v>9997009</v>
+        <f t="shared" si="58"/>
+        <v>9997093</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>11263</v>
       </c>
       <c r="I152" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>16034</v>
       </c>
       <c r="J152" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>6584</v>
       </c>
       <c r="K152" s="6">
-        <f t="shared" si="61"/>
-        <v>937</v>
+        <f t="shared" si="67"/>
+        <v>862</v>
       </c>
       <c r="L152" s="7">
         <f t="shared" si="62"/>
@@ -55845,11 +55941,11 @@
       <c r="O152" s="8"/>
       <c r="P152" s="8">
         <f t="shared" si="63"/>
-        <v>937</v>
+        <v>862</v>
       </c>
       <c r="Q152" s="8">
         <f t="shared" si="64"/>
-        <v>870</v>
+        <v>803</v>
       </c>
       <c r="R152" s="8">
         <f t="shared" si="65"/>
@@ -55868,39 +55964,39 @@
         <v>134</v>
       </c>
       <c r="C153" s="8">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="D153" s="8">
-        <f t="shared" si="54"/>
-        <v>9996940</v>
+        <f t="shared" si="55"/>
+        <v>9997036</v>
       </c>
       <c r="E153" s="8">
-        <f t="shared" si="55"/>
-        <v>866</v>
+        <f t="shared" si="56"/>
+        <v>793</v>
       </c>
       <c r="F153" s="8">
-        <f t="shared" si="56"/>
-        <v>2196</v>
+        <f t="shared" si="57"/>
+        <v>2173</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="57"/>
-        <v>9996940</v>
+        <f t="shared" si="58"/>
+        <v>9997036</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>12670</v>
       </c>
       <c r="I153" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>18037</v>
       </c>
       <c r="J153" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>7385</v>
       </c>
       <c r="K153" s="6">
-        <f t="shared" si="61"/>
-        <v>933</v>
+        <f t="shared" si="67"/>
+        <v>851</v>
       </c>
       <c r="L153" s="7">
         <f t="shared" si="62"/>
@@ -55911,11 +56007,11 @@
       <c r="O153" s="8"/>
       <c r="P153" s="8">
         <f t="shared" si="63"/>
-        <v>933</v>
+        <v>851</v>
       </c>
       <c r="Q153" s="8">
         <f t="shared" si="64"/>
-        <v>866</v>
+        <v>793</v>
       </c>
       <c r="R153" s="8">
         <f t="shared" si="65"/>
